--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{E3867740-8415-461F-9378-8D186C82851C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AACEB170-EC42-4477-A0FA-A402B380F413}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0F2A81F-48C3-4DCD-9998-D71FC11754FE}"/>
   <bookViews>
-    <workbookView xWindow="5640" yWindow="4365" windowWidth="21600" windowHeight="11835" xr2:uid="{2ED5858B-15C6-4229-A204-C2FDC5BB9EB7}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$267</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +37,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="555">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="459">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Business Focus</t>
+  </si>
+  <si>
+    <t>Customers Rating</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
   <si>
     <t>ABC INTERNATIONAL BANK PLC</t>
   </si>
@@ -54,15 +69,6 @@
     <t>Agricultural Bank of China Limited London Branch</t>
   </si>
   <si>
-    <t>Ahli United Bank (UK) Plc</t>
-  </si>
-  <si>
-    <t>financial advising</t>
-  </si>
-  <si>
-    <t>3210.26 mln USD</t>
-  </si>
-  <si>
     <t>AIB Group (UK) Plc</t>
   </si>
   <si>
@@ -90,30 +96,6 @@
     <t>12471.90 mln GBP</t>
   </si>
   <si>
-    <t>Allfunds Bank SA</t>
-  </si>
-  <si>
-    <t>investment management</t>
-  </si>
-  <si>
-    <t>Alliance Trust Savings Ltd</t>
-  </si>
-  <si>
-    <t>securities trading</t>
-  </si>
-  <si>
-    <t>35.41 mln GBP</t>
-  </si>
-  <si>
-    <t>Allica Bank Ltd</t>
-  </si>
-  <si>
-    <t>SME financing</t>
-  </si>
-  <si>
-    <t>44.54 mln GBP</t>
-  </si>
-  <si>
     <t>Alpha Bank London Limited</t>
   </si>
   <si>
@@ -204,12 +186,6 @@
     <t>184.98 mln GBP</t>
   </si>
   <si>
-    <t>Bank J Safra Sarasin (Gibraltar) Limited</t>
-  </si>
-  <si>
-    <t>wealth and investment management</t>
-  </si>
-  <si>
     <t>Bank Leumi (UK) plc</t>
   </si>
   <si>
@@ -354,24 +330,6 @@
     <t>258398.00 mln GBP</t>
   </si>
   <si>
-    <t>BARCLAYS CAPITAL SECURITIES LIMITED</t>
-  </si>
-  <si>
-    <t>capital markets services</t>
-  </si>
-  <si>
-    <t>93822.82 mln GBP</t>
-  </si>
-  <si>
-    <t>Barclays Execution Services Limited</t>
-  </si>
-  <si>
-    <t>banking support services</t>
-  </si>
-  <si>
-    <t>7992.73 mln GBP</t>
-  </si>
-  <si>
     <t>Bayerische Landesbank</t>
   </si>
   <si>
@@ -381,15 +339,6 @@
     <t>117.32 mln GBP</t>
   </si>
   <si>
-    <t>BIRA Bank Limited</t>
-  </si>
-  <si>
-    <t>corporate lending</t>
-  </si>
-  <si>
-    <t>18.98 mln GBP</t>
-  </si>
-  <si>
     <t>BLOM BANK France</t>
   </si>
   <si>
@@ -405,12 +354,6 @@
     <t>BNP Paribas</t>
   </si>
   <si>
-    <t>BNP Paribas Securities Services</t>
-  </si>
-  <si>
-    <t>securities services</t>
-  </si>
-  <si>
     <t>British Arab Commercial Bank Plc</t>
   </si>
   <si>
@@ -438,9 +381,6 @@
     <t>4863.09 mln GBP</t>
   </si>
   <si>
-    <t>CACEIS Bank</t>
-  </si>
-  <si>
     <t>CAF Bank Ltd</t>
   </si>
   <si>
@@ -450,12 +390,6 @@
     <t>1092.30 mln GBP</t>
   </si>
   <si>
-    <t>Caixabank SA</t>
-  </si>
-  <si>
-    <t>corporate advising</t>
-  </si>
-  <si>
     <t>Cambridge &amp; Counties Bank Limited</t>
   </si>
   <si>
@@ -468,36 +402,15 @@
     <t>Canara Bank</t>
   </si>
   <si>
-    <t>Castle Trust Bank</t>
-  </si>
-  <si>
-    <t>savings and lending products</t>
-  </si>
-  <si>
-    <t>778.71 mln GBP</t>
-  </si>
-  <si>
     <t>Cater Allen Limited</t>
   </si>
   <si>
     <t>3.11 mln GBP</t>
   </si>
   <si>
-    <t>Cecabank SA</t>
-  </si>
-  <si>
     <t>Chang Hwa Commercial Bank Ltd</t>
   </si>
   <si>
-    <t>Charter Court Financial Services</t>
-  </si>
-  <si>
-    <t>mortgage products</t>
-  </si>
-  <si>
-    <t>8719.90 mln GBP</t>
-  </si>
-  <si>
     <t>Chetwood Financial Limited</t>
   </si>
   <si>
@@ -537,15 +450,6 @@
     <t>Citibank N.A.</t>
   </si>
   <si>
-    <t>Citibank UK Limited</t>
-  </si>
-  <si>
-    <t>wealth management</t>
-  </si>
-  <si>
-    <t>4810.64 mln GBP</t>
-  </si>
-  <si>
     <t>ClearBank Limited</t>
   </si>
   <si>
@@ -585,18 +489,9 @@
     <t>Credit Agricole Corporate and Investment Bank</t>
   </si>
   <si>
-    <t>Crédit Agricole S.A.</t>
-  </si>
-  <si>
     <t>Crédit Industriel et Commercial</t>
   </si>
   <si>
-    <t>Credit Suisse (UK) Limited</t>
-  </si>
-  <si>
-    <t>3483.98 mln GBP</t>
-  </si>
-  <si>
     <t>Credit Suisse AG</t>
   </si>
   <si>
@@ -621,30 +516,12 @@
     <t>Danske Bank A/S</t>
   </si>
   <si>
-    <t>DB UK Bank Limited</t>
-  </si>
-  <si>
-    <t>1317.38 mln GBP</t>
-  </si>
-  <si>
     <t>DBS Bank Limited</t>
   </si>
   <si>
     <t>Deutsche Bank AG</t>
   </si>
   <si>
-    <t>Deutsche Pfandbriefbank AG</t>
-  </si>
-  <si>
-    <t>commercial real estate financing</t>
-  </si>
-  <si>
-    <t>DF Capital Bank Limited</t>
-  </si>
-  <si>
-    <t>SME lending</t>
-  </si>
-  <si>
     <t>DNB Bank ASA</t>
   </si>
   <si>
@@ -708,12 +585,6 @@
     <t>826.63 mln USD</t>
   </si>
   <si>
-    <t>Finecobank Spa</t>
-  </si>
-  <si>
-    <t>online brokerage</t>
-  </si>
-  <si>
     <t>First Abu Dhabi Bank P.J.S.C.</t>
   </si>
   <si>
@@ -723,12 +594,6 @@
     <t>FirstRand Bank Limited</t>
   </si>
   <si>
-    <t>Gatehouse Bank Plc</t>
-  </si>
-  <si>
-    <t>684.67 mln GBP</t>
-  </si>
-  <si>
     <t>GH Bank Limited</t>
   </si>
   <si>
@@ -759,18 +624,6 @@
     <t>426.88 mln GBP</t>
   </si>
   <si>
-    <t>Gulf International Bank (UK) Limited</t>
-  </si>
-  <si>
-    <t>asset management</t>
-  </si>
-  <si>
-    <t>11730.02 mln USD</t>
-  </si>
-  <si>
-    <t>Gulf International Bank BSC</t>
-  </si>
-  <si>
     <t>Habib Bank AG Zurich</t>
   </si>
   <si>
@@ -837,15 +690,6 @@
     <t>6959.85 mln GBP</t>
   </si>
   <si>
-    <t>HSBC Trust Company (UK) Ltd</t>
-  </si>
-  <si>
-    <t>trust management</t>
-  </si>
-  <si>
-    <t>61.42 mln GBP</t>
-  </si>
-  <si>
     <t>HSBC UK Bank Plc</t>
   </si>
   <si>
@@ -888,21 +732,9 @@
     <t>wholesale banking</t>
   </si>
   <si>
-    <t>Intesa Sanpaolo Private Bank (Suisse) Morval S.A</t>
-  </si>
-  <si>
     <t>Intesa Sanpaolo Spa</t>
   </si>
   <si>
-    <t>Investec Bank Plc</t>
-  </si>
-  <si>
-    <t>asset and wealth management</t>
-  </si>
-  <si>
-    <t>20582.14 mln GBP</t>
-  </si>
-  <si>
     <t>Itau BBA International Plc</t>
   </si>
   <si>
@@ -918,15 +750,6 @@
     <t>5688.65 mln USD</t>
   </si>
   <si>
-    <t>J.P. Morgan Securities plc</t>
-  </si>
-  <si>
-    <t>658175.96 mln USD</t>
-  </si>
-  <si>
-    <t>JN Bank UK Ltd</t>
-  </si>
-  <si>
     <t>Jordan International Bank plc</t>
   </si>
   <si>
@@ -936,15 +759,6 @@
     <t>JPMorgan Chase Bank N.A.</t>
   </si>
   <si>
-    <t>Julian Hodge Bank Limited</t>
-  </si>
-  <si>
-    <t>1378.70 mln GBP</t>
-  </si>
-  <si>
-    <t>Kas Bank NV</t>
-  </si>
-  <si>
     <t>KBC Bank NV</t>
   </si>
   <si>
@@ -1050,9 +864,6 @@
     <t>21400.00 mln GBP</t>
   </si>
   <si>
-    <t>Mirabaud &amp; Cie (Europe) S.A.</t>
-  </si>
-  <si>
     <t>Mitsubishi UFJ Trust and Banking Corporation</t>
   </si>
   <si>
@@ -1101,9 +912,6 @@
     <t>National Australia Bank Limited</t>
   </si>
   <si>
-    <t>National Bank of Canada</t>
-  </si>
-  <si>
     <t>NATIONAL BANK OF EGYPT (UK) LIMITED</t>
   </si>
   <si>
@@ -1128,15 +936,6 @@
     <t>Natixis</t>
   </si>
   <si>
-    <t>NatWest Markets NV</t>
-  </si>
-  <si>
-    <t>NATWEST MARKETS PLC</t>
-  </si>
-  <si>
-    <t>248053.00 mln GBP</t>
-  </si>
-  <si>
     <t>Nedbank Ltd</t>
   </si>
   <si>
@@ -1164,30 +963,9 @@
     <t>0.20 mln GBP</t>
   </si>
   <si>
-    <t>Oaknorth Bank PLC</t>
-  </si>
-  <si>
-    <t>2729.92 mln GBP</t>
-  </si>
-  <si>
-    <t>OneSavings Bank Plc</t>
-  </si>
-  <si>
-    <t>mortgage loans</t>
-  </si>
-  <si>
-    <t>13469.90 mln GBP</t>
-  </si>
-  <si>
     <t>Oversea-Chinese Banking Corporation Limited</t>
   </si>
   <si>
-    <t>Oxbury Bank PLC</t>
-  </si>
-  <si>
-    <t>4.04 mln GBP</t>
-  </si>
-  <si>
     <t>Paragon Bank Plc</t>
   </si>
   <si>
@@ -1212,9 +990,6 @@
     <t>17.82 mln GBP</t>
   </si>
   <si>
-    <t>Pictet &amp; Cie (Europe) S.A.</t>
-  </si>
-  <si>
     <t>Piraeus Bank SA</t>
   </si>
   <si>
@@ -1248,33 +1023,12 @@
     <t>Raiffeisen Bank International AG</t>
   </si>
   <si>
-    <t>Rathbone Investment Management Limited</t>
-  </si>
-  <si>
-    <t>asset and investment management</t>
-  </si>
-  <si>
-    <t>3199.38 mln GBP</t>
-  </si>
-  <si>
     <t>RBC Europe Limited</t>
   </si>
   <si>
     <t>44888.98 mln GBP</t>
   </si>
   <si>
-    <t>RBC Investor Services Bank S.A., London Branch</t>
-  </si>
-  <si>
-    <t>asset servicing</t>
-  </si>
-  <si>
-    <t>RBC INVESTOR SERVICES BANK SA</t>
-  </si>
-  <si>
-    <t>RBC Investor Services Trust</t>
-  </si>
-  <si>
     <t>RCI Bank UK Limited</t>
   </si>
   <si>
@@ -1320,12 +1074,6 @@
     <t>281702.00 mln GBP</t>
   </si>
   <si>
-    <t>Schroder &amp; Co Ltd</t>
-  </si>
-  <si>
-    <t>2261.44 mln GBP</t>
-  </si>
-  <si>
     <t>Scotiabank Europe plc</t>
   </si>
   <si>
@@ -1359,12 +1107,6 @@
     <t>Shinhan Bank</t>
   </si>
   <si>
-    <t>Silicon Valley Bank</t>
-  </si>
-  <si>
-    <t>private equity and venture capital</t>
-  </si>
-  <si>
     <t>Skandinaviska Enskilda Banken Ab (Publ)</t>
   </si>
   <si>
@@ -1410,9 +1152,6 @@
     <t>Sumitomo Mitsui Banking Corporation, London Branch</t>
   </si>
   <si>
-    <t>Sumitomo Mitsui Trust Bank Limited</t>
-  </si>
-  <si>
     <t>Syndicate Bank</t>
   </si>
   <si>
@@ -1500,9 +1239,6 @@
     <t>asset management, project financing</t>
   </si>
   <si>
-    <t>The Northern Trust Company</t>
-  </si>
-  <si>
     <t>The Royal Bank of Scotland International Limited</t>
   </si>
   <si>
@@ -1545,9 +1281,6 @@
     <t>UBS AG</t>
   </si>
   <si>
-    <t>UBS Europe SE</t>
-  </si>
-  <si>
     <t>Ulster Bank Ltd</t>
   </si>
   <si>
@@ -1681,24 +1414,6 @@
   </si>
   <si>
     <t>1691.57 mln USD</t>
-  </si>
-  <si>
-    <t>Zopa Bank Limited</t>
-  </si>
-  <si>
-    <t>30.85 mln GBP</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Business Focus</t>
-  </si>
-  <si>
-    <t>Customers Rating</t>
-  </si>
-  <si>
-    <t>Total Assets</t>
   </si>
 </sst>
 </file>
@@ -2049,55 +1764,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{912181C8-63A9-4619-B76A-A8FE6BBACE42}">
-  <dimension ref="A1:D316"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0953D09C-EEC6-4C19-A530-793F572717AA}">
+  <dimension ref="A1:D267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>552</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>553</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>554</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>-4.0999999999999996</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>-5</v>
@@ -2105,10 +1818,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C4">
         <v>-3.5</v>
@@ -2116,183 +1829,177 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>-4</v>
+        <v>-3.5</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>-3.5</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>-4.5999999999999996</v>
+        <v>-5</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C9">
-        <v>-5</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>-2.9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12">
-        <v>-5</v>
-      </c>
-      <c r="D12" t="s">
         <v>28</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C13">
-        <v>-4.0999999999999996</v>
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14">
-        <v>-4</v>
+        <v>34</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>-3.5</v>
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2300,46 +2007,46 @@
         <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" t="s">
-        <v>44</v>
+        <v>5</v>
+      </c>
+      <c r="C19">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="s">
         <v>48</v>
-      </c>
-      <c r="B22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <v>-1.2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2347,57 +2054,60 @@
         <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C23">
-        <v>-1.7</v>
+        <v>-4.7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C24">
-        <v>-3.9</v>
+        <v>-4.2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25">
-        <v>-2.8</v>
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26">
-        <v>-1</v>
-      </c>
-      <c r="D26" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>-5</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2405,38 +2115,41 @@
         <v>58</v>
       </c>
       <c r="B28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" t="s">
         <v>59</v>
-      </c>
-      <c r="C28">
-        <v>-4.7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29">
+        <v>-3</v>
+      </c>
+      <c r="D29" t="s">
         <v>62</v>
-      </c>
-      <c r="C29">
-        <v>-4.2</v>
-      </c>
-      <c r="D29" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>-5</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -2444,35 +2157,35 @@
         <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>-2.8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C32">
-        <v>-3.9</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>68</v>
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -2480,74 +2193,71 @@
         <v>69</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>-3</v>
-      </c>
-      <c r="D34" t="s">
-        <v>71</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>-5</v>
-      </c>
-      <c r="D35" t="s">
-        <v>73</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="C36">
-        <v>-2.8</v>
-      </c>
-      <c r="D36" t="s">
-        <v>75</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37">
-        <v>-2.8</v>
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>-2.2999999999999998</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39">
+        <v>-1.9</v>
+      </c>
+      <c r="D39" t="s">
         <v>78</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>-3.8</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -2555,124 +2265,124 @@
         <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-3.1</v>
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C41">
-        <v>-2.9</v>
+        <v>-3.4</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
+        <v>80</v>
+      </c>
+      <c r="C42">
+        <v>-4.7</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="C43">
         <v>-5</v>
       </c>
+      <c r="D43" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44">
-        <v>-1.9</v>
-      </c>
-      <c r="D44" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="C44" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46">
-        <v>-3.4</v>
-      </c>
-      <c r="D46" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="C47">
-        <v>-4.7</v>
+        <v>-1.5</v>
       </c>
       <c r="D47" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="C48">
-        <v>-5</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B49" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -2680,10 +2390,13 @@
         <v>98</v>
       </c>
       <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>-4.3</v>
+      </c>
+      <c r="D50" t="s">
         <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,3315 +2404,2705 @@
         <v>100</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>-4</v>
+      </c>
+      <c r="D52" t="s">
         <v>102</v>
-      </c>
-      <c r="B52" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52">
-        <v>-1.5</v>
-      </c>
-      <c r="D52" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="D53" t="s">
-        <v>105</v>
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
-      </c>
-      <c r="C54" t="s">
-        <v>36</v>
-      </c>
-      <c r="D54" t="s">
-        <v>108</v>
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>110</v>
-      </c>
-      <c r="C55" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="C55">
+        <v>-3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
-      </c>
-      <c r="C56" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <v>-4.5</v>
+      </c>
+      <c r="D56" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>1</v>
+        <v>110</v>
       </c>
       <c r="C57">
-        <v>-4.3</v>
-      </c>
-      <c r="D57" t="s">
-        <v>114</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B58" t="s">
-        <v>116</v>
-      </c>
-      <c r="C58" t="s">
-        <v>36</v>
+        <v>112</v>
+      </c>
+      <c r="C58">
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="C59">
-        <v>-4.5999999999999996</v>
+        <v>-2.5</v>
+      </c>
+      <c r="D59" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B60" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C60">
-        <v>-4</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>-3.9</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>-4</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B63" t="s">
-        <v>124</v>
-      </c>
-      <c r="C63" t="s">
-        <v>36</v>
+        <v>20</v>
+      </c>
+      <c r="C63">
+        <v>-1.8</v>
+      </c>
+      <c r="D63" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C64">
-        <v>-3.8</v>
-      </c>
-      <c r="D64" t="s">
-        <v>126</v>
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B65" t="s">
-        <v>27</v>
-      </c>
-      <c r="C65">
-        <v>-4.5</v>
+        <v>47</v>
+      </c>
+      <c r="C65" t="s">
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>130</v>
-      </c>
-      <c r="C66">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="C66" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="C67">
-        <v>-4.4000000000000004</v>
+        <v>-3.8</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>124</v>
-      </c>
-      <c r="C68" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C68">
+        <v>-5</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B69" t="s">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="C69">
-        <v>-2.5</v>
-      </c>
-      <c r="D69" t="s">
-        <v>137</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C70">
-        <v>-2</v>
+        <v>-4</v>
+      </c>
+      <c r="D70" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B71" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="C71">
-        <v>-4.5999999999999996</v>
-      </c>
-      <c r="D71" t="s">
-        <v>141</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="B72" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C72">
-        <v>-3.9</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B73" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>-4.8</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B74" t="s">
-        <v>145</v>
-      </c>
-      <c r="C74">
-        <v>-2.9</v>
-      </c>
-      <c r="D74" t="s">
-        <v>146</v>
+        <v>138</v>
+      </c>
+      <c r="C74" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>140</v>
       </c>
       <c r="C75">
-        <v>-1.8</v>
+        <v>-3.8</v>
       </c>
       <c r="D75" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B76" t="s">
-        <v>110</v>
+        <v>77</v>
       </c>
       <c r="C76">
-        <v>-3.4</v>
+        <v>-1.4</v>
+      </c>
+      <c r="D76" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>152</v>
-      </c>
-      <c r="C78" t="s">
-        <v>36</v>
-      </c>
-      <c r="D78" t="s">
-        <v>153</v>
+        <v>5</v>
+      </c>
+      <c r="C78">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
-      </c>
-      <c r="C79" t="s">
-        <v>36</v>
-      </c>
-      <c r="D79" t="s">
-        <v>155</v>
+        <v>5</v>
+      </c>
+      <c r="C79">
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>1</v>
-      </c>
-      <c r="C80" t="s">
-        <v>36</v>
+        <v>90</v>
+      </c>
+      <c r="C80">
+        <v>-2.5</v>
+      </c>
+      <c r="D80" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B81" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>-3.8</v>
-      </c>
-      <c r="D81" t="s">
-        <v>158</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B82" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C82">
-        <v>-5</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B83" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C83">
-        <v>-3.7</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>8</v>
       </c>
       <c r="C84">
-        <v>-4</v>
+        <v>-3.2</v>
       </c>
       <c r="D84" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B85" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C85">
-        <v>-3</v>
+        <v>-5</v>
+      </c>
+      <c r="D85" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="B86" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C86">
-        <v>-2.5</v>
+        <v>-2.1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B87" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C87">
-        <v>-2</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B88" t="s">
-        <v>168</v>
-      </c>
-      <c r="C88" t="s">
-        <v>36</v>
-      </c>
-      <c r="D88" t="s">
-        <v>169</v>
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>-3</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B89" t="s">
-        <v>171</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>-1.6</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>173</v>
+        <v>8</v>
       </c>
       <c r="C90">
-        <v>-3.8</v>
-      </c>
-      <c r="D90" t="s">
-        <v>174</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>8</v>
       </c>
       <c r="C91">
-        <v>-1.4</v>
-      </c>
-      <c r="D91" t="s">
-        <v>176</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="B92" t="s">
-        <v>1</v>
-      </c>
-      <c r="C92" t="s">
-        <v>36</v>
+        <v>164</v>
+      </c>
+      <c r="C92">
+        <v>-4.7</v>
+      </c>
+      <c r="D92" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="B93" t="s">
-        <v>1</v>
-      </c>
-      <c r="C93">
-        <v>-2.8</v>
+        <v>167</v>
+      </c>
+      <c r="C93" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
       <c r="B94" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C94">
-        <v>-4.5999999999999996</v>
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B95" t="s">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="C95">
-        <v>-2.5</v>
-      </c>
-      <c r="D95" t="s">
-        <v>181</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="B96" t="s">
-        <v>4</v>
-      </c>
-      <c r="C96">
-        <v>-3</v>
+        <v>90</v>
+      </c>
+      <c r="C96" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B97" t="s">
-        <v>168</v>
+        <v>34</v>
       </c>
       <c r="C97">
-        <v>-3</v>
+        <v>-4.4000000000000004</v>
+      </c>
+      <c r="D97" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="B98" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C98">
-        <v>-1.9</v>
+        <v>-3.9</v>
+      </c>
+      <c r="D98" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B99" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="C99">
-        <v>-4.0999999999999996</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="D99" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B100" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C100">
-        <v>-3.2</v>
+        <v>-5</v>
+      </c>
+      <c r="D100" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B101" t="s">
-        <v>4</v>
-      </c>
-      <c r="C101">
-        <v>-3.2</v>
+        <v>40</v>
+      </c>
+      <c r="C101" t="s">
+        <v>29</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="C102">
-        <v>-5</v>
-      </c>
-      <c r="D102" t="s">
-        <v>191</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="C103">
-        <v>-2.1</v>
-      </c>
-      <c r="D103" t="s">
-        <v>193</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B104" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="C104">
-        <v>-2.9</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="B105" t="s">
-        <v>168</v>
-      </c>
-      <c r="C105">
-        <v>-1.6</v>
-      </c>
-      <c r="D105" t="s">
-        <v>196</v>
+        <v>186</v>
+      </c>
+      <c r="C105" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B106" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="C106">
-        <v>-3</v>
+        <v>-2.8</v>
+      </c>
+      <c r="D106" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B107" t="s">
-        <v>4</v>
-      </c>
-      <c r="C107">
-        <v>-1.6</v>
+        <v>44</v>
+      </c>
+      <c r="C107" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B108" t="s">
-        <v>200</v>
+        <v>44</v>
       </c>
       <c r="C108" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D108" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>202</v>
+        <v>17</v>
       </c>
       <c r="C109">
         <v>-3.5</v>
       </c>
+      <c r="D109" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B110" t="s">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C110">
-        <v>-5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B111" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C111">
-        <v>-5</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B112" t="s">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="C112">
-        <v>-4.7</v>
+        <v>-3.5</v>
       </c>
       <c r="D112" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B113" t="s">
-        <v>209</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D113" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B114" t="s">
-        <v>99</v>
+        <v>202</v>
       </c>
       <c r="C114">
-        <v>-4.0999999999999996</v>
+        <v>-4.5</v>
+      </c>
+      <c r="D114" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B115" t="s">
-        <v>1</v>
+        <v>77</v>
       </c>
       <c r="C115">
-        <v>-1</v>
+        <v>-2.8</v>
+      </c>
+      <c r="D115" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B116" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C116" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B117" t="s">
-        <v>41</v>
-      </c>
-      <c r="C117">
-        <v>-4.4000000000000004</v>
+        <v>208</v>
+      </c>
+      <c r="C117" t="s">
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C118">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="D118" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B119" t="s">
-        <v>218</v>
+        <v>8</v>
       </c>
       <c r="C119">
-        <v>-2.2999999999999998</v>
+        <v>-2.1</v>
       </c>
       <c r="D119" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C120">
-        <v>-5</v>
-      </c>
-      <c r="D120" t="s">
-        <v>221</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B121" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="C121" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B122" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="C122">
-        <v>-4.3</v>
+        <v>-1.4</v>
+      </c>
+      <c r="D122" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B123" t="s">
-        <v>1</v>
-      </c>
-      <c r="C123">
-        <v>-1.8</v>
+        <v>5</v>
+      </c>
+      <c r="C123" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B124" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C124">
-        <v>-3.4</v>
+        <v>-3</v>
+      </c>
+      <c r="D124" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B125" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C125">
-        <v>-5</v>
+        <v>-4.3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="C126">
-        <v>-3.4</v>
+        <v>-4.2</v>
       </c>
       <c r="D126" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B127" t="s">
-        <v>232</v>
-      </c>
-      <c r="C127" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C127">
+        <v>-3.5</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B128" t="s">
-        <v>234</v>
+        <v>5</v>
       </c>
       <c r="C128">
-        <v>-2.8</v>
-      </c>
-      <c r="D128" t="s">
-        <v>235</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B129" t="s">
-        <v>51</v>
-      </c>
-      <c r="C129" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C129">
+        <v>-5</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B130" t="s">
-        <v>51</v>
-      </c>
-      <c r="C130" t="s">
-        <v>36</v>
-      </c>
-      <c r="D130" t="s">
-        <v>238</v>
+        <v>230</v>
+      </c>
+      <c r="C130">
+        <v>-3.9</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B131" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C131">
-        <v>-3.5</v>
-      </c>
-      <c r="D131" t="s">
-        <v>240</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B132" t="s">
-        <v>242</v>
-      </c>
-      <c r="C132" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>-3.7</v>
       </c>
       <c r="D132" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B133" t="s">
-        <v>242</v>
+        <v>44</v>
       </c>
       <c r="C133" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B134" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C134">
-        <v>-3.5</v>
+        <v>-5</v>
+      </c>
+      <c r="D134" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B135" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C135">
-        <v>-4</v>
+        <v>-4.2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B136" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C136">
-        <v>-3.5</v>
-      </c>
-      <c r="D136" t="s">
-        <v>248</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B137" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" t="s">
-        <v>36</v>
-      </c>
-      <c r="D137" t="s">
-        <v>250</v>
+        <v>5</v>
+      </c>
+      <c r="C137">
+        <v>-4</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B138" t="s">
-        <v>252</v>
+        <v>5</v>
       </c>
       <c r="C138">
-        <v>-4.5</v>
-      </c>
-      <c r="D138" t="s">
-        <v>253</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="B139" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C139">
-        <v>-2.8</v>
+        <v>-3.5</v>
       </c>
       <c r="D139" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B140" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="C140" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B141" t="s">
-        <v>258</v>
-      </c>
-      <c r="C141" t="s">
-        <v>36</v>
+        <v>246</v>
+      </c>
+      <c r="C141">
+        <v>-3</v>
       </c>
       <c r="D141" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
-      </c>
-      <c r="C142">
-        <v>-4</v>
-      </c>
-      <c r="D142" t="s">
-        <v>261</v>
+        <v>5</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C143">
-        <v>-2.1</v>
-      </c>
-      <c r="D143" t="s">
-        <v>263</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B144" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C144">
-        <v>-2.8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>17</v>
       </c>
       <c r="C146">
-        <v>-3.3</v>
+        <v>-1.8</v>
       </c>
       <c r="D146" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C147">
-        <v>-1.4</v>
-      </c>
-      <c r="D147" t="s">
-        <v>271</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="B148" t="s">
-        <v>1</v>
-      </c>
-      <c r="C148" t="s">
-        <v>36</v>
+        <v>257</v>
+      </c>
+      <c r="C148">
+        <v>-4</v>
+      </c>
+      <c r="D148" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B149" t="s">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="C149">
-        <v>-3</v>
-      </c>
-      <c r="D149" t="s">
-        <v>274</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="B150" t="s">
-        <v>1</v>
+        <v>257</v>
       </c>
       <c r="C150">
-        <v>-4.3</v>
+        <v>-4</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B151" t="s">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="C151">
-        <v>-4.2</v>
-      </c>
-      <c r="D151" t="s">
-        <v>278</v>
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="B152" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C152">
-        <v>-3.5</v>
+        <v>-2.5</v>
+      </c>
+      <c r="D152" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="C153">
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="B154" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C154">
-        <v>-5</v>
+        <v>-3.1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="B155" t="s">
-        <v>283</v>
+        <v>5</v>
       </c>
       <c r="C155">
-        <v>-3.9</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="B156" t="s">
-        <v>168</v>
-      </c>
-      <c r="C156" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C156">
+        <v>-4.5</v>
+      </c>
+      <c r="D156" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="B157" t="s">
-        <v>4</v>
-      </c>
-      <c r="C157">
-        <v>-3.3</v>
+        <v>246</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="C158">
-        <v>-2.5</v>
+        <v>-3.2</v>
       </c>
       <c r="D158" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B159" t="s">
-        <v>4</v>
+        <v>276</v>
       </c>
       <c r="C159">
-        <v>-3.7</v>
-      </c>
-      <c r="D159" t="s">
-        <v>290</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="B160" t="s">
-        <v>51</v>
-      </c>
-      <c r="C160" t="s">
-        <v>36</v>
+        <v>278</v>
+      </c>
+      <c r="C160">
+        <v>-5</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="B161" t="s">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="C161">
-        <v>-5</v>
-      </c>
-      <c r="D161" t="s">
-        <v>293</v>
+        <v>-4.4000000000000004</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="B162" t="s">
-        <v>168</v>
+        <v>8</v>
       </c>
       <c r="C162">
-        <v>-2.6</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D162" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="B163" t="s">
-        <v>145</v>
+        <v>47</v>
       </c>
       <c r="C163" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="B164" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="C164">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="D164" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B165" t="s">
-        <v>51</v>
-      </c>
-      <c r="C165">
-        <v>-1.8</v>
+        <v>286</v>
+      </c>
+      <c r="C165" t="s">
+        <v>29</v>
+      </c>
+      <c r="D165" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
       <c r="B166" t="s">
-        <v>116</v>
+        <v>8</v>
       </c>
       <c r="C166">
-        <v>-2.6</v>
-      </c>
-      <c r="D166" t="s">
-        <v>301</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="B167" t="s">
-        <v>124</v>
-      </c>
-      <c r="C167">
-        <v>-5</v>
+        <v>186</v>
+      </c>
+      <c r="C167" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="B168" t="s">
-        <v>1</v>
-      </c>
-      <c r="C168">
-        <v>-4</v>
+        <v>5</v>
+      </c>
+      <c r="C168" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="B169" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C169">
-        <v>-5</v>
+        <v>-4.3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B170" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="C170">
         <v>-3.5</v>
       </c>
-      <c r="D170" t="s">
-        <v>306</v>
-      </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
       <c r="B171" t="s">
-        <v>89</v>
-      </c>
-      <c r="C171" t="s">
-        <v>36</v>
+        <v>5</v>
+      </c>
+      <c r="C171">
+        <v>-3.3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B172" t="s">
-        <v>309</v>
+        <v>77</v>
       </c>
       <c r="C172">
-        <v>-3</v>
+        <v>-1.5</v>
       </c>
       <c r="D172" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>311</v>
+        <v>298</v>
       </c>
       <c r="B173" t="s">
-        <v>1</v>
-      </c>
-      <c r="C173" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>312</v>
+        <v>299</v>
       </c>
       <c r="B174" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C174">
-        <v>-3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B175" t="s">
-        <v>4</v>
+        <v>90</v>
       </c>
       <c r="C175">
-        <v>-5</v>
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B176" t="s">
-        <v>4</v>
-      </c>
-      <c r="C176" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D176" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>316</v>
+        <v>303</v>
       </c>
       <c r="B177" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C177">
-        <v>-1.8</v>
-      </c>
-      <c r="D177" t="s">
-        <v>317</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="B178" t="s">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="C178">
-        <v>-5</v>
+        <v>-3.5</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="B179" t="s">
-        <v>320</v>
-      </c>
-      <c r="C179">
-        <v>-4</v>
+        <v>306</v>
+      </c>
+      <c r="C179" t="s">
+        <v>29</v>
       </c>
       <c r="D179" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="B180" t="s">
-        <v>320</v>
-      </c>
-      <c r="C180">
-        <v>-4</v>
+        <v>5</v>
+      </c>
+      <c r="C180" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="B181" t="s">
-        <v>320</v>
+        <v>47</v>
       </c>
       <c r="C181">
-        <v>-4</v>
+        <v>-2.9</v>
       </c>
       <c r="D181" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="B182" t="s">
-        <v>283</v>
+        <v>17</v>
       </c>
       <c r="C182">
-        <v>-4.5999999999999996</v>
+        <v>-2.5</v>
+      </c>
+      <c r="D182" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
       <c r="B183" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="C183">
-        <v>-2.5</v>
+        <v>-5</v>
       </c>
       <c r="D183" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B184" t="s">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="C184">
-        <v>-5</v>
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="D184" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B185" t="s">
-        <v>54</v>
-      </c>
-      <c r="C185">
-        <v>-3.1</v>
-      </c>
-      <c r="D185" t="s">
-        <v>330</v>
+        <v>20</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C186">
-        <v>-5</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B187" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C187">
-        <v>-4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D187" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B188" t="s">
-        <v>309</v>
-      </c>
-      <c r="C188" t="s">
-        <v>36</v>
-      </c>
-      <c r="D188" t="s">
-        <v>335</v>
+        <v>5</v>
+      </c>
+      <c r="C188">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B189" t="s">
-        <v>54</v>
-      </c>
-      <c r="C189">
-        <v>-3.2</v>
+        <v>323</v>
+      </c>
+      <c r="C189" t="s">
+        <v>29</v>
       </c>
       <c r="D189" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="C190">
-        <v>-3</v>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D190" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B191" t="s">
-        <v>340</v>
+        <v>5</v>
       </c>
       <c r="C191">
-        <v>-5</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="B192" t="s">
-        <v>342</v>
-      </c>
-      <c r="C192">
-        <v>-5</v>
+        <v>44</v>
+      </c>
+      <c r="C192" t="s">
+        <v>29</v>
+      </c>
+      <c r="D192" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="B193" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="C193">
-        <v>-4.4000000000000004</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="B194" t="s">
-        <v>4</v>
+        <v>332</v>
       </c>
       <c r="C194">
-        <v>-4.4000000000000004</v>
+        <v>-4.2</v>
       </c>
       <c r="D194" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B195" t="s">
-        <v>54</v>
-      </c>
-      <c r="C195" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C195">
+        <v>-3.7</v>
+      </c>
+      <c r="D195" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B196" t="s">
-        <v>232</v>
+        <v>337</v>
       </c>
       <c r="C196">
-        <v>-4.5</v>
-      </c>
-      <c r="D196" t="s">
-        <v>348</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B197" t="s">
-        <v>350</v>
-      </c>
-      <c r="C197" t="s">
-        <v>36</v>
-      </c>
-      <c r="D197" t="s">
-        <v>351</v>
+        <v>286</v>
+      </c>
+      <c r="C197">
+        <v>-4</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="B198" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C198">
-        <v>-5</v>
+        <v>-4</v>
+      </c>
+      <c r="D198" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="B199" t="s">
-        <v>232</v>
+        <v>36</v>
       </c>
       <c r="C199" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D199" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B200" t="s">
-        <v>1</v>
-      </c>
-      <c r="C200" t="s">
         <v>36</v>
+      </c>
+      <c r="C200">
+        <v>-1.5</v>
+      </c>
+      <c r="D200" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="B201" t="s">
-        <v>168</v>
-      </c>
-      <c r="C201" t="s">
-        <v>36</v>
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>-1.5</v>
+      </c>
+      <c r="D201" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="B202" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="C202">
-        <v>-4.3</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D202" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C203">
-        <v>-3.5</v>
+        <v>-5</v>
+      </c>
+      <c r="D203" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B204" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="C204">
-        <v>-3.3</v>
-      </c>
-      <c r="D204" t="s">
-        <v>360</v>
+        <v>-4.7</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B205" t="s">
-        <v>86</v>
-      </c>
-      <c r="C205">
-        <v>-1.5</v>
-      </c>
-      <c r="D205" t="s">
-        <v>362</v>
+        <v>8</v>
+      </c>
+      <c r="C205" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="B206" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C206">
-        <v>-1.3</v>
+        <v>-3</v>
+      </c>
+      <c r="D206" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B207" t="s">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="C207">
-        <v>-4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B208" t="s">
-        <v>124</v>
+        <v>40</v>
       </c>
       <c r="C208">
-        <v>-3.5</v>
-      </c>
-      <c r="D208" t="s">
-        <v>366</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="B209" t="s">
-        <v>4</v>
-      </c>
-      <c r="C209">
-        <v>-2</v>
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="B210" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C210">
-        <v>-2.2999999999999998</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="B211" t="s">
-        <v>4</v>
+        <v>360</v>
       </c>
       <c r="C211">
-        <v>-4.4000000000000004</v>
+        <v>-2.6</v>
       </c>
       <c r="D211" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B212" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C212">
-        <v>-5</v>
+        <v>-2.5</v>
+      </c>
+      <c r="D212" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B213" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="C213">
-        <v>-3.5</v>
+        <v>-4.5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="B214" t="s">
-        <v>374</v>
-      </c>
-      <c r="C214" t="s">
-        <v>36</v>
-      </c>
-      <c r="D214" t="s">
-        <v>375</v>
+        <v>5</v>
+      </c>
+      <c r="C214">
+        <v>-2.8</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="B215" t="s">
-        <v>116</v>
-      </c>
-      <c r="C215">
-        <v>-3.7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>377</v>
+        <v>44</v>
+      </c>
+      <c r="C215" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="B216" t="s">
-        <v>379</v>
+        <v>44</v>
       </c>
       <c r="C216">
-        <v>-1</v>
-      </c>
-      <c r="D216" t="s">
-        <v>380</v>
+        <v>-3.8</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="B217" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="B218" t="s">
-        <v>145</v>
-      </c>
-      <c r="C218">
-        <v>-3.7</v>
-      </c>
-      <c r="D218" t="s">
-        <v>383</v>
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B219" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C219">
-        <v>-2.9</v>
-      </c>
-      <c r="D219" t="s">
-        <v>385</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C220">
-        <v>-2.5</v>
-      </c>
-      <c r="D220" t="s">
-        <v>387</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="C221">
-        <v>-5</v>
+        <v>-3.1</v>
       </c>
       <c r="D221" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="B222" t="s">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="C222">
-        <v>-4.9000000000000004</v>
+        <v>-5</v>
       </c>
       <c r="D222" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="C223">
-        <v>-5</v>
+        <v>-1.8</v>
+      </c>
+      <c r="D223" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="B224" t="s">
-        <v>27</v>
+        <v>380</v>
       </c>
       <c r="C224" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="D224" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>394</v>
+        <v>382</v>
       </c>
       <c r="B225" t="s">
-        <v>1</v>
-      </c>
-      <c r="C225">
-        <v>-3.6</v>
+        <v>44</v>
+      </c>
+      <c r="C225" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
       <c r="B226" t="s">
-        <v>54</v>
-      </c>
-      <c r="C226">
-        <v>-3.5</v>
+        <v>44</v>
+      </c>
+      <c r="C226" t="s">
+        <v>29</v>
       </c>
       <c r="D226" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="B227" t="s">
-        <v>1</v>
-      </c>
-      <c r="C227">
-        <v>-4.8</v>
+        <v>44</v>
+      </c>
+      <c r="C227" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B228" t="s">
-        <v>399</v>
-      </c>
-      <c r="C228" t="s">
-        <v>36</v>
-      </c>
-      <c r="D228" t="s">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="B229" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="C229">
-        <v>-2.2999999999999998</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D229" t="s">
-        <v>402</v>
+        <v>389</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>403</v>
+        <v>390</v>
       </c>
       <c r="B230" t="s">
-        <v>1</v>
-      </c>
-      <c r="C230">
-        <v>-3.4</v>
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="B231" t="s">
-        <v>405</v>
-      </c>
-      <c r="C231" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C231">
+        <v>-1.6</v>
       </c>
       <c r="D231" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="B232" t="s">
-        <v>51</v>
-      </c>
-      <c r="C232" t="s">
-        <v>36</v>
-      </c>
-      <c r="D232" t="s">
-        <v>408</v>
+        <v>394</v>
+      </c>
+      <c r="C232">
+        <v>-3.9</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="B233" t="s">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="C233">
-        <v>-4.2</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="B234" t="s">
-        <v>410</v>
+        <v>77</v>
       </c>
       <c r="C234">
-        <v>-4.2</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="B235" t="s">
-        <v>410</v>
-      </c>
-      <c r="C235">
-        <v>-4.2</v>
+        <v>8</v>
+      </c>
+      <c r="C235" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B236" t="s">
-        <v>54</v>
+        <v>399</v>
       </c>
       <c r="C236">
-        <v>-2.4</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="B237" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="C237">
-        <v>-4.2</v>
-      </c>
-      <c r="D237" t="s">
-        <v>416</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="B238" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="C238">
-        <v>-3.7</v>
+        <v>-1.9</v>
       </c>
       <c r="D238" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B239" t="s">
-        <v>420</v>
+        <v>44</v>
       </c>
       <c r="C239">
-        <v>-3.3</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="B240" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="C240">
-        <v>-4</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D240" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="B241" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C241">
-        <v>-4</v>
+        <v>-3.3</v>
       </c>
       <c r="D241" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B242" t="s">
-        <v>43</v>
-      </c>
-      <c r="C242" t="s">
         <v>36</v>
       </c>
+      <c r="C242">
+        <v>-3.1</v>
+      </c>
       <c r="D242" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B243" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C243">
-        <v>-1.5</v>
-      </c>
-      <c r="D243" t="s">
-        <v>427</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B244" t="s">
-        <v>287</v>
-      </c>
-      <c r="C244" t="s">
-        <v>36</v>
-      </c>
-      <c r="D244" t="s">
-        <v>429</v>
+        <v>44</v>
+      </c>
+      <c r="C244">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B245" t="s">
-        <v>4</v>
+        <v>77</v>
       </c>
       <c r="C245">
-        <v>-1.5</v>
+        <v>-3.6</v>
       </c>
       <c r="D245" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="B246" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C246">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="D246" t="s">
-        <v>433</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="B247" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="C247">
-        <v>-5</v>
-      </c>
-      <c r="D247" t="s">
-        <v>435</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>436</v>
+        <v>418</v>
       </c>
       <c r="B248" t="s">
-        <v>16</v>
+        <v>419</v>
       </c>
       <c r="C248">
-        <v>-4.7</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
-      </c>
-      <c r="C249" t="s">
-        <v>36</v>
+        <v>17</v>
+      </c>
+      <c r="C249">
+        <v>-3.6</v>
+      </c>
+      <c r="D249" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B250" t="s">
-        <v>54</v>
+        <v>423</v>
       </c>
       <c r="C250">
-        <v>-3</v>
+        <v>-4.9000000000000004</v>
       </c>
       <c r="D250" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="B251" t="s">
-        <v>1</v>
-      </c>
-      <c r="C251">
-        <v>-5</v>
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>29</v>
+      </c>
+      <c r="D251" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="B252" t="s">
-        <v>442</v>
+        <v>17</v>
       </c>
       <c r="C252">
-        <v>-3.2</v>
+        <v>-2.4</v>
+      </c>
+      <c r="D252" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="B253" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C253">
-        <v>-4.8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="B254" t="s">
-        <v>1</v>
-      </c>
-      <c r="C254" t="s">
-        <v>36</v>
+        <v>47</v>
+      </c>
+      <c r="C254">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="D254" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B255" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C255">
-        <v>-3.4</v>
+        <v>-3.2</v>
+      </c>
+      <c r="D255" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>446</v>
+        <v>434</v>
       </c>
       <c r="B256" t="s">
-        <v>447</v>
+        <v>435</v>
       </c>
       <c r="C256">
-        <v>-2.6</v>
+        <v>-4.7</v>
       </c>
       <c r="D256" t="s">
-        <v>448</v>
+        <v>436</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>449</v>
+        <v>437</v>
       </c>
       <c r="B257" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C257">
-        <v>-2.5</v>
+        <v>-1.4</v>
       </c>
       <c r="D257" t="s">
-        <v>450</v>
+        <v>438</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B258" t="s">
-        <v>232</v>
+        <v>8</v>
       </c>
       <c r="C258">
-        <v>-4.5</v>
+        <v>-4</v>
       </c>
       <c r="D258" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="B259" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="C259">
-        <v>-2.8</v>
+        <v>-4.5</v>
+      </c>
+      <c r="D259" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="B260" t="s">
-        <v>51</v>
-      </c>
-      <c r="C260" t="s">
-        <v>36</v>
+        <v>44</v>
+      </c>
+      <c r="C260">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="B261" t="s">
-        <v>51</v>
+        <v>445</v>
       </c>
       <c r="C261">
-        <v>-3.8</v>
+        <v>-4.2</v>
+      </c>
+      <c r="D261" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="B262" t="s">
-        <v>4</v>
+        <v>448</v>
       </c>
       <c r="C262" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="B263" t="s">
-        <v>1</v>
-      </c>
-      <c r="C263" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="C263">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B264" t="s">
-        <v>287</v>
-      </c>
-      <c r="C264" t="s">
-        <v>36</v>
+        <v>451</v>
+      </c>
+      <c r="C264">
+        <v>-2.5</v>
+      </c>
+      <c r="D264" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B265" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C265">
-        <v>-3.9</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B266" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C266">
-        <v>-4.2</v>
+        <v>-4.7</v>
+      </c>
+      <c r="D266" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B267" t="s">
-        <v>232</v>
+        <v>457</v>
       </c>
       <c r="C267">
-        <v>-3.1</v>
+        <v>-4</v>
       </c>
       <c r="D267" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
-        <v>463</v>
-      </c>
-      <c r="B268" t="s">
-        <v>51</v>
-      </c>
-      <c r="C268">
-        <v>-5</v>
-      </c>
-      <c r="D268" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A269" t="s">
-        <v>465</v>
-      </c>
-      <c r="B269" t="s">
-        <v>54</v>
-      </c>
-      <c r="C269">
-        <v>-1.8</v>
-      </c>
-      <c r="D269" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A270" t="s">
-        <v>467</v>
-      </c>
-      <c r="B270" t="s">
-        <v>468</v>
-      </c>
-      <c r="C270" t="s">
-        <v>36</v>
-      </c>
-      <c r="D270" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>470</v>
-      </c>
-      <c r="B271" t="s">
-        <v>51</v>
-      </c>
-      <c r="C271" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A272" t="s">
-        <v>471</v>
-      </c>
-      <c r="B272" t="s">
-        <v>51</v>
-      </c>
-      <c r="C272" t="s">
-        <v>36</v>
-      </c>
-      <c r="D272" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A273" t="s">
-        <v>473</v>
-      </c>
-      <c r="B273" t="s">
-        <v>51</v>
-      </c>
-      <c r="C273" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>474</v>
-      </c>
-      <c r="B274" t="s">
-        <v>4</v>
-      </c>
-      <c r="C274">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A275" t="s">
-        <v>475</v>
-      </c>
-      <c r="B275" t="s">
-        <v>476</v>
-      </c>
-      <c r="C275">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="D275" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A276" t="s">
-        <v>478</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1</v>
-      </c>
-      <c r="C276" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A277" t="s">
-        <v>479</v>
-      </c>
-      <c r="B277" t="s">
-        <v>54</v>
-      </c>
-      <c r="C277">
-        <v>-1.6</v>
-      </c>
-      <c r="D277" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A278" t="s">
-        <v>481</v>
-      </c>
-      <c r="B278" t="s">
-        <v>482</v>
-      </c>
-      <c r="C278">
-        <v>-3.9</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A279" t="s">
-        <v>483</v>
-      </c>
-      <c r="B279" t="s">
-        <v>86</v>
-      </c>
-      <c r="C279">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A280" t="s">
-        <v>484</v>
-      </c>
-      <c r="B280" t="s">
-        <v>86</v>
-      </c>
-      <c r="C280">
-        <v>-2.1</v>
-      </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A281" t="s">
-        <v>485</v>
-      </c>
-      <c r="B281" t="s">
-        <v>4</v>
-      </c>
-      <c r="C281" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A282" t="s">
-        <v>486</v>
-      </c>
-      <c r="B282" t="s">
-        <v>487</v>
-      </c>
-      <c r="C282">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A283" t="s">
-        <v>488</v>
-      </c>
-      <c r="B283" t="s">
-        <v>242</v>
-      </c>
-      <c r="C283" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>489</v>
-      </c>
-      <c r="B284" t="s">
-        <v>490</v>
-      </c>
-      <c r="C284">
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A285" t="s">
-        <v>491</v>
-      </c>
-      <c r="B285" t="s">
-        <v>86</v>
-      </c>
-      <c r="C285">
-        <v>-1.9</v>
-      </c>
-      <c r="D285" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A286" t="s">
-        <v>493</v>
-      </c>
-      <c r="B286" t="s">
-        <v>51</v>
-      </c>
-      <c r="C286">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
-        <v>494</v>
-      </c>
-      <c r="B287" t="s">
-        <v>495</v>
-      </c>
-      <c r="C287">
-        <v>-3.2</v>
-      </c>
-      <c r="D287" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A288" t="s">
-        <v>497</v>
-      </c>
-      <c r="B288" t="s">
-        <v>54</v>
-      </c>
-      <c r="C288">
-        <v>-3.3</v>
-      </c>
-      <c r="D288" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A289" t="s">
-        <v>499</v>
-      </c>
-      <c r="B289" t="s">
-        <v>43</v>
-      </c>
-      <c r="C289">
-        <v>-3.1</v>
-      </c>
-      <c r="D289" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
-        <v>501</v>
-      </c>
-      <c r="B290" t="s">
-        <v>43</v>
-      </c>
-      <c r="C290">
-        <v>-3.4</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A291" t="s">
-        <v>502</v>
-      </c>
-      <c r="B291" t="s">
-        <v>51</v>
-      </c>
-      <c r="C291">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A292" t="s">
-        <v>503</v>
-      </c>
-      <c r="B292" t="s">
-        <v>168</v>
-      </c>
-      <c r="C292" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
-        <v>504</v>
-      </c>
-      <c r="B293" t="s">
-        <v>86</v>
-      </c>
-      <c r="C293">
-        <v>-3.6</v>
-      </c>
-      <c r="D293" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A294" t="s">
-        <v>506</v>
-      </c>
-      <c r="B294" t="s">
-        <v>4</v>
-      </c>
-      <c r="C294">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A295" t="s">
-        <v>507</v>
-      </c>
-      <c r="B295" t="s">
-        <v>4</v>
-      </c>
-      <c r="C295">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A296" t="s">
-        <v>508</v>
-      </c>
-      <c r="B296" t="s">
-        <v>509</v>
-      </c>
-      <c r="C296">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A297" t="s">
-        <v>510</v>
-      </c>
-      <c r="B297" t="s">
-        <v>16</v>
-      </c>
-      <c r="C297">
-        <v>-3.6</v>
-      </c>
-      <c r="D297" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A298" t="s">
-        <v>512</v>
-      </c>
-      <c r="B298" t="s">
-        <v>513</v>
-      </c>
-      <c r="C298">
-        <v>-4.9000000000000004</v>
-      </c>
-      <c r="D298" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A299" t="s">
-        <v>515</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1</v>
-      </c>
-      <c r="C299" t="s">
-        <v>36</v>
-      </c>
-      <c r="D299" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A300" t="s">
-        <v>517</v>
-      </c>
-      <c r="B300" t="s">
-        <v>16</v>
-      </c>
-      <c r="C300">
-        <v>-2.4</v>
-      </c>
-      <c r="D300" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A301" t="s">
-        <v>519</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1</v>
-      </c>
-      <c r="C301">
-        <v>-5</v>
-      </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A302" t="s">
-        <v>520</v>
-      </c>
-      <c r="B302" t="s">
-        <v>54</v>
-      </c>
-      <c r="C302">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="D302" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A303" t="s">
-        <v>522</v>
-      </c>
-      <c r="B303" t="s">
-        <v>136</v>
-      </c>
-      <c r="C303">
-        <v>-3.2</v>
-      </c>
-      <c r="D303" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A304" t="s">
-        <v>524</v>
-      </c>
-      <c r="B304" t="s">
-        <v>525</v>
-      </c>
-      <c r="C304">
-        <v>-4.7</v>
-      </c>
-      <c r="D304" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A305" t="s">
-        <v>527</v>
-      </c>
-      <c r="B305" t="s">
-        <v>54</v>
-      </c>
-      <c r="C305">
-        <v>-1.4</v>
-      </c>
-      <c r="D305" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>529</v>
-      </c>
-      <c r="B306" t="s">
-        <v>4</v>
-      </c>
-      <c r="C306">
-        <v>-4</v>
-      </c>
-      <c r="D306" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A307" t="s">
-        <v>531</v>
-      </c>
-      <c r="B307" t="s">
-        <v>99</v>
-      </c>
-      <c r="C307">
-        <v>-4.5</v>
-      </c>
-      <c r="D307" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A308" t="s">
-        <v>533</v>
-      </c>
-      <c r="B308" t="s">
-        <v>51</v>
-      </c>
-      <c r="C308">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A309" t="s">
-        <v>534</v>
-      </c>
-      <c r="B309" t="s">
-        <v>535</v>
-      </c>
-      <c r="C309">
-        <v>-4.2</v>
-      </c>
-      <c r="D309" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>537</v>
-      </c>
-      <c r="B310" t="s">
-        <v>538</v>
-      </c>
-      <c r="C310" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A311" t="s">
-        <v>539</v>
-      </c>
-      <c r="B311" t="s">
-        <v>41</v>
-      </c>
-      <c r="C311">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A312" t="s">
-        <v>540</v>
-      </c>
-      <c r="B312" t="s">
-        <v>541</v>
-      </c>
-      <c r="C312">
-        <v>-2.5</v>
-      </c>
-      <c r="D312" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>543</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1</v>
-      </c>
-      <c r="C313">
-        <v>-4.2</v>
-      </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A314" t="s">
-        <v>544</v>
-      </c>
-      <c r="B314" t="s">
-        <v>16</v>
-      </c>
-      <c r="C314">
-        <v>-4.7</v>
-      </c>
-      <c r="D314" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A315" t="s">
-        <v>546</v>
-      </c>
-      <c r="B315" t="s">
-        <v>547</v>
-      </c>
-      <c r="C315">
-        <v>-4</v>
-      </c>
-      <c r="D315" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>549</v>
-      </c>
-      <c r="B316" t="s">
-        <v>145</v>
-      </c>
-      <c r="C316">
-        <v>-4.8</v>
-      </c>
-      <c r="D316" t="s">
-        <v>550</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D267" xr:uid="{2DB4494D-85A5-43F0-B484-BDD2B69F71F2}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{D0F2A81F-48C3-4DCD-9998-D71FC11754FE}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7695D29C-825B-41A3-99DF-321BEB94B41F}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="598">
   <si>
     <t>Name</t>
   </si>
@@ -1414,6 +1414,423 @@
   </si>
   <si>
     <t>1691.57 mln USD</t>
+  </si>
+  <si>
+    <t>Company Number</t>
+  </si>
+  <si>
+    <t>BR014612</t>
+  </si>
+  <si>
+    <t>BR019951</t>
+  </si>
+  <si>
+    <t>NI018800</t>
+  </si>
+  <si>
+    <t>BR018263</t>
+  </si>
+  <si>
+    <t>BR011722</t>
+  </si>
+  <si>
+    <t>BR020302</t>
+  </si>
+  <si>
+    <t>BR000580</t>
+  </si>
+  <si>
+    <t>BR001254</t>
+  </si>
+  <si>
+    <t>BR017492</t>
+  </si>
+  <si>
+    <t>BR018431</t>
+  </si>
+  <si>
+    <t>BR001769</t>
+  </si>
+  <si>
+    <t>BR001085</t>
+  </si>
+  <si>
+    <t>BR000356</t>
+  </si>
+  <si>
+    <t>BR008339</t>
+  </si>
+  <si>
+    <t>BR001358</t>
+  </si>
+  <si>
+    <t>BR002014</t>
+  </si>
+  <si>
+    <t>BR001417</t>
+  </si>
+  <si>
+    <t>BR018625</t>
+  </si>
+  <si>
+    <t>BR001344</t>
+  </si>
+  <si>
+    <t>BR001992</t>
+  </si>
+  <si>
+    <t>BR000521</t>
+  </si>
+  <si>
+    <t>SC327000</t>
+  </si>
+  <si>
+    <t>BR007739</t>
+  </si>
+  <si>
+    <t>BR021986</t>
+  </si>
+  <si>
+    <t>BR014651</t>
+  </si>
+  <si>
+    <t>BR009959</t>
+  </si>
+  <si>
+    <t>BR001571</t>
+  </si>
+  <si>
+    <t>BR000790</t>
+  </si>
+  <si>
+    <t>BR021724</t>
+  </si>
+  <si>
+    <t>BR000170</t>
+  </si>
+  <si>
+    <t>BR000151</t>
+  </si>
+  <si>
+    <t>BR000397</t>
+  </si>
+  <si>
+    <t>BR000783</t>
+  </si>
+  <si>
+    <t>BR000414</t>
+  </si>
+  <si>
+    <t>BR017263</t>
+  </si>
+  <si>
+    <t>BR017382</t>
+  </si>
+  <si>
+    <t>BR013933</t>
+  </si>
+  <si>
+    <t>BR005291</t>
+  </si>
+  <si>
+    <t>BIC </t>
+  </si>
+  <si>
+    <t>BR001018</t>
+  </si>
+  <si>
+    <t>SC001111</t>
+  </si>
+  <si>
+    <t>BR001025</t>
+  </si>
+  <si>
+    <t>BR000250</t>
+  </si>
+  <si>
+    <t>BR002630</t>
+  </si>
+  <si>
+    <t>BR001975</t>
+  </si>
+  <si>
+    <t>BR000705</t>
+  </si>
+  <si>
+    <t>FC007227</t>
+  </si>
+  <si>
+    <t>BR000080</t>
+  </si>
+  <si>
+    <t>BR000664</t>
+  </si>
+  <si>
+    <t>BR000005</t>
+  </si>
+  <si>
+    <t>BR007517</t>
+  </si>
+  <si>
+    <t>BR000001</t>
+  </si>
+  <si>
+    <t>BR009373</t>
+  </si>
+  <si>
+    <t>BR014405</t>
+  </si>
+  <si>
+    <t>BR004789</t>
+  </si>
+  <si>
+    <t>BR017561</t>
+  </si>
+  <si>
+    <t>BR000163</t>
+  </si>
+  <si>
+    <t>BR001616</t>
+  </si>
+  <si>
+    <t>BR010027</t>
+  </si>
+  <si>
+    <t>BR016197</t>
+  </si>
+  <si>
+    <t>BR011218</t>
+  </si>
+  <si>
+    <t>BR000953</t>
+  </si>
+  <si>
+    <t>BR007625</t>
+  </si>
+  <si>
+    <t>BR004735</t>
+  </si>
+  <si>
+    <t>BR016253</t>
+  </si>
+  <si>
+    <t>BR016211</t>
+  </si>
+  <si>
+    <t>BR008908</t>
+  </si>
+  <si>
+    <t>MFI ID </t>
+  </si>
+  <si>
+    <t>BR000036</t>
+  </si>
+  <si>
+    <t>BR020919</t>
+  </si>
+  <si>
+    <t>BR000746</t>
+  </si>
+  <si>
+    <t>BR004567</t>
+  </si>
+  <si>
+    <t>BR010157</t>
+  </si>
+  <si>
+    <t>BR010262</t>
+  </si>
+  <si>
+    <t>BR020187</t>
+  </si>
+  <si>
+    <t>BR000273</t>
+  </si>
+  <si>
+    <t>BR000011</t>
+  </si>
+  <si>
+    <t>BR016782</t>
+  </si>
+  <si>
+    <t>BR002678</t>
+  </si>
+  <si>
+    <t>BR001636</t>
+  </si>
+  <si>
+    <t>BR001223</t>
+  </si>
+  <si>
+    <t>BR009581</t>
+  </si>
+  <si>
+    <t>BR000596</t>
+  </si>
+  <si>
+    <t>BR001446</t>
+  </si>
+  <si>
+    <t>BR002048</t>
+  </si>
+  <si>
+    <t>BR002013</t>
+  </si>
+  <si>
+    <t>BR020674</t>
+  </si>
+  <si>
+    <t>BR001924</t>
+  </si>
+  <si>
+    <t>BR000290</t>
+  </si>
+  <si>
+    <t>BR005650</t>
+  </si>
+  <si>
+    <t>BR001334</t>
+  </si>
+  <si>
+    <t>BR010261</t>
+  </si>
+  <si>
+    <t>BR000306</t>
+  </si>
+  <si>
+    <t>BR017147</t>
+  </si>
+  <si>
+    <t>NI004467</t>
+  </si>
+  <si>
+    <t>BR000981</t>
+  </si>
+  <si>
+    <t>BR005808</t>
+  </si>
+  <si>
+    <t>BR000445</t>
+  </si>
+  <si>
+    <t>BR001982</t>
+  </si>
+  <si>
+    <t>BR014846</t>
+  </si>
+  <si>
+    <t>BR003696</t>
+  </si>
+  <si>
+    <t>BR000548</t>
+  </si>
+  <si>
+    <t>BR001487</t>
+  </si>
+  <si>
+    <t>BR016556</t>
+  </si>
+  <si>
+    <t>BR008721</t>
+  </si>
+  <si>
+    <t>BR000021</t>
+  </si>
+  <si>
+    <t>ZC000018</t>
+  </si>
+  <si>
+    <t>BR000696</t>
+  </si>
+  <si>
+    <t>BR002088</t>
+  </si>
+  <si>
+    <t>BR009903</t>
+  </si>
+  <si>
+    <t>BR007234</t>
+  </si>
+  <si>
+    <t>BR019790</t>
+  </si>
+  <si>
+    <t>BR000732</t>
+  </si>
+  <si>
+    <t>BR001736</t>
+  </si>
+  <si>
+    <t>SC173199</t>
+  </si>
+  <si>
+    <t>BR000818</t>
+  </si>
+  <si>
+    <t>BR014361</t>
+  </si>
+  <si>
+    <t>BR010889</t>
+  </si>
+  <si>
+    <t>BR000798</t>
+  </si>
+  <si>
+    <t>RC000042</t>
+  </si>
+  <si>
+    <t>BR001944</t>
+  </si>
+  <si>
+    <t>BR004065</t>
+  </si>
+  <si>
+    <t>BR001902</t>
+  </si>
+  <si>
+    <t>BR019279</t>
+  </si>
+  <si>
+    <t>SC083026</t>
+  </si>
+  <si>
+    <t>BR001499</t>
+  </si>
+  <si>
+    <t>SC095237</t>
+  </si>
+  <si>
+    <t>BR001619</t>
+  </si>
+  <si>
+    <t>BR004507</t>
+  </si>
+  <si>
+    <t>R0000733</t>
+  </si>
+  <si>
+    <t>BR001757</t>
+  </si>
+  <si>
+    <t>BR001786</t>
+  </si>
+  <si>
+    <t>BR000994</t>
+  </si>
+  <si>
+    <t>BR002012</t>
+  </si>
+  <si>
+    <t>BR009065</t>
+  </si>
+  <si>
+    <t>BR009910</t>
+  </si>
+  <si>
+    <t>BR000106</t>
+  </si>
+  <si>
+    <t>BR001980</t>
   </si>
 </sst>
 </file>
@@ -1765,19 +2182,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0953D09C-EEC6-4C19-A530-793F572717AA}">
-  <dimension ref="A1:D267"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="E267" sqref="E267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1790,8 +2208,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1804,8 +2225,11 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <v>2564490</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1815,8 +2239,11 @@
       <c r="C3">
         <v>-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1826,8 +2253,11 @@
       <c r="C4">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1840,8 +2270,11 @@
       <c r="D5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1854,8 +2287,11 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>4483430</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1868,8 +2304,11 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>947662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1882,8 +2321,11 @@
       <c r="D8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <v>185070</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1893,8 +2335,11 @@
       <c r="C9">
         <v>-4.0999999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -1904,8 +2349,11 @@
       <c r="C10">
         <v>-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1918,8 +2366,11 @@
       <c r="D11" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -1929,8 +2380,11 @@
       <c r="C12" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>30</v>
       </c>
@@ -1943,8 +2397,11 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13">
+        <v>8632552</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -1954,8 +2411,11 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1968,8 +2428,11 @@
       <c r="D15" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15">
+        <v>7554558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -1979,8 +2442,11 @@
       <c r="C16">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1990,8 +2456,11 @@
       <c r="C17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -2001,8 +2470,11 @@
       <c r="C18">
         <v>-1.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2012,8 +2484,11 @@
       <c r="C19">
         <v>-1.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>43</v>
       </c>
@@ -2023,8 +2498,11 @@
       <c r="C20">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -2034,8 +2512,11 @@
       <c r="C21">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2048,8 +2529,11 @@
       <c r="D22" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22">
+        <v>980698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -2062,8 +2546,11 @@
       <c r="D23" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23">
+        <v>640370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -2076,8 +2563,11 @@
       <c r="D24" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24">
+        <v>3793679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2087,8 +2577,11 @@
       <c r="C25" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2098,8 +2591,11 @@
       <c r="C26" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -2109,8 +2605,11 @@
       <c r="C27">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -2123,8 +2622,11 @@
       <c r="D28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28">
+        <v>10826803</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>60</v>
       </c>
@@ -2137,8 +2639,11 @@
       <c r="D29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29">
+        <v>4406777</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
@@ -2151,8 +2656,11 @@
       <c r="D30" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30">
+        <v>6736473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -2165,8 +2673,11 @@
       <c r="D31" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31">
+        <v>6193060</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -2176,8 +2687,11 @@
       <c r="C32">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -2187,8 +2701,11 @@
       <c r="C33">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -2198,8 +2715,11 @@
       <c r="C34">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -2209,8 +2729,11 @@
       <c r="C35">
         <v>-3.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -2220,8 +2743,11 @@
       <c r="C36">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36">
+        <v>7022885</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -2234,8 +2760,11 @@
       <c r="D37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37">
+        <v>5897786</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>75</v>
       </c>
@@ -2245,8 +2774,11 @@
       <c r="C38">
         <v>-5</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -2259,8 +2791,11 @@
       <c r="D39" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -2270,8 +2805,11 @@
       <c r="C40" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>81</v>
       </c>
@@ -2284,8 +2822,11 @@
       <c r="D41" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41">
+        <v>5888535</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2298,8 +2839,11 @@
       <c r="D42" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42">
+        <v>1126618</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>85</v>
       </c>
@@ -2312,8 +2856,11 @@
       <c r="D43" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43">
+        <v>4189598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>87</v>
       </c>
@@ -2323,8 +2870,11 @@
       <c r="C44" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2334,8 +2884,11 @@
       <c r="C45" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>91</v>
       </c>
@@ -2345,8 +2898,11 @@
       <c r="C46" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -2359,8 +2915,11 @@
       <c r="D47" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47">
+        <v>1026167</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>95</v>
       </c>
@@ -2373,8 +2932,11 @@
       <c r="D48" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48">
+        <v>9740322</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>97</v>
       </c>
@@ -2384,8 +2946,11 @@
       <c r="C49" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>98</v>
       </c>
@@ -2398,8 +2963,11 @@
       <c r="D50" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50">
+        <v>4797759</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>100</v>
       </c>
@@ -2409,8 +2977,11 @@
       <c r="C51">
         <v>-4.5999999999999996</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>101</v>
       </c>
@@ -2423,8 +2994,11 @@
       <c r="D52" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52">
+        <v>5321714</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -2434,8 +3008,11 @@
       <c r="C53" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -2445,8 +3022,11 @@
       <c r="C54">
         <v>-4</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2459,8 +3039,11 @@
       <c r="D55" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55">
+        <v>1047302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2473,8 +3056,11 @@
       <c r="D56" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2484,8 +3070,11 @@
       <c r="C57">
         <v>-5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -2498,8 +3087,11 @@
       <c r="D58" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -2512,8 +3104,11 @@
       <c r="D59" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59">
+        <v>1837656</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>117</v>
       </c>
@@ -2526,8 +3121,11 @@
       <c r="D60" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>119</v>
       </c>
@@ -2537,8 +3135,11 @@
       <c r="C61">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -2548,8 +3149,11 @@
       <c r="C62">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -2562,8 +3166,11 @@
       <c r="D63" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63">
+        <v>2572704</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2573,8 +3180,11 @@
       <c r="C64" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>124</v>
       </c>
@@ -2587,8 +3197,11 @@
       <c r="D65" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65">
+        <v>9964966</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>126</v>
       </c>
@@ -2598,8 +3211,11 @@
       <c r="C66" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>127</v>
       </c>
@@ -2612,8 +3228,11 @@
       <c r="D67" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67">
+        <v>6455352</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>129</v>
       </c>
@@ -2623,8 +3242,11 @@
       <c r="C68">
         <v>-5</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>130</v>
       </c>
@@ -2634,8 +3256,11 @@
       <c r="C69">
         <v>-3.7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>131</v>
       </c>
@@ -2648,8 +3273,11 @@
       <c r="D70" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70">
+        <v>2733036</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>134</v>
       </c>
@@ -2659,8 +3287,11 @@
       <c r="C71">
         <v>-3</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>135</v>
       </c>
@@ -2670,8 +3301,11 @@
       <c r="C72">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>136</v>
       </c>
@@ -2681,8 +3315,11 @@
       <c r="C73">
         <v>-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>137</v>
       </c>
@@ -2692,8 +3329,11 @@
       <c r="C74" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74">
+        <v>9736376</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>139</v>
       </c>
@@ -2706,8 +3346,11 @@
       <c r="D75" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75">
+        <v>195626</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>142</v>
       </c>
@@ -2720,8 +3363,11 @@
       <c r="D76" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>144</v>
       </c>
@@ -2731,8 +3377,11 @@
       <c r="C77" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>145</v>
       </c>
@@ -2742,8 +3391,11 @@
       <c r="C78">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -2753,8 +3405,11 @@
       <c r="C79">
         <v>-4.5999999999999996</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>147</v>
       </c>
@@ -2767,8 +3422,11 @@
       <c r="D80" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>149</v>
       </c>
@@ -2778,8 +3436,11 @@
       <c r="C81">
         <v>-3</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>150</v>
       </c>
@@ -2789,8 +3450,11 @@
       <c r="C82">
         <v>-1.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>151</v>
       </c>
@@ -2800,8 +3464,11 @@
       <c r="C83">
         <v>-3.2</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>152</v>
       </c>
@@ -2814,8 +3481,11 @@
       <c r="D84" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84">
+        <v>2500199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>154</v>
       </c>
@@ -2828,8 +3498,11 @@
       <c r="D85" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85">
+        <v>2334687</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>156</v>
       </c>
@@ -2842,8 +3515,11 @@
       <c r="D86" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86">
+        <v>4728421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>158</v>
       </c>
@@ -2853,8 +3529,11 @@
       <c r="C87">
         <v>-2.9</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>159</v>
       </c>
@@ -2864,8 +3543,11 @@
       <c r="C88">
         <v>-3</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>160</v>
       </c>
@@ -2875,8 +3557,11 @@
       <c r="C89">
         <v>-1.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>161</v>
       </c>
@@ -2886,8 +3571,11 @@
       <c r="C90">
         <v>-5</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>162</v>
       </c>
@@ -2897,8 +3585,11 @@
       <c r="C91">
         <v>-5</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>163</v>
       </c>
@@ -2911,8 +3602,11 @@
       <c r="D92" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92">
+        <v>2321802</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>166</v>
       </c>
@@ -2922,8 +3616,11 @@
       <c r="C93" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>168</v>
       </c>
@@ -2933,8 +3630,11 @@
       <c r="C94">
         <v>-4.0999999999999996</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>169</v>
       </c>
@@ -2944,8 +3644,11 @@
       <c r="C95">
         <v>-1</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>170</v>
       </c>
@@ -2955,8 +3658,11 @@
       <c r="C96" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>171</v>
       </c>
@@ -2969,8 +3675,11 @@
       <c r="D97" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97">
+        <v>5575857</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>173</v>
       </c>
@@ -2983,8 +3692,11 @@
       <c r="D98" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98">
+        <v>4459383</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>175</v>
       </c>
@@ -2997,8 +3709,11 @@
       <c r="D99" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99">
+        <v>772784</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>178</v>
       </c>
@@ -3011,8 +3726,11 @@
       <c r="D100" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100">
+        <v>6621225</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>180</v>
       </c>
@@ -3025,8 +3743,11 @@
       <c r="D101" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101">
+        <v>2856884</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>182</v>
       </c>
@@ -3036,8 +3757,11 @@
       <c r="C102">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>183</v>
       </c>
@@ -3047,8 +3771,11 @@
       <c r="C103">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>184</v>
       </c>
@@ -3058,8 +3785,11 @@
       <c r="C104">
         <v>-5</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>185</v>
       </c>
@@ -3069,8 +3799,11 @@
       <c r="C105" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105">
+        <v>10631597</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>187</v>
       </c>
@@ -3083,8 +3816,11 @@
       <c r="D106" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106">
+        <v>3468216</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>190</v>
       </c>
@@ -3094,8 +3830,11 @@
       <c r="C107" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>191</v>
       </c>
@@ -3108,8 +3847,11 @@
       <c r="D108" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108">
+        <v>1122503</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>193</v>
       </c>
@@ -3122,8 +3864,11 @@
       <c r="D109" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109">
+        <v>5969821</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>195</v>
       </c>
@@ -3133,8 +3878,11 @@
       <c r="C110">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>196</v>
       </c>
@@ -3144,8 +3892,11 @@
       <c r="C111">
         <v>-4</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>197</v>
       </c>
@@ -3158,8 +3909,11 @@
       <c r="D112" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112">
+        <v>8864609</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>199</v>
       </c>
@@ -3172,8 +3926,11 @@
       <c r="D113" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>201</v>
       </c>
@@ -3186,8 +3943,11 @@
       <c r="D114" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114">
+        <v>1311315</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>204</v>
       </c>
@@ -3200,8 +3960,11 @@
       <c r="D115" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115">
+        <v>11305395</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>206</v>
       </c>
@@ -3211,8 +3974,11 @@
       <c r="C116" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>207</v>
       </c>
@@ -3225,8 +3991,11 @@
       <c r="D117" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>1074897</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>210</v>
       </c>
@@ -3239,8 +4008,11 @@
       <c r="D118" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>1719649</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>212</v>
       </c>
@@ -3253,8 +4025,11 @@
       <c r="D119" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>14259</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>214</v>
       </c>
@@ -3264,8 +4039,11 @@
       <c r="C120">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>215</v>
       </c>
@@ -3278,8 +4056,11 @@
       <c r="D121" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121">
+        <v>499482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>217</v>
       </c>
@@ -3292,8 +4073,11 @@
       <c r="D122" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122">
+        <v>9928412</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>219</v>
       </c>
@@ -3303,8 +4087,11 @@
       <c r="C123" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>220</v>
       </c>
@@ -3317,8 +4104,11 @@
       <c r="D124" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124">
+        <v>4552753</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -3331,8 +4121,11 @@
       <c r="D125" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125">
+        <v>2130447</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>224</v>
       </c>
@@ -3345,8 +4138,11 @@
       <c r="D126" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126">
+        <v>4663024</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>226</v>
       </c>
@@ -3356,8 +4152,11 @@
       <c r="C127">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>227</v>
       </c>
@@ -3367,8 +4166,11 @@
       <c r="C128">
         <v>-3</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>228</v>
       </c>
@@ -3378,8 +4180,11 @@
       <c r="C129">
         <v>-5</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>229</v>
       </c>
@@ -3389,8 +4194,11 @@
       <c r="C130">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>231</v>
       </c>
@@ -3400,8 +4208,11 @@
       <c r="C131">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>232</v>
       </c>
@@ -3414,8 +4225,11 @@
       <c r="D132" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132">
+        <v>7425398</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>234</v>
       </c>
@@ -3425,8 +4239,11 @@
       <c r="C133" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>235</v>
       </c>
@@ -3439,8 +4256,11 @@
       <c r="D134" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134">
+        <v>938937</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>237</v>
       </c>
@@ -3453,8 +4273,11 @@
       <c r="D135" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135">
+        <v>1814093</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>239</v>
       </c>
@@ -3464,8 +4287,11 @@
       <c r="C136">
         <v>-1.8</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>240</v>
       </c>
@@ -3475,8 +4301,11 @@
       <c r="C137">
         <v>-4</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>241</v>
       </c>
@@ -3486,8 +4315,11 @@
       <c r="C138">
         <v>-5</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>242</v>
       </c>
@@ -3500,8 +4332,11 @@
       <c r="D139" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139">
+        <v>2693038</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>244</v>
       </c>
@@ -3511,8 +4346,11 @@
       <c r="C140" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>245</v>
       </c>
@@ -3525,8 +4363,11 @@
       <c r="D141" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141">
+        <v>4346834</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>248</v>
       </c>
@@ -3536,8 +4377,11 @@
       <c r="C142" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>249</v>
       </c>
@@ -3547,8 +4391,11 @@
       <c r="C143">
         <v>-3</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>250</v>
       </c>
@@ -3558,8 +4405,11 @@
       <c r="C144">
         <v>-5</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>251</v>
       </c>
@@ -3572,8 +4422,11 @@
       <c r="D145" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145">
+        <v>10399850</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>253</v>
       </c>
@@ -3586,8 +4439,11 @@
       <c r="D146" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>255</v>
       </c>
@@ -3597,8 +4453,11 @@
       <c r="C147">
         <v>-5</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>256</v>
       </c>
@@ -3611,8 +4470,11 @@
       <c r="D148" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148">
+        <v>6309906</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>259</v>
       </c>
@@ -3622,8 +4484,11 @@
       <c r="C149">
         <v>-4</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>260</v>
       </c>
@@ -3636,8 +4501,11 @@
       <c r="D150" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150">
+        <v>3704031</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>262</v>
       </c>
@@ -3647,8 +4515,11 @@
       <c r="C151">
         <v>-4.5999999999999996</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>263</v>
       </c>
@@ -3661,8 +4532,11 @@
       <c r="D152" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>265</v>
       </c>
@@ -3672,8 +4546,11 @@
       <c r="C153">
         <v>-5</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>266</v>
       </c>
@@ -3686,8 +4563,11 @@
       <c r="D154" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154">
+        <v>9660012</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>268</v>
       </c>
@@ -3697,8 +4577,11 @@
       <c r="C155">
         <v>-5</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>269</v>
       </c>
@@ -3711,8 +4594,11 @@
       <c r="D156" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156">
+        <v>4152338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>271</v>
       </c>
@@ -3725,8 +4611,11 @@
       <c r="D157" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157">
+        <v>30546</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>273</v>
       </c>
@@ -3739,8 +4628,11 @@
       <c r="D158" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158">
+        <v>6419578</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>275</v>
       </c>
@@ -3750,8 +4642,11 @@
       <c r="C159">
         <v>-5</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>277</v>
       </c>
@@ -3761,8 +4656,11 @@
       <c r="C160">
         <v>-5</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>279</v>
       </c>
@@ -3772,8 +4670,11 @@
       <c r="C161">
         <v>-4.4000000000000004</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>280</v>
       </c>
@@ -3786,8 +4687,11 @@
       <c r="D162" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162">
+        <v>1203696</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>282</v>
       </c>
@@ -3797,8 +4701,11 @@
       <c r="C163" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163">
+        <v>10921940</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>283</v>
       </c>
@@ -3811,8 +4718,11 @@
       <c r="D164" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164">
+        <v>9446231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>285</v>
       </c>
@@ -3825,8 +4735,11 @@
       <c r="D165" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165">
+        <v>2068222</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>288</v>
       </c>
@@ -3836,8 +4749,11 @@
       <c r="C166">
         <v>-5</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>289</v>
       </c>
@@ -3847,8 +4763,11 @@
       <c r="C167" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>290</v>
       </c>
@@ -3858,8 +4777,11 @@
       <c r="C168" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>291</v>
       </c>
@@ -3872,8 +4794,11 @@
       <c r="D169" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169">
+        <v>2743734</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>293</v>
       </c>
@@ -3883,8 +4808,11 @@
       <c r="C170">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>294</v>
       </c>
@@ -3897,8 +4825,11 @@
       <c r="D171" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171">
+        <v>2773743</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>296</v>
       </c>
@@ -3911,8 +4842,11 @@
       <c r="D172" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172">
+        <v>929027</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>298</v>
       </c>
@@ -3922,8 +4856,11 @@
       <c r="C173">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>299</v>
       </c>
@@ -3933,8 +4870,11 @@
       <c r="C174">
         <v>-2</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>300</v>
       </c>
@@ -3944,8 +4884,11 @@
       <c r="C175">
         <v>-2.2999999999999998</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>301</v>
       </c>
@@ -3958,8 +4901,11 @@
       <c r="D176" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176">
+        <v>1981122</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>303</v>
       </c>
@@ -3969,8 +4915,11 @@
       <c r="C177">
         <v>-5</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>304</v>
       </c>
@@ -3980,8 +4929,11 @@
       <c r="C178">
         <v>-3.5</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>305</v>
       </c>
@@ -3994,8 +4946,11 @@
       <c r="D179" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>308</v>
       </c>
@@ -4005,8 +4960,11 @@
       <c r="C180" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>309</v>
       </c>
@@ -4019,8 +4977,11 @@
       <c r="D181" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181">
+        <v>5390593</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>311</v>
       </c>
@@ -4033,8 +4994,11 @@
       <c r="D182" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182">
+        <v>2794633</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>313</v>
       </c>
@@ -4047,8 +5011,11 @@
       <c r="D183" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183">
+        <v>4218020</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>315</v>
       </c>
@@ -4061,8 +5028,11 @@
       <c r="D184" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184">
+        <v>2939223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>317</v>
       </c>
@@ -4072,8 +5042,11 @@
       <c r="C185" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>318</v>
       </c>
@@ -4083,8 +5056,11 @@
       <c r="C186">
         <v>-3.6</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>319</v>
       </c>
@@ -4097,8 +5073,11 @@
       <c r="D187" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187">
+        <v>5781326</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>321</v>
       </c>
@@ -4108,8 +5087,11 @@
       <c r="C188">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>322</v>
       </c>
@@ -4122,8 +5104,11 @@
       <c r="D189" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189">
+        <v>4656003</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>325</v>
       </c>
@@ -4136,8 +5121,11 @@
       <c r="D190" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>327</v>
       </c>
@@ -4147,8 +5135,11 @@
       <c r="C191">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>328</v>
       </c>
@@ -4161,8 +5152,11 @@
       <c r="D192" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192">
+        <v>995939</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>330</v>
       </c>
@@ -4172,8 +5166,11 @@
       <c r="C193">
         <v>-2.4</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193">
+        <v>11429127</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>331</v>
       </c>
@@ -4186,8 +5183,11 @@
       <c r="D194" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194">
+        <v>9872265</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>334</v>
       </c>
@@ -4200,8 +5200,11 @@
       <c r="D195" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195">
+        <v>68835</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>336</v>
       </c>
@@ -4211,8 +5214,11 @@
       <c r="C196">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>338</v>
       </c>
@@ -4222,8 +5228,11 @@
       <c r="C197">
         <v>-4</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>339</v>
       </c>
@@ -4236,8 +5245,11 @@
       <c r="D198" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>341</v>
       </c>
@@ -4250,8 +5262,11 @@
       <c r="D199" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199">
+        <v>2338548</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>343</v>
       </c>
@@ -4264,8 +5279,11 @@
       <c r="D200" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200">
+        <v>2294747</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>345</v>
       </c>
@@ -4278,8 +5296,11 @@
       <c r="D201" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201">
+        <v>817692</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>347</v>
       </c>
@@ -4292,8 +5313,11 @@
       <c r="D202" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202">
+        <v>541132</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>349</v>
       </c>
@@ -4306,8 +5330,11 @@
       <c r="D203" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203">
+        <v>964058</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>351</v>
       </c>
@@ -4317,8 +5344,11 @@
       <c r="C204">
         <v>-4.7</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>352</v>
       </c>
@@ -4328,8 +5358,11 @@
       <c r="C205" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>353</v>
       </c>
@@ -4342,8 +5375,11 @@
       <c r="D206" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206">
+        <v>388466</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>355</v>
       </c>
@@ -4353,8 +5389,11 @@
       <c r="C207">
         <v>-5</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>356</v>
       </c>
@@ -4364,8 +5403,11 @@
       <c r="C208">
         <v>-4.8</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>357</v>
       </c>
@@ -4375,8 +5417,11 @@
       <c r="C209" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209">
+        <v>4684034</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>358</v>
       </c>
@@ -4386,8 +5431,11 @@
       <c r="C210">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>359</v>
       </c>
@@ -4400,8 +5448,11 @@
       <c r="D211" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211">
+        <v>3792250</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>362</v>
       </c>
@@ -4414,8 +5465,11 @@
       <c r="D212" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>364</v>
       </c>
@@ -4428,8 +5482,11 @@
       <c r="D213" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213">
+        <v>9092149</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>366</v>
       </c>
@@ -4439,8 +5496,11 @@
       <c r="C214">
         <v>-2.8</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>367</v>
       </c>
@@ -4450,8 +5510,11 @@
       <c r="C215" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>368</v>
       </c>
@@ -4461,8 +5524,11 @@
       <c r="C216">
         <v>-3.8</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>369</v>
       </c>
@@ -4472,8 +5538,11 @@
       <c r="C217" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>370</v>
       </c>
@@ -4483,8 +5552,11 @@
       <c r="C218" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>371</v>
       </c>
@@ -4494,8 +5566,11 @@
       <c r="C219">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>372</v>
       </c>
@@ -4505,8 +5580,11 @@
       <c r="C220">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>373</v>
       </c>
@@ -4519,8 +5597,11 @@
       <c r="D221" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221">
+        <v>955491</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>375</v>
       </c>
@@ -4533,8 +5614,11 @@
       <c r="D222" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222">
+        <v>2734652</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>377</v>
       </c>
@@ -4547,8 +5631,11 @@
       <c r="D223" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>379</v>
       </c>
@@ -4561,8 +5648,11 @@
       <c r="D224" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224">
+        <v>6365062</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>382</v>
       </c>
@@ -4572,8 +5662,11 @@
       <c r="C225" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>383</v>
       </c>
@@ -4586,8 +5679,11 @@
       <c r="D226" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226">
+        <v>3236121</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>385</v>
       </c>
@@ -4597,8 +5693,11 @@
       <c r="C227" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>386</v>
       </c>
@@ -4608,8 +5707,11 @@
       <c r="C228">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>387</v>
       </c>
@@ -4622,8 +5724,11 @@
       <c r="D229" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229">
+        <v>4330018</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>390</v>
       </c>
@@ -4633,8 +5738,11 @@
       <c r="C230" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>391</v>
       </c>
@@ -4647,8 +5755,11 @@
       <c r="D231" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231">
+        <v>990937</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>393</v>
       </c>
@@ -4658,8 +5769,11 @@
       <c r="C232">
         <v>-3.9</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>395</v>
       </c>
@@ -4669,8 +5783,11 @@
       <c r="C233">
         <v>-1.5</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>396</v>
       </c>
@@ -4680,8 +5797,11 @@
       <c r="C234">
         <v>-2.1</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>397</v>
       </c>
@@ -4691,8 +5811,11 @@
       <c r="C235" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>398</v>
       </c>
@@ -4702,8 +5825,11 @@
       <c r="C236">
         <v>-5</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>400</v>
       </c>
@@ -4713,8 +5839,11 @@
       <c r="C237">
         <v>-3</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>402</v>
       </c>
@@ -4727,8 +5856,11 @@
       <c r="D238" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>404</v>
       </c>
@@ -4738,8 +5870,11 @@
       <c r="C239">
         <v>-4</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>405</v>
       </c>
@@ -4752,8 +5887,11 @@
       <c r="D240" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240">
+        <v>11379025</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>408</v>
       </c>
@@ -4766,8 +5904,11 @@
       <c r="D241" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>410</v>
       </c>
@@ -4780,8 +5921,11 @@
       <c r="D242" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242">
+        <v>2643004</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>412</v>
       </c>
@@ -4791,8 +5935,11 @@
       <c r="C243">
         <v>-3.4</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>413</v>
       </c>
@@ -4802,8 +5949,11 @@
       <c r="C244">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>414</v>
       </c>
@@ -4816,8 +5966,11 @@
       <c r="D245" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>416</v>
       </c>
@@ -4827,8 +5980,11 @@
       <c r="C246">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>417</v>
       </c>
@@ -4838,8 +5994,11 @@
       <c r="C247">
         <v>-3.3</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>418</v>
       </c>
@@ -4849,8 +6008,11 @@
       <c r="C248">
         <v>-5</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>420</v>
       </c>
@@ -4863,8 +6025,11 @@
       <c r="D249" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249">
+        <v>7653660</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>422</v>
       </c>
@@ -4877,8 +6042,11 @@
       <c r="D250" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250">
+        <v>4661188</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>425</v>
       </c>
@@ -4891,8 +6059,11 @@
       <c r="D251" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251">
+        <v>3104974</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>427</v>
       </c>
@@ -4905,8 +6076,11 @@
       <c r="D252" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252">
+        <v>4146820</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>429</v>
       </c>
@@ -4916,8 +6090,11 @@
       <c r="C253">
         <v>-5</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>430</v>
       </c>
@@ -4930,8 +6107,11 @@
       <c r="D254" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254">
+        <v>549690</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>432</v>
       </c>
@@ -4944,8 +6124,11 @@
       <c r="D255" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255">
+        <v>1713124</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>434</v>
       </c>
@@ -4958,8 +6141,11 @@
       <c r="D256" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256">
+        <v>2558509</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>437</v>
       </c>
@@ -4972,8 +6158,11 @@
       <c r="D257" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257">
+        <v>6952311</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>439</v>
       </c>
@@ -4986,8 +6175,11 @@
       <c r="D258" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258">
+        <v>159752</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>441</v>
       </c>
@@ -5000,8 +6192,11 @@
       <c r="D259" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259">
+        <v>2943300</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>443</v>
       </c>
@@ -5011,8 +6206,11 @@
       <c r="C260">
         <v>-1.3</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>444</v>
       </c>
@@ -5025,8 +6223,11 @@
       <c r="D261" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261">
+        <v>2839202</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>447</v>
       </c>
@@ -5036,8 +6237,11 @@
       <c r="C262" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>449</v>
       </c>
@@ -5047,8 +6251,11 @@
       <c r="C263">
         <v>-2.5</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>450</v>
       </c>
@@ -5061,8 +6268,11 @@
       <c r="D264" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264">
+        <v>5660032</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>453</v>
       </c>
@@ -5072,8 +6282,11 @@
       <c r="C265">
         <v>-4.2</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>454</v>
       </c>
@@ -5086,8 +6299,11 @@
       <c r="D266" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266">
+        <v>1536428</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>456</v>
       </c>
@@ -5099,6 +6315,14 @@
       </c>
       <c r="D267" t="s">
         <v>458</v>
+      </c>
+      <c r="E267">
+        <v>5713749</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E268" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C7D6C4F8-8103-45A7-81A3-81F9D585D6C3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A21534C6-65E1-43EF-90BE-84D826706CB9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="583">
   <si>
     <t>Name</t>
   </si>
@@ -2150,14 +2150,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0953D09C-EEC6-4C19-A530-793F572717AA}">
   <dimension ref="A1:F267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268:XFD268"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E223" sqref="E223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2440,7 +2441,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2452,6 +2453,9 @@
       </c>
       <c r="E16" t="s">
         <v>448</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2781,7 +2785,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>69</v>
       </c>
@@ -2793,6 +2797,9 @@
       </c>
       <c r="E35">
         <v>7022885</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -2909,7 +2916,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>83</v>
       </c>
@@ -2924,6 +2931,9 @@
       </c>
       <c r="E42">
         <v>4189598</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3182,7 +3192,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -3194,6 +3204,9 @@
       </c>
       <c r="E57" t="s">
         <v>471</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3233,7 +3246,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>114</v>
       </c>
@@ -3245,6 +3258,9 @@
       </c>
       <c r="E60" t="s">
         <v>473</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3375,7 +3391,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>126</v>
       </c>
@@ -3387,6 +3403,9 @@
       </c>
       <c r="E68" t="s">
         <v>478</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3443,7 +3462,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>133</v>
       </c>
@@ -3458,6 +3477,9 @@
       </c>
       <c r="E72" t="s">
         <v>480</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3494,7 +3516,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>137</v>
       </c>
@@ -3506,6 +3528,9 @@
       </c>
       <c r="E75" t="s">
         <v>483</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3636,7 +3661,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>148</v>
       </c>
@@ -3648,6 +3673,9 @@
       </c>
       <c r="E83" t="s">
         <v>488</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3772,7 +3800,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>159</v>
       </c>
@@ -3784,6 +3812,9 @@
       </c>
       <c r="E91" t="s">
         <v>495</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -3846,7 +3877,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>167</v>
       </c>
@@ -3861,6 +3892,9 @@
       </c>
       <c r="E95">
         <v>6621225</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4045,7 +4079,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>185</v>
       </c>
@@ -4057,6 +4091,9 @@
       </c>
       <c r="E106" t="s">
         <v>501</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4455,7 +4492,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>223</v>
       </c>
@@ -4470,6 +4507,9 @@
       </c>
       <c r="E128">
         <v>1814093</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -4489,7 +4529,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>226</v>
       </c>
@@ -4501,6 +4541,9 @@
       </c>
       <c r="E130" t="s">
         <v>511</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -5035,7 +5078,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>274</v>
       </c>
@@ -5047,6 +5090,9 @@
       </c>
       <c r="E160" t="s">
         <v>527</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6190,7 +6236,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>375</v>
       </c>
@@ -6202,6 +6248,9 @@
       </c>
       <c r="E223" t="s">
         <v>507</v>
+      </c>
+      <c r="F223" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6238,7 +6287,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>378</v>
       </c>
@@ -6250,6 +6299,9 @@
       </c>
       <c r="E226" t="s">
         <v>562</v>
+      </c>
+      <c r="F226" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6551,7 +6603,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>409</v>
       </c>
@@ -6563,6 +6615,9 @@
       </c>
       <c r="E243" t="s">
         <v>573</v>
+      </c>
+      <c r="F243" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6625,7 +6680,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>417</v>
       </c>
@@ -6640,6 +6695,9 @@
       </c>
       <c r="E247">
         <v>6952311</v>
+      </c>
+      <c r="F247" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6773,7 +6831,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>433</v>
       </c>
@@ -6785,6 +6843,9 @@
       </c>
       <c r="E255" t="s">
         <v>577</v>
+      </c>
+      <c r="F255" s="1" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="60" x14ac:dyDescent="0.25">
@@ -6827,7 +6888,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>419</v>
       </c>
@@ -6843,8 +6904,11 @@
       <c r="E258">
         <v>159752</v>
       </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F258" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>421</v>
       </c>
@@ -6860,8 +6924,11 @@
       <c r="E259">
         <v>2943300</v>
       </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F259" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>423</v>
       </c>
@@ -6874,8 +6941,11 @@
       <c r="E260" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F260" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>424</v>
       </c>
@@ -6891,8 +6961,11 @@
       <c r="E261">
         <v>2839202</v>
       </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F261" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>427</v>
       </c>
@@ -6905,8 +6978,11 @@
       <c r="E262" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F262" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>429</v>
       </c>
@@ -6919,8 +6995,11 @@
       <c r="E263" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F263" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>430</v>
       </c>
@@ -6936,8 +7015,11 @@
       <c r="E264">
         <v>5660032</v>
       </c>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F264" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>433</v>
       </c>
@@ -6950,8 +7032,11 @@
       <c r="E265" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F265" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>434</v>
       </c>
@@ -6967,8 +7052,11 @@
       <c r="E266">
         <v>1536428</v>
       </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F266" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>436</v>
       </c>
@@ -6983,6 +7071,9 @@
       </c>
       <c r="E267">
         <v>5713749</v>
+      </c>
+      <c r="F267" s="1" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{ACE3EAB9-FFC3-4E8F-B32B-3D5B189C5ECD}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{2810D760-9CC6-436A-B1C7-91E1A6C6C6BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{5A83FF28-8C0B-4FE3-A5F2-52506E33670F}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{9C54CCDF-854D-45B7-B0D3-70369417D37B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="822">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1394" uniqueCount="826">
   <si>
     <t>ABC INTERNATIONAL BANK PLC</t>
   </si>
@@ -121,16 +121,7 @@
     <t>50 St Mary Axe, KT17 1BS, London, United Kingdom</t>
   </si>
   <si>
-    <t>Alpha Bank London Limited</t>
-  </si>
-  <si>
     <t>private banking</t>
-  </si>
-  <si>
-    <t>627.76 mln GBP</t>
-  </si>
-  <si>
-    <t>66 Cannon Street, EC4N 6AE, London, United Kingdom</t>
   </si>
   <si>
     <t>Arab Banking Corporation (B.S.C)</t>
@@ -2511,6 +2502,27 @@
   </si>
   <si>
     <t>39 CORNHILL, EC3V 3NU, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Business Focus</t>
+  </si>
+  <si>
+    <t>Customers Rating</t>
+  </si>
+  <si>
+    <t>Total Assets</t>
+  </si>
+  <si>
+    <t>Company Number</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -2884,163 +2896,163 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C2" s="1">
         <v>-4.0999999999999996</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>2564490</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1">
-        <v>-5</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>-3.5</v>
+        <v>-5</v>
       </c>
       <c r="D3"/>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1">
-        <v>-4</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>-3.5</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
-        <v>-3.5</v>
+        <v>-4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1">
-        <v>4483430</v>
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
-        <v>-4.5999999999999996</v>
+        <v>-3.5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>947662</v>
+        <v>4483430</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C7" s="1">
-        <v>-5</v>
+        <v>-4.5999999999999996</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>185070</v>
+        <v>947662</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>1</v>
@@ -3049,18 +3061,18 @@
         <v>-4.0999999999999996</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
@@ -3070,48 +3082,48 @@
       </c>
       <c r="D9"/>
       <c r="E9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="1">
         <v>-4.5999999999999996</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1">
         <v>8632552</v>
@@ -3120,41 +3132,41 @@
         <v>3</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E13" s="1">
         <v>7554558</v>
@@ -3163,12 +3175,12 @@
         <v>3</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
@@ -3177,39 +3189,39 @@
         <v>-3.7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15"/>
       <c r="E15" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>6</v>
@@ -3219,18 +3231,18 @@
       </c>
       <c r="D16"/>
       <c r="E16" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>1</v>
@@ -3240,39 +3252,39 @@
       </c>
       <c r="D17"/>
       <c r="E17" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="1">
         <v>-3.9</v>
       </c>
       <c r="D18"/>
       <c r="E18" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>1</v>
@@ -3282,27 +3294,27 @@
       </c>
       <c r="D19"/>
       <c r="E19" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1">
         <v>-1</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E20" s="1">
         <v>980698</v>
@@ -3311,21 +3323,21 @@
         <v>3</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1">
         <v>-4.7</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1">
         <v>640370</v>
@@ -3334,21 +3346,21 @@
         <v>3</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C22" s="1">
         <v>-4.2</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1">
         <v>3793679</v>
@@ -3357,53 +3369,53 @@
         <v>3</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D24"/>
       <c r="E24" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>23</v>
@@ -3413,27 +3425,27 @@
       </c>
       <c r="D25"/>
       <c r="E25" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E26" s="1">
         <v>10826803</v>
@@ -3442,21 +3454,21 @@
         <v>3</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C27" s="1">
         <v>-3</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E27" s="1">
         <v>4406777</v>
@@ -3465,12 +3477,12 @@
         <v>3</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>1</v>
@@ -3479,7 +3491,7 @@
         <v>-5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E28" s="1">
         <v>6736473</v>
@@ -3488,12 +3500,12 @@
         <v>3</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
@@ -3502,7 +3514,7 @@
         <v>-2.8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E29" s="1">
         <v>6193060</v>
@@ -3511,12 +3523,12 @@
         <v>3</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
@@ -3525,18 +3537,18 @@
         <v>-2.8</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>1</v>
@@ -3546,18 +3558,18 @@
       </c>
       <c r="D31"/>
       <c r="E31" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>1</v>
@@ -3567,18 +3579,18 @@
       </c>
       <c r="D32"/>
       <c r="E32" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>1</v>
@@ -3588,21 +3600,21 @@
       </c>
       <c r="D33"/>
       <c r="E33" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1">
         <v>-2.9</v>
@@ -3615,21 +3627,21 @@
         <v>3</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E35" s="1">
         <v>5897786</v>
@@ -3638,12 +3650,12 @@
         <v>3</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
@@ -3652,70 +3664,70 @@
         <v>-5</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C37" s="1">
         <v>-1.9</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1">
         <v>-3.4</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E39" s="1">
         <v>5888535</v>
@@ -3724,21 +3736,21 @@
         <v>3</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C40" s="1">
         <v>-4.7</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E40" s="1">
         <v>1126618</v>
@@ -3747,21 +3759,21 @@
         <v>3</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C41" s="1">
         <v>-5</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E41" s="1">
         <v>4189598</v>
@@ -3770,74 +3782,74 @@
         <v>3</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D43"/>
       <c r="E43" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D44"/>
       <c r="E44" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>6</v>
@@ -3846,7 +3858,7 @@
         <v>-1.5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E45" s="1">
         <v>1026167</v>
@@ -3855,21 +3867,21 @@
         <v>3</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C46" s="1">
         <v>-2.2999999999999998</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E46" s="1">
         <v>9740322</v>
@@ -3878,32 +3890,32 @@
         <v>3</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>1</v>
@@ -3912,7 +3924,7 @@
         <v>-4.3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E48" s="1">
         <v>4797759</v>
@@ -3921,12 +3933,12 @@
         <v>3</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>1</v>
@@ -3935,18 +3947,18 @@
         <v>-4.5999999999999996</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>1</v>
@@ -3955,7 +3967,7 @@
         <v>-4</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E50" s="1">
         <v>5321714</v>
@@ -3964,62 +3976,62 @@
         <v>3</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C52" s="1">
         <v>-4</v>
       </c>
       <c r="D52"/>
       <c r="E52" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C53" s="1">
         <v>-3.8</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E53" s="1">
         <v>1047302</v>
@@ -4028,41 +4040,41 @@
         <v>3</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C54" s="1">
         <v>-5</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C55" s="1">
         <v>-2.5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E55" s="1">
         <v>1837656</v>
@@ -4071,12 +4083,12 @@
         <v>3</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
@@ -4085,18 +4097,18 @@
         <v>-3.9</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>23</v>
@@ -4106,27 +4118,27 @@
       </c>
       <c r="D57"/>
       <c r="E57" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C58" s="1">
         <v>-1.8</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E58" s="1">
         <v>2572704</v>
@@ -4135,41 +4147,41 @@
         <v>3</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E60" s="1">
         <v>9964966</v>
@@ -4178,32 +4190,32 @@
         <v>3</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>1</v>
@@ -4212,7 +4224,7 @@
         <v>-3.8</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E62" s="1">
         <v>6455352</v>
@@ -4221,12 +4233,12 @@
         <v>3</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>1</v>
@@ -4235,18 +4247,18 @@
         <v>-5</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>1</v>
@@ -4256,41 +4268,41 @@
       </c>
       <c r="D64"/>
       <c r="E64" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C65" s="1">
         <v>-4</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E65" s="1">
         <v>2733036</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>6</v>
@@ -4299,18 +4311,18 @@
         <v>-3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>6</v>
@@ -4320,18 +4332,18 @@
       </c>
       <c r="D67"/>
       <c r="E67" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
@@ -4341,24 +4353,24 @@
       </c>
       <c r="D68"/>
       <c r="E68" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D69"/>
       <c r="E69" s="1">
@@ -4368,21 +4380,21 @@
         <v>3</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C70" s="1">
         <v>-3.8</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E70" s="1">
         <v>195626</v>
@@ -4391,55 +4403,55 @@
         <v>3</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C71" s="1">
         <v>-1.4</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>1</v>
@@ -4449,18 +4461,18 @@
       </c>
       <c r="D73"/>
       <c r="E73" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>1</v>
@@ -4470,18 +4482,18 @@
       </c>
       <c r="D74"/>
       <c r="E74" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>6</v>
@@ -4491,18 +4503,18 @@
       </c>
       <c r="D75"/>
       <c r="E75" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
@@ -4512,39 +4524,39 @@
       </c>
       <c r="D76"/>
       <c r="E76" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C77" s="1">
         <v>-3.2</v>
       </c>
       <c r="D77"/>
       <c r="E77" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>6</v>
@@ -4553,7 +4565,7 @@
         <v>-3.2</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E78" s="1">
         <v>2500199</v>
@@ -4562,21 +4574,21 @@
         <v>3</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C79" s="1">
         <v>-5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E79" s="1">
         <v>2334687</v>
@@ -4585,21 +4597,21 @@
         <v>3</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C80" s="1">
         <v>-2.1</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E80" s="1">
         <v>4728421</v>
@@ -4608,32 +4620,32 @@
         <v>3</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C81" s="1">
         <v>-2.9</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
@@ -4643,18 +4655,18 @@
       </c>
       <c r="D82"/>
       <c r="E82" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>6</v>
@@ -4664,18 +4676,18 @@
       </c>
       <c r="D83"/>
       <c r="E83" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>6</v>
@@ -4685,18 +4697,18 @@
       </c>
       <c r="D84"/>
       <c r="E84" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
@@ -4706,27 +4718,27 @@
       </c>
       <c r="D85"/>
       <c r="E85" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C86" s="1">
         <v>-4.7</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E86" s="1">
         <v>2321802</v>
@@ -4735,53 +4747,53 @@
         <v>3</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="G87" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C88" s="1">
         <v>-4.0999999999999996</v>
       </c>
       <c r="D88"/>
       <c r="E88" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>1</v>
@@ -4791,48 +4803,48 @@
       </c>
       <c r="D89"/>
       <c r="E89" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D90"/>
       <c r="E90" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C91" s="1">
         <v>-4.4000000000000004</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="E91" s="1">
         <v>5575857</v>
@@ -4841,12 +4853,12 @@
         <v>3</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>23</v>
@@ -4855,7 +4867,7 @@
         <v>-3.9</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E92" s="1">
         <v>4459383</v>
@@ -4864,21 +4876,21 @@
         <v>3</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C93" s="1">
         <v>-2.2999999999999998</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="E93" s="1">
         <v>772784</v>
@@ -4887,12 +4899,12 @@
         <v>3</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>1</v>
@@ -4901,7 +4913,7 @@
         <v>-5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E94" s="1">
         <v>6621225</v>
@@ -4910,21 +4922,21 @@
         <v>3</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E95" s="1">
         <v>2856884</v>
@@ -4933,12 +4945,12 @@
         <v>3</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>1</v>
@@ -4947,18 +4959,18 @@
         <v>-1.8</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>1</v>
@@ -4968,18 +4980,18 @@
       </c>
       <c r="D97"/>
       <c r="E97" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>1</v>
@@ -4989,24 +5001,24 @@
       </c>
       <c r="D98"/>
       <c r="E98" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D99"/>
       <c r="E99" s="1">
@@ -5016,21 +5028,21 @@
         <v>3</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C100" s="1">
         <v>-2.8</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E100" s="1">
         <v>3468216</v>
@@ -5039,41 +5051,41 @@
         <v>3</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E102" s="1">
         <v>1122503</v>
@@ -5082,12 +5094,12 @@
         <v>3</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>23</v>
@@ -5096,7 +5108,7 @@
         <v>-3.5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="E103" s="1">
         <v>5969821</v>
@@ -5105,32 +5117,32 @@
         <v>3</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C104" s="1">
         <v>-3.5</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F104" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>23</v>
@@ -5140,27 +5152,27 @@
       </c>
       <c r="D105"/>
       <c r="E105" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C106" s="1">
         <v>-3.5</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E106" s="1">
         <v>8864609</v>
@@ -5169,21 +5181,21 @@
         <v>3</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C107" s="1">
         <v>-4.5</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E107" s="1">
         <v>1311315</v>
@@ -5192,21 +5204,21 @@
         <v>3</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C108" s="1">
         <v>-2.8</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E108" s="1">
         <v>11305395</v>
@@ -5215,21 +5227,21 @@
         <v>3</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E109" s="1">
         <v>1074897</v>
@@ -5238,12 +5250,12 @@
         <v>3</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>23</v>
@@ -5252,7 +5264,7 @@
         <v>-4</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E110" s="1">
         <v>1719649</v>
@@ -5261,12 +5273,12 @@
         <v>3</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>6</v>
@@ -5275,7 +5287,7 @@
         <v>-2.1</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E111" s="1">
         <v>14259</v>
@@ -5284,12 +5296,12 @@
         <v>3</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
@@ -5298,27 +5310,27 @@
         <v>-2.8</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E113" s="1">
         <v>499482</v>
@@ -5327,21 +5339,21 @@
         <v>3</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C114" s="1">
         <v>-1.4</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="E114" s="1">
         <v>9928412</v>
@@ -5350,32 +5362,32 @@
         <v>3</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G115" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>1</v>
@@ -5384,7 +5396,7 @@
         <v>-3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E116" s="1">
         <v>4552753</v>
@@ -5393,12 +5405,12 @@
         <v>3</v>
       </c>
       <c r="G116" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>1</v>
@@ -5407,7 +5419,7 @@
         <v>-4.3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E117" s="1">
         <v>2130447</v>
@@ -5416,12 +5428,12 @@
         <v>3</v>
       </c>
       <c r="G117" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>23</v>
@@ -5430,7 +5442,7 @@
         <v>-4.2</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E118" s="1">
         <v>4663024</v>
@@ -5439,32 +5451,32 @@
         <v>3</v>
       </c>
       <c r="G118" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C119" s="1">
         <v>-3.5</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>1</v>
@@ -5474,18 +5486,18 @@
       </c>
       <c r="D120"/>
       <c r="E120" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>1</v>
@@ -5495,39 +5507,39 @@
       </c>
       <c r="D121"/>
       <c r="E121" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C122" s="1">
         <v>-3.9</v>
       </c>
       <c r="D122"/>
       <c r="E122" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>6</v>
@@ -5537,18 +5549,18 @@
       </c>
       <c r="D123"/>
       <c r="E123" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>6</v>
@@ -5557,7 +5569,7 @@
         <v>-3.7</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E124" s="1">
         <v>7425398</v>
@@ -5566,41 +5578,41 @@
         <v>3</v>
       </c>
       <c r="G124" s="1" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C126" s="1">
         <v>-5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E126" s="1">
         <v>938937</v>
@@ -5609,12 +5621,12 @@
         <v>3</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>1</v>
@@ -5623,7 +5635,7 @@
         <v>-4.2</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E127" s="1">
         <v>1814093</v>
@@ -5632,32 +5644,32 @@
         <v>3</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C128" s="1">
         <v>-1.8</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G128" s="1" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>1</v>
@@ -5667,18 +5679,18 @@
       </c>
       <c r="D129"/>
       <c r="E129" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G129" s="1" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>1</v>
@@ -5688,27 +5700,27 @@
       </c>
       <c r="D130"/>
       <c r="E130" s="1" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G130" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C131" s="1">
         <v>-3.5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E131" s="1">
         <v>2693038</v>
@@ -5717,41 +5729,41 @@
         <v>3</v>
       </c>
       <c r="G131" s="1" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G132" s="1" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C133" s="1">
         <v>-3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="E133" s="1">
         <v>4346834</v>
@@ -5760,32 +5772,32 @@
         <v>3</v>
       </c>
       <c r="G133" s="1" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G134" s="1" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>6</v>
@@ -5795,18 +5807,18 @@
       </c>
       <c r="D135"/>
       <c r="E135" s="1" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G135" s="1" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>6</v>
@@ -5816,27 +5828,27 @@
       </c>
       <c r="D136"/>
       <c r="E136" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G136" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E137" s="1">
         <v>10399850</v>
@@ -5845,12 +5857,12 @@
         <v>3</v>
       </c>
       <c r="G137" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>23</v>
@@ -5859,7 +5871,7 @@
         <v>-1.8</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E138" s="1">
         <v>2065</v>
@@ -5868,41 +5880,41 @@
         <v>3</v>
       </c>
       <c r="G138" s="1" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C139" s="1">
         <v>-5</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G139" s="1" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C140" s="1">
         <v>-4</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E140" s="1">
         <v>6309906</v>
@@ -5911,41 +5923,41 @@
         <v>3</v>
       </c>
       <c r="G140" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C141" s="1">
         <v>-4</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C142" s="1">
         <v>-4</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E142" s="1">
         <v>3704031</v>
@@ -5954,62 +5966,62 @@
         <v>3</v>
       </c>
       <c r="G142" s="1" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C143" s="1">
         <v>-4.5999999999999996</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G143" s="1" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C144" s="1">
         <v>-5</v>
       </c>
       <c r="D144"/>
       <c r="E144" s="1" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C145" s="1">
         <v>-3.1</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E145" s="1">
         <v>9660012</v>
@@ -6018,12 +6030,12 @@
         <v>3</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>1</v>
@@ -6032,18 +6044,18 @@
         <v>-5</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G146" s="1" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>1</v>
@@ -6052,7 +6064,7 @@
         <v>-4.5</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E147" s="1">
         <v>4152338</v>
@@ -6061,21 +6073,21 @@
         <v>3</v>
       </c>
       <c r="G147" s="1" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E148" s="1">
         <v>30546</v>
@@ -6084,21 +6096,21 @@
         <v>3</v>
       </c>
       <c r="G148" s="1" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C149" s="1">
         <v>-3.2</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E149" s="1">
         <v>6419578</v>
@@ -6109,48 +6121,48 @@
     </row>
     <row r="150" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="C150" s="1">
         <v>-5</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G150" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C151" s="1">
         <v>-5</v>
       </c>
       <c r="D151"/>
       <c r="E151" s="1" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G151" s="1" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>1</v>
@@ -6160,18 +6172,18 @@
       </c>
       <c r="D152"/>
       <c r="E152" s="1" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G152" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>6</v>
@@ -6180,7 +6192,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E153" s="1">
         <v>1203696</v>
@@ -6189,18 +6201,18 @@
         <v>3</v>
       </c>
       <c r="G153" s="1" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E154" s="1">
         <v>10921940</v>
@@ -6209,21 +6221,21 @@
         <v>3</v>
       </c>
       <c r="G154" s="1" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C155" s="1">
         <v>-4.5</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E155" s="1">
         <v>9446231</v>
@@ -6232,21 +6244,21 @@
         <v>3</v>
       </c>
       <c r="G155" s="1" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E156" s="1">
         <v>2068222</v>
@@ -6255,12 +6267,12 @@
         <v>3</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>6</v>
@@ -6269,60 +6281,60 @@
         <v>-5</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G157" s="1" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D158"/>
       <c r="E158" s="1" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G158" s="1" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D159"/>
       <c r="E159" s="1" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G159" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>1</v>
@@ -6331,7 +6343,7 @@
         <v>-4.3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E160" s="1">
         <v>2743734</v>
@@ -6340,12 +6352,12 @@
         <v>3</v>
       </c>
       <c r="G160" s="1" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>23</v>
@@ -6354,18 +6366,18 @@
         <v>-3.5</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G161" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>1</v>
@@ -6374,7 +6386,7 @@
         <v>-3.3</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E162" s="1">
         <v>2773743</v>
@@ -6383,21 +6395,21 @@
         <v>3</v>
       </c>
       <c r="G162" s="1" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C163" s="1">
         <v>-1.5</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E163" s="1">
         <v>929027</v>
@@ -6406,12 +6418,12 @@
         <v>3</v>
       </c>
       <c r="G163" s="1" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>6</v>
@@ -6420,18 +6432,18 @@
         <v>-1.3</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G164" s="1" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>6</v>
@@ -6441,39 +6453,39 @@
       </c>
       <c r="D165"/>
       <c r="E165" s="1" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G165" s="1" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C166" s="1">
         <v>-2.2999999999999998</v>
       </c>
       <c r="D166"/>
       <c r="E166" s="1" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G166" s="1" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>6</v>
@@ -6482,7 +6494,7 @@
         <v>-4.4000000000000004</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="E167" s="1">
         <v>1981122</v>
@@ -6491,12 +6503,12 @@
         <v>3</v>
       </c>
       <c r="G167" s="1" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>1</v>
@@ -6505,18 +6517,18 @@
         <v>-5</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G168" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>6</v>
@@ -6526,70 +6538,70 @@
       </c>
       <c r="D169"/>
       <c r="E169" s="1" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C170" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="E170" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="F170" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G170" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="F170" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G171" s="1" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C172" s="1">
         <v>-2.9</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E172" s="1">
         <v>5390593</v>
@@ -6598,12 +6610,12 @@
         <v>3</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>23</v>
@@ -6612,7 +6624,7 @@
         <v>-2.5</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E173" s="1">
         <v>2794633</v>
@@ -6621,12 +6633,12 @@
         <v>3</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>23</v>
@@ -6635,7 +6647,7 @@
         <v>-5</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E174" s="1">
         <v>4218020</v>
@@ -6644,12 +6656,12 @@
         <v>3</v>
       </c>
       <c r="G174" s="1" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>1</v>
@@ -6658,7 +6670,7 @@
         <v>-4.9000000000000004</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E175" s="1">
         <v>2939223</v>
@@ -6667,32 +6679,32 @@
         <v>3</v>
       </c>
       <c r="G175" s="1" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="F176" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G176" s="1" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>1</v>
@@ -6702,27 +6714,27 @@
       </c>
       <c r="D177"/>
       <c r="E177" s="1" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G177" s="1" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C178" s="1">
         <v>-3.5</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E178" s="1">
         <v>5781326</v>
@@ -6731,12 +6743,12 @@
         <v>3</v>
       </c>
       <c r="G178" s="1" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>1</v>
@@ -6745,27 +6757,27 @@
         <v>-4.8</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G179" s="1" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E180" s="1">
         <v>4656003</v>
@@ -6774,12 +6786,12 @@
         <v>3</v>
       </c>
       <c r="G180" s="1" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>1</v>
@@ -6788,27 +6800,27 @@
         <v>-3.4</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E182" s="1">
         <v>995939</v>
@@ -6817,15 +6829,15 @@
         <v>3</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C183" s="1">
         <v>-2.4</v>
@@ -6837,21 +6849,21 @@
         <v>3</v>
       </c>
       <c r="G183" s="1" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="184" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="C184" s="1">
         <v>-4.2</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E184" s="1">
         <v>9872265</v>
@@ -6860,21 +6872,21 @@
         <v>3</v>
       </c>
       <c r="G184" s="1" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="185" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C185" s="1">
         <v>-3.7</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="E185" s="1">
         <v>68835</v>
@@ -6883,62 +6895,62 @@
         <v>3</v>
       </c>
       <c r="G185" s="1" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="186" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C186" s="1">
         <v>-3.3</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G186" s="1" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="187" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="C187" s="1">
         <v>-4</v>
       </c>
       <c r="D187"/>
       <c r="E187" s="1" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G187" s="1" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="188" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E188" s="1">
         <v>2338548</v>
@@ -6947,21 +6959,21 @@
         <v>3</v>
       </c>
       <c r="G188" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="189" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C189" s="1">
         <v>-1.5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E189" s="1">
         <v>2294747</v>
@@ -6970,12 +6982,12 @@
         <v>3</v>
       </c>
       <c r="G189" s="1" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="190" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
@@ -6984,7 +6996,7 @@
         <v>-1.5</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E190" s="1">
         <v>817692</v>
@@ -6993,21 +7005,21 @@
         <v>3</v>
       </c>
       <c r="G190" s="1" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="191" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C191" s="1">
         <v>-4.4000000000000004</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E191" s="1">
         <v>541132</v>
@@ -7016,21 +7028,21 @@
         <v>3</v>
       </c>
       <c r="G191" s="1" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C192" s="1">
         <v>-5</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E192" s="1">
         <v>964058</v>
@@ -7039,12 +7051,12 @@
         <v>3</v>
       </c>
       <c r="G192" s="1" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="193" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>23</v>
@@ -7053,48 +7065,48 @@
         <v>-4.7</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G193" s="1" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="194" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D194"/>
       <c r="E194" s="1" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G194" s="1" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="195" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C195" s="1">
         <v>-3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E195" s="1">
         <v>388466</v>
@@ -7103,12 +7115,12 @@
         <v>3</v>
       </c>
       <c r="G195" s="1" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="196" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>1</v>
@@ -7117,45 +7129,45 @@
         <v>-5</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G196" s="1" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="197" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C197" s="1">
         <v>-4.8</v>
       </c>
       <c r="D197"/>
       <c r="E197" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G197" s="1" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="198" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D198"/>
       <c r="E198" s="1">
@@ -7165,12 +7177,12 @@
         <v>3</v>
       </c>
       <c r="G198" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="199" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>6</v>
@@ -7180,27 +7192,27 @@
       </c>
       <c r="D199"/>
       <c r="E199" s="1" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G199" s="1" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="200" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C200" s="1">
         <v>-2.6</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E200" s="1">
         <v>3792250</v>
@@ -7209,44 +7221,44 @@
         <v>3</v>
       </c>
       <c r="G200" s="1" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="201" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C201" s="1">
         <v>-2.5</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G201" s="1" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="202" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C202" s="1">
         <v>-4.5</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E202" s="1">
         <v>9092149</v>
@@ -7255,12 +7267,12 @@
         <v>3</v>
       </c>
       <c r="G202" s="1" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="203" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>1</v>
@@ -7269,123 +7281,123 @@
         <v>-2.8</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G203" s="1" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="204" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D204"/>
       <c r="E204" s="1" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G204" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="205" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C205" s="1">
         <v>-3.8</v>
       </c>
       <c r="D205"/>
       <c r="E205" s="1" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G205" s="1" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="206" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D206"/>
       <c r="E206" s="1" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G206" s="1" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="207" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D207"/>
       <c r="E207" s="1" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G207" s="1" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="208" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C208" s="1">
         <v>-3.9</v>
       </c>
       <c r="D208"/>
       <c r="E208" s="1" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F208" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G208" s="1" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="209" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>23</v>
@@ -7395,27 +7407,27 @@
       </c>
       <c r="D209"/>
       <c r="E209" s="1" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G209" s="1" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="210" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C210" s="1">
         <v>-3.1</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="E210" s="1">
         <v>955491</v>
@@ -7424,21 +7436,21 @@
         <v>3</v>
       </c>
       <c r="G210" s="1" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="211" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C211" s="1">
         <v>-5</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="E211" s="1">
         <v>2734652</v>
@@ -7447,44 +7459,44 @@
         <v>3</v>
       </c>
       <c r="G211" s="1" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="212" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C212" s="1">
         <v>-1.8</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G212" s="1" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="213" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E213" s="1">
         <v>6365062</v>
@@ -7493,41 +7505,41 @@
         <v>3</v>
       </c>
       <c r="G213" s="1" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="214" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G214" s="1" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="215" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="E215" s="1">
         <v>3236121</v>
@@ -7536,32 +7548,32 @@
         <v>3</v>
       </c>
       <c r="G215" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="216" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G216" s="1" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="217" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>6</v>
@@ -7571,27 +7583,27 @@
       </c>
       <c r="D217"/>
       <c r="E217" s="1" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G217" s="1" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="218" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C218" s="1">
         <v>-4.4000000000000004</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E218" s="1">
         <v>4330018</v>
@@ -7600,41 +7612,41 @@
         <v>3</v>
       </c>
       <c r="G218" s="1" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="219" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E219" s="1" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G219" s="1" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="220" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C220" s="1">
         <v>-1.6</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E220" s="1">
         <v>990937</v>
@@ -7643,186 +7655,186 @@
         <v>3</v>
       </c>
       <c r="G220" s="1" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="221" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="C221" s="1">
         <v>-3.9</v>
       </c>
       <c r="E221" s="1" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F221" s="2"/>
       <c r="G221" s="1" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C222" s="1">
         <v>-1.5</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F222" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G222" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="223" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C223" s="1">
         <v>-2.1</v>
       </c>
       <c r="D223"/>
       <c r="E223" s="1" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G223" s="1" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="224" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D224"/>
       <c r="E224" s="1" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G224" s="1" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="225" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="C225" s="1">
         <v>-5</v>
       </c>
       <c r="D225"/>
       <c r="E225" s="1" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G225" s="1" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="226" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C226" s="1">
         <v>-3</v>
       </c>
       <c r="D226"/>
       <c r="E226" s="1" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G226" s="1" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="227" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C227" s="1">
         <v>-1.9</v>
       </c>
       <c r="D227" s="1" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="E227" s="1" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G227" s="1" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="228" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C228" s="1">
         <v>-4</v>
       </c>
       <c r="E228" s="1" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G228" s="1" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="229" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="C229" s="1">
         <v>-3.2</v>
       </c>
       <c r="D229" s="1" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="E229" s="1">
         <v>11379025</v>
@@ -7831,44 +7843,44 @@
         <v>3</v>
       </c>
       <c r="G229" s="1" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="230" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C230" s="1">
         <v>-3.3</v>
       </c>
       <c r="D230" s="1" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="E230" s="1" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G230" s="1" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="231" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C231" s="1">
         <v>-3.1</v>
       </c>
       <c r="D231" s="1" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="E231" s="1">
         <v>2643004</v>
@@ -7877,76 +7889,76 @@
         <v>3</v>
       </c>
       <c r="G231" s="1" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="232" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C232" s="1">
         <v>-3.4</v>
       </c>
       <c r="E232" s="1" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G232" s="1" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="233" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C233" s="1">
         <v>-2.5</v>
       </c>
       <c r="D233"/>
       <c r="E233" s="1" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G233" s="1" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C234" s="1">
         <v>-3.6</v>
       </c>
       <c r="D234" s="1" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="E234" s="1" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="235" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>6</v>
@@ -7955,18 +7967,18 @@
         <v>-3.3</v>
       </c>
       <c r="E235" s="1" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G235" s="1" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="236" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>6</v>
@@ -7976,39 +7988,39 @@
       </c>
       <c r="D236"/>
       <c r="E236" s="1" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G236" s="1" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="237" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="C237" s="1">
         <v>-5</v>
       </c>
       <c r="D237"/>
       <c r="E237" s="1" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G237" s="1" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="238" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>23</v>
@@ -8017,7 +8029,7 @@
         <v>-3.6</v>
       </c>
       <c r="D238" s="1" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="E238" s="1">
         <v>7653660</v>
@@ -8026,21 +8038,21 @@
         <v>3</v>
       </c>
       <c r="G238" s="1" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="239" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="C239" s="1">
         <v>-4.9000000000000004</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E239" s="1">
         <v>4661188</v>
@@ -8049,21 +8061,21 @@
         <v>3</v>
       </c>
       <c r="G239" s="1" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="240" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="E240" s="1">
         <v>3104974</v>
@@ -8072,12 +8084,12 @@
         <v>3</v>
       </c>
       <c r="G240" s="1" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="241" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>23</v>
@@ -8086,7 +8098,7 @@
         <v>-2.4</v>
       </c>
       <c r="D241" s="1" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="E241" s="1">
         <v>4146820</v>
@@ -8095,12 +8107,12 @@
         <v>3</v>
       </c>
       <c r="G241" s="1" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
     </row>
     <row r="242" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>1</v>
@@ -8109,27 +8121,27 @@
         <v>-5</v>
       </c>
       <c r="E242" s="1" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G242" s="1" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
     </row>
     <row r="243" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C243" s="1">
         <v>-4.0999999999999996</v>
       </c>
       <c r="D243" s="1" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="E243" s="1">
         <v>549690</v>
@@ -8138,21 +8150,21 @@
         <v>3</v>
       </c>
       <c r="G243" s="1" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="244" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C244" s="1">
         <v>-3.2</v>
       </c>
       <c r="D244" s="1" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="E244" s="1">
         <v>1713124</v>
@@ -8161,21 +8173,21 @@
         <v>3</v>
       </c>
       <c r="G244" s="1" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="245" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="C245" s="1">
         <v>-4.7</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="E245" s="1">
         <v>2558509</v>
@@ -8184,21 +8196,21 @@
         <v>3</v>
       </c>
       <c r="G245" s="1" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="246" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C246" s="1">
         <v>-1.4</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="E246" s="1">
         <v>6952311</v>
@@ -8207,12 +8219,12 @@
         <v>3</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="247" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>6</v>
@@ -8221,7 +8233,7 @@
         <v>-4</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E247" s="1">
         <v>159752</v>
@@ -8230,21 +8242,21 @@
         <v>3</v>
       </c>
       <c r="G247" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="248" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C248" s="1">
         <v>-4.5</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E248" s="1">
         <v>2943300</v>
@@ -8253,41 +8265,41 @@
         <v>3</v>
       </c>
       <c r="G248" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="249" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C249" s="1">
         <v>-1.3</v>
       </c>
       <c r="E249" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="250" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C250" s="1">
         <v>-4.2</v>
       </c>
       <c r="D250" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E250" s="1">
         <v>2839202</v>
@@ -8296,62 +8308,62 @@
         <v>3</v>
       </c>
       <c r="G250" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="251" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G251" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="B251" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E251" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F251" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G251" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="252" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C252" s="1">
         <v>-2.5</v>
       </c>
       <c r="D252"/>
       <c r="E252" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G252" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="253" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C253" s="1">
         <v>-2.5</v>
       </c>
       <c r="D253" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E253" s="1">
         <v>5660032</v>
@@ -8360,12 +8372,12 @@
         <v>3</v>
       </c>
       <c r="G253" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="254" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>1</v>
@@ -8374,18 +8386,18 @@
         <v>-4.2</v>
       </c>
       <c r="E254" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G254" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="255" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>23</v>
@@ -8394,7 +8406,7 @@
         <v>-4.7</v>
       </c>
       <c r="D255" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E255" s="1">
         <v>1536428</v>
@@ -8403,21 +8415,21 @@
         <v>3</v>
       </c>
       <c r="G255" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="256" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C256" s="1">
         <v>-4</v>
       </c>
       <c r="D256" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E256" s="1">
         <v>5713749</v>
@@ -8426,12 +8438,12 @@
         <v>3</v>
       </c>
       <c r="G256" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="257" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>6</v>
@@ -8440,7 +8452,7 @@
         <v>-4</v>
       </c>
       <c r="D257" s="1" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="E257" s="1">
         <v>159752</v>
@@ -8449,21 +8461,21 @@
         <v>3</v>
       </c>
       <c r="G257" s="1" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="258" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C258" s="1">
         <v>-4.5</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="E258" s="1">
         <v>2943300</v>
@@ -8472,41 +8484,41 @@
         <v>3</v>
       </c>
       <c r="G258" s="1" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="259" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C259" s="1">
         <v>-1.3</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G259" s="1" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="260" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="C260" s="1">
         <v>-4.2</v>
       </c>
       <c r="D260" s="1" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E260" s="1">
         <v>2839202</v>
@@ -8515,62 +8527,62 @@
         <v>3</v>
       </c>
       <c r="G260" s="1" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="261" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>800</v>
+      </c>
+      <c r="C261" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E261" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G261" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>803</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E261" s="1" t="s">
-        <v>804</v>
-      </c>
-      <c r="F261" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G261" s="1" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="262" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C262" s="1">
         <v>-2.5</v>
       </c>
       <c r="D262"/>
       <c r="E262" s="1" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="263" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="C263" s="1">
         <v>-2.5</v>
       </c>
       <c r="D263" s="1" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="E263" s="1">
         <v>5660032</v>
@@ -8579,12 +8591,12 @@
         <v>3</v>
       </c>
       <c r="G263" s="1" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="264" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>1</v>
@@ -8593,18 +8605,18 @@
         <v>-4.2</v>
       </c>
       <c r="E264" s="1" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G264" s="1" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="265" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>23</v>
@@ -8613,7 +8625,7 @@
         <v>-4.7</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="E265" s="1">
         <v>1536428</v>
@@ -8622,21 +8634,21 @@
         <v>3</v>
       </c>
       <c r="G265" s="1" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="266" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C266" s="1">
         <v>-4</v>
       </c>
       <c r="D266" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E266" s="1">
         <v>5713749</v>
@@ -8645,21 +8657,21 @@
         <v>3</v>
       </c>
       <c r="G266" s="1" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="267" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="C267" s="1">
         <v>-4</v>
       </c>
       <c r="D267" s="1" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="E267" s="1">
         <v>5713749</v>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D3F6DC6-297E-401B-B15A-7805358F5D95}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71606E81-C214-46D0-B093-21C6709057B8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$267</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2925,7 +2928,7 @@
   <dimension ref="A1:G267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A268" sqref="A268:XFD268"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8657,6 +8660,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G267" xr:uid="{7E3D35A5-D059-4ACF-842D-672F158C38D5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{71606E81-C214-46D0-B093-21C6709057B8}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390F546C-F969-4DD2-96A4-D50F22299673}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ireland" sheetId="2" r:id="rId1"/>
+    <sheet name="United Kingdom" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'United Kingdom'!$A$1:$G$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1034">
   <si>
     <t>Name</t>
   </si>
@@ -2571,6 +2572,582 @@
   </si>
   <si>
     <t>39 CORNHILL, EC3V 3NU, London, United Kingdom</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Customer Rating</t>
+  </si>
+  <si>
+    <t>Aareal Bank AG</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14902</t>
+  </si>
+  <si>
+    <t>structured property financing</t>
+  </si>
+  <si>
+    <t>Allied Irish Banks, Plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14893</t>
+  </si>
+  <si>
+    <t> (2.0)</t>
+  </si>
+  <si>
+    <t>110.41 bln EUR  (+12.02%)</t>
+  </si>
+  <si>
+    <t>Bank Julius Baer Europe S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18962</t>
+  </si>
+  <si>
+    <t>private banking, family office</t>
+  </si>
+  <si>
+    <t> (5.0)</t>
+  </si>
+  <si>
+    <t>Bank of America Europe DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15191</t>
+  </si>
+  <si>
+    <t> (4.8)</t>
+  </si>
+  <si>
+    <t>66,278.00 mln EUR  (+12.36%)</t>
+  </si>
+  <si>
+    <t>Bank of Montreal Europe PLC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14956</t>
+  </si>
+  <si>
+    <t>Barclays Bank Ireland plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14959</t>
+  </si>
+  <si>
+    <t>134.94 bln EUR  (+95.43%)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14894</t>
+  </si>
+  <si>
+    <t>BNP Paribas SA</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14923</t>
+  </si>
+  <si>
+    <t>BNY Mellon SA/NV Dublin Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18341</t>
+  </si>
+  <si>
+    <t>Caisse Francaise de Financement Local (CFFL)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15051</t>
+  </si>
+  <si>
+    <t>public sector covered bonds</t>
+  </si>
+  <si>
+    <t>Central Bank of Ireland</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14891</t>
+  </si>
+  <si>
+    <t>Citco Bank Nederland NV Dublin Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15010</t>
+  </si>
+  <si>
+    <t>hedge fund management</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15011</t>
+  </si>
+  <si>
+    <t> (4.3)</t>
+  </si>
+  <si>
+    <t>Coöperatieve Rabobank U.A</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15244</t>
+  </si>
+  <si>
+    <t>Crédit Suisse (Luxembourg) SA</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18890</t>
+  </si>
+  <si>
+    <t>Credit Suisse AG - Dublin Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18654</t>
+  </si>
+  <si>
+    <t>Danske Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15044</t>
+  </si>
+  <si>
+    <t> (4.4)</t>
+  </si>
+  <si>
+    <t>Dell Bank International DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/17796</t>
+  </si>
+  <si>
+    <t>financing for Dell customers</t>
+  </si>
+  <si>
+    <t>Depfa ACS Bank DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15045</t>
+  </si>
+  <si>
+    <t>asset covered securities</t>
+  </si>
+  <si>
+    <t>DePfa Bank plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15046</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15049</t>
+  </si>
+  <si>
+    <t>Dexia Crédit Local</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15050</t>
+  </si>
+  <si>
+    <t>managing residual assets</t>
+  </si>
+  <si>
+    <t>EBS DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15076</t>
+  </si>
+  <si>
+    <t>housing financing</t>
+  </si>
+  <si>
+    <t> (2.7)</t>
+  </si>
+  <si>
+    <t>12,019.00 mln EUR  (+1.06%)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15081</t>
+  </si>
+  <si>
+    <t> (3.6)</t>
+  </si>
+  <si>
+    <t>European Depositary Bank S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19034</t>
+  </si>
+  <si>
+    <t>depository banking</t>
+  </si>
+  <si>
+    <t>Fca Bank S.p.a.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18782</t>
+  </si>
+  <si>
+    <t>vehicle financing for Fiat and Chrysler brands</t>
+  </si>
+  <si>
+    <t>Goldman Sachs Bank Europe SE</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18970</t>
+  </si>
+  <si>
+    <t>Helaba Dublin Landesbank Hessen-Thüringen International</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15121</t>
+  </si>
+  <si>
+    <t>Hewlett-Packard International Bank DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15122</t>
+  </si>
+  <si>
+    <t>financing for HP customers</t>
+  </si>
+  <si>
+    <t>HSBC Continental Europe</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18989</t>
+  </si>
+  <si>
+    <t> (3.3)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15116</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15126</t>
+  </si>
+  <si>
+    <t> (3.0)</t>
+  </si>
+  <si>
+    <t>Intesa Sanpaolo Bank Ireland plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15131</t>
+  </si>
+  <si>
+    <t>Irish Bank Resolution Corporation Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15133</t>
+  </si>
+  <si>
+    <t>winding down residual mortgage portfolio</t>
+  </si>
+  <si>
+    <t>J. P. Morgan Bank Dublin plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15136</t>
+  </si>
+  <si>
+    <t>J.P. Morgan Bank Luxembourg S.A., Dublin branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18961</t>
+  </si>
+  <si>
+    <t>JP Morgan Bank (Ireland) plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15137</t>
+  </si>
+  <si>
+    <t>KBC Bank Ireland plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15140</t>
+  </si>
+  <si>
+    <t> (2.2)</t>
+  </si>
+  <si>
+    <t>KBC Bank NV Dublin Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15141</t>
+  </si>
+  <si>
+    <t>syndicated loans</t>
+  </si>
+  <si>
+    <t>LGT Bank AG</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18769</t>
+  </si>
+  <si>
+    <t>Macquarie Bank Europe DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19147</t>
+  </si>
+  <si>
+    <t>Marks &amp; Spencer Financial Services Plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15184</t>
+  </si>
+  <si>
+    <t>Mitsubishi UFJ Investor Services and Banking (Luxembourg) S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18340</t>
+  </si>
+  <si>
+    <t>Nationwide Building Society</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15216</t>
+  </si>
+  <si>
+    <t>savings accounts</t>
+  </si>
+  <si>
+    <t>permanent tsb plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15360</t>
+  </si>
+  <si>
+    <t>21,041.00 mln EUR  (+3.76%)</t>
+  </si>
+  <si>
+    <t>RCI Banque</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15242</t>
+  </si>
+  <si>
+    <t>vehicle financing for Renault brands</t>
+  </si>
+  <si>
+    <t>Scotiabank (Ireland) DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15266</t>
+  </si>
+  <si>
+    <t> (1.8)</t>
+  </si>
+  <si>
+    <t>SMBC Bank EU AG</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19037</t>
+  </si>
+  <si>
+    <t>Sparkasse Bank Malta plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18898</t>
+  </si>
+  <si>
+    <t>private banking, securities services</t>
+  </si>
+  <si>
+    <t>Bank of Ireland</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/14897</t>
+  </si>
+  <si>
+    <t> (3.2)</t>
+  </si>
+  <si>
+    <t>133.75 bln EUR  (+1.42%)</t>
+  </si>
+  <si>
+    <t>Ulster Bank Ireland DAC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15346</t>
+  </si>
+  <si>
+    <t> (1.6)</t>
+  </si>
+  <si>
+    <t>31,205.00 mln EUR  (-4.75%)</t>
+  </si>
+  <si>
+    <t>UniCredit Bank Ireland plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15347</t>
+  </si>
+  <si>
+    <t>Wells Fargo Bank International Unlimited Company</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/15354</t>
+  </si>
+  <si>
+    <t>MFI</t>
+  </si>
+  <si>
+    <t>IEBAUBOD</t>
+  </si>
+  <si>
+    <t>IEAIBPLC</t>
+  </si>
+  <si>
+    <t>IEC39023</t>
+  </si>
+  <si>
+    <t>IEMLCMBX</t>
+  </si>
+  <si>
+    <t>IEBMIXXX</t>
+  </si>
+  <si>
+    <t>IEC36964</t>
+  </si>
+  <si>
+    <t>IEBARCLS</t>
+  </si>
+  <si>
+    <t>IEBNP-SA</t>
+  </si>
+  <si>
+    <t>IEC53859</t>
+  </si>
+  <si>
+    <t>IEC16937</t>
+  </si>
+  <si>
+    <t>IENCB</t>
+  </si>
+  <si>
+    <t>IECITCOX</t>
+  </si>
+  <si>
+    <t>IECITIFS</t>
+  </si>
+  <si>
+    <t>IERABNED</t>
+  </si>
+  <si>
+    <t>IEC27184</t>
+  </si>
+  <si>
+    <t>IEC135770</t>
+  </si>
+  <si>
+    <t>IEC27398</t>
+  </si>
+  <si>
+    <t>IEC92019</t>
+  </si>
+  <si>
+    <t>IEC27986</t>
+  </si>
+  <si>
+    <t>IEDEPBNK</t>
+  </si>
+  <si>
+    <t>IEC20120</t>
+  </si>
+  <si>
+    <t>IECRDLOC</t>
+  </si>
+  <si>
+    <t>IEEBS-BS</t>
+  </si>
+  <si>
+    <t>IEC43558</t>
+  </si>
+  <si>
+    <t>IEC189472</t>
+  </si>
+  <si>
+    <t>IEC164814</t>
+  </si>
+  <si>
+    <t>IEC27326</t>
+  </si>
+  <si>
+    <t>IEHELABA</t>
+  </si>
+  <si>
+    <t>IEHPBANK</t>
+  </si>
+  <si>
+    <t>IEC16958</t>
+  </si>
+  <si>
+    <t>IEC27196</t>
+  </si>
+  <si>
+    <t>IEINGBNK</t>
+  </si>
+  <si>
+    <t>IESPBANK</t>
+  </si>
+  <si>
+    <t>IEANGLOI</t>
+  </si>
+  <si>
+    <t>IEBEARST</t>
+  </si>
+  <si>
+    <t>IEC187796</t>
+  </si>
+  <si>
+    <t>IECHASEI</t>
+  </si>
+  <si>
+    <t>IEIIBXXX</t>
+  </si>
+  <si>
+    <t>IEKREDBK</t>
+  </si>
+  <si>
+    <t>IEC29202</t>
+  </si>
+  <si>
+    <t>IECBI00402325</t>
+  </si>
+  <si>
+    <t>IEMRKSPN</t>
+  </si>
+  <si>
+    <t>IEC131154</t>
+  </si>
+  <si>
+    <t>IEC16821</t>
+  </si>
+  <si>
+    <t>IEIRPERM</t>
+  </si>
+  <si>
+    <t>IEC72207</t>
+  </si>
+  <si>
+    <t>IESCOTIA</t>
+  </si>
+  <si>
+    <t>IEC187776</t>
+  </si>
+  <si>
+    <t>IEC178646</t>
+  </si>
+  <si>
+    <t>IEBKIREL</t>
+  </si>
+  <si>
+    <t>IEUIBXXX</t>
+  </si>
+  <si>
+    <t>IECRDITL</t>
+  </si>
+  <si>
+    <t>IEC44686</t>
   </si>
 </sst>
 </file>
@@ -2924,10 +3501,1106 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0A628-0A6D-43FF-B4E0-5E18D0F86A8C}">
+  <dimension ref="A1:F54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>843</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C2" t="s">
+        <v>846</v>
+      </c>
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>847</v>
+      </c>
+      <c r="B3" t="s">
+        <v>848</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D3" t="s">
+        <v>849</v>
+      </c>
+      <c r="E3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>851</v>
+      </c>
+      <c r="B4" t="s">
+        <v>852</v>
+      </c>
+      <c r="C4" t="s">
+        <v>853</v>
+      </c>
+      <c r="D4" t="s">
+        <v>854</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>855</v>
+      </c>
+      <c r="B5" t="s">
+        <v>856</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E5" t="s">
+        <v>858</v>
+      </c>
+      <c r="F5" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>860</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B7" t="s">
+        <v>862</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F7" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>864</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>865</v>
+      </c>
+      <c r="B9" t="s">
+        <v>866</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>857</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>867</v>
+      </c>
+      <c r="B10" t="s">
+        <v>868</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>849</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>869</v>
+      </c>
+      <c r="B11" t="s">
+        <v>870</v>
+      </c>
+      <c r="C11" t="s">
+        <v>871</v>
+      </c>
+      <c r="D11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>872</v>
+      </c>
+      <c r="B12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C12" t="s">
+        <v>726</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>874</v>
+      </c>
+      <c r="B13" t="s">
+        <v>875</v>
+      </c>
+      <c r="C13" t="s">
+        <v>876</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>242</v>
+      </c>
+      <c r="B14" t="s">
+        <v>877</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>878</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>879</v>
+      </c>
+      <c r="B15" t="s">
+        <v>880</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>881</v>
+      </c>
+      <c r="B16" t="s">
+        <v>882</v>
+      </c>
+      <c r="C16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>883</v>
+      </c>
+      <c r="B17" t="s">
+        <v>884</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>885</v>
+      </c>
+      <c r="B18" t="s">
+        <v>886</v>
+      </c>
+      <c r="C18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>887</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>888</v>
+      </c>
+      <c r="B19" t="s">
+        <v>889</v>
+      </c>
+      <c r="C19" t="s">
+        <v>890</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>891</v>
+      </c>
+      <c r="B20" t="s">
+        <v>892</v>
+      </c>
+      <c r="C20" t="s">
+        <v>893</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>894</v>
+      </c>
+      <c r="B21" t="s">
+        <v>895</v>
+      </c>
+      <c r="C21" t="s">
+        <v>893</v>
+      </c>
+      <c r="D21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" t="s">
+        <v>896</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
+        <v>887</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>897</v>
+      </c>
+      <c r="B23" t="s">
+        <v>898</v>
+      </c>
+      <c r="C23" t="s">
+        <v>899</v>
+      </c>
+      <c r="D23" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>900</v>
+      </c>
+      <c r="B24" t="s">
+        <v>901</v>
+      </c>
+      <c r="C24" t="s">
+        <v>902</v>
+      </c>
+      <c r="D24" t="s">
+        <v>903</v>
+      </c>
+      <c r="E24" t="s">
+        <v>904</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>905</v>
+      </c>
+      <c r="C25" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" t="s">
+        <v>906</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>907</v>
+      </c>
+      <c r="B26" t="s">
+        <v>908</v>
+      </c>
+      <c r="C26" t="s">
+        <v>909</v>
+      </c>
+      <c r="D26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>910</v>
+      </c>
+      <c r="B27" t="s">
+        <v>911</v>
+      </c>
+      <c r="C27" t="s">
+        <v>912</v>
+      </c>
+      <c r="D27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>913</v>
+      </c>
+      <c r="B28" t="s">
+        <v>914</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>915</v>
+      </c>
+      <c r="B29" t="s">
+        <v>916</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>917</v>
+      </c>
+      <c r="B30" t="s">
+        <v>918</v>
+      </c>
+      <c r="C30" t="s">
+        <v>919</v>
+      </c>
+      <c r="D30" t="s">
+        <v>49</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>920</v>
+      </c>
+      <c r="B31" t="s">
+        <v>921</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>922</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>391</v>
+      </c>
+      <c r="B32" t="s">
+        <v>923</v>
+      </c>
+      <c r="C32" t="s">
+        <v>161</v>
+      </c>
+      <c r="D32" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>418</v>
+      </c>
+      <c r="B33" t="s">
+        <v>924</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>925</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>926</v>
+      </c>
+      <c r="B34" t="s">
+        <v>927</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>928</v>
+      </c>
+      <c r="B35" t="s">
+        <v>929</v>
+      </c>
+      <c r="C35" t="s">
+        <v>930</v>
+      </c>
+      <c r="D35" t="s">
+        <v>49</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>931</v>
+      </c>
+      <c r="B36" t="s">
+        <v>932</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>933</v>
+      </c>
+      <c r="B37" t="s">
+        <v>934</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>935</v>
+      </c>
+      <c r="B38" t="s">
+        <v>936</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>937</v>
+      </c>
+      <c r="B39" t="s">
+        <v>938</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+      <c r="D39" t="s">
+        <v>939</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>940</v>
+      </c>
+      <c r="B40" t="s">
+        <v>941</v>
+      </c>
+      <c r="C40" t="s">
+        <v>942</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>943</v>
+      </c>
+      <c r="B41" t="s">
+        <v>944</v>
+      </c>
+      <c r="C41" t="s">
+        <v>779</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>945</v>
+      </c>
+      <c r="B42" t="s">
+        <v>946</v>
+      </c>
+      <c r="C42" t="s">
+        <v>475</v>
+      </c>
+      <c r="D42" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>947</v>
+      </c>
+      <c r="B43" t="s">
+        <v>948</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>949</v>
+      </c>
+      <c r="B44" t="s">
+        <v>950</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
+        <v>49</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>951</v>
+      </c>
+      <c r="B45" t="s">
+        <v>952</v>
+      </c>
+      <c r="C45" t="s">
+        <v>953</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>954</v>
+      </c>
+      <c r="B46" t="s">
+        <v>955</v>
+      </c>
+      <c r="C46" t="s">
+        <v>85</v>
+      </c>
+      <c r="D46" t="s">
+        <v>849</v>
+      </c>
+      <c r="E46" t="s">
+        <v>956</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>957</v>
+      </c>
+      <c r="B47" t="s">
+        <v>958</v>
+      </c>
+      <c r="C47" t="s">
+        <v>959</v>
+      </c>
+      <c r="D47" t="s">
+        <v>49</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>960</v>
+      </c>
+      <c r="B48" t="s">
+        <v>961</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" t="s">
+        <v>962</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>963</v>
+      </c>
+      <c r="B49" t="s">
+        <v>964</v>
+      </c>
+      <c r="C49" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" t="s">
+        <v>49</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>965</v>
+      </c>
+      <c r="B50" t="s">
+        <v>966</v>
+      </c>
+      <c r="C50" t="s">
+        <v>967</v>
+      </c>
+      <c r="D50" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>968</v>
+      </c>
+      <c r="B51" t="s">
+        <v>969</v>
+      </c>
+      <c r="C51" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" t="s">
+        <v>970</v>
+      </c>
+      <c r="E51" t="s">
+        <v>971</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>972</v>
+      </c>
+      <c r="B52" t="s">
+        <v>973</v>
+      </c>
+      <c r="C52" t="s">
+        <v>61</v>
+      </c>
+      <c r="D52" t="s">
+        <v>974</v>
+      </c>
+      <c r="E52" t="s">
+        <v>975</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>976</v>
+      </c>
+      <c r="B53" t="s">
+        <v>977</v>
+      </c>
+      <c r="C53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" t="s">
+        <v>857</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>978</v>
+      </c>
+      <c r="B54" t="s">
+        <v>979</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" t="s">
+        <v>854</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D35A5-D059-4ACF-842D-672F158C38D5}">
   <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{390F546C-F969-4DD2-96A4-D50F22299673}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072838D9-3954-40EE-9951-E683DC682253}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ireland" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1084">
   <si>
     <t>Name</t>
   </si>
@@ -3148,6 +3148,156 @@
   </si>
   <si>
     <t>IEC44686</t>
+  </si>
+  <si>
+    <t>Website URL</t>
+  </si>
+  <si>
+    <t>https://www.aareal-bank.com › ...</t>
+  </si>
+  <si>
+    <t>https://aib.ie</t>
+  </si>
+  <si>
+    <t>https://www.juliusbaer.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com › profile › company</t>
+  </si>
+  <si>
+    <t>https://www.barclayscorporate.com › europe › ireland</t>
+  </si>
+  <si>
+    <t>https://www.barclays.co.uk</t>
+  </si>
+  <si>
+    <t>https://group.bnpparibas › ...</t>
+  </si>
+  <si>
+    <t>https://www.bnymellon.com › ...</t>
+  </si>
+  <si>
+    <t>https://caissefrancaisedefinancementlocal.fr › ...</t>
+  </si>
+  <si>
+    <t>http://www.centralbank.ie</t>
+  </si>
+  <si>
+    <t>https://www.citco.com › global-reach › europe</t>
+  </si>
+  <si>
+    <t>https://www.citigroup.com › countries-and-jurisdictions</t>
+  </si>
+  <si>
+    <t>https://www.rabobank.com › about-rabobank › coopera...</t>
+  </si>
+  <si>
+    <t>https://www.credit-suisse.com › ...</t>
+  </si>
+  <si>
+    <t>https://danskebank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.dell.com › learn › iebsdr2 › learn_docs › d...</t>
+  </si>
+  <si>
+    <t>https://www.depfa.com › acs-bank-dac</t>
+  </si>
+  <si>
+    <t>https://www.depfa.com</t>
+  </si>
+  <si>
+    <t>https://m.db.com</t>
+  </si>
+  <si>
+    <t>https://www.dexia.com › node</t>
+  </si>
+  <si>
+    <t>https://www.ebs.ie</t>
+  </si>
+  <si>
+    <t>https://www.elavonpayment.com › europe</t>
+  </si>
+  <si>
+    <t>https://www.europeandepositarybank.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.fcabankgroup.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com › disclosures › gsbank-...</t>
+  </si>
+  <si>
+    <t>https://www.helaba.com › int › about-us › locations</t>
+  </si>
+  <si>
+    <t>https://www.hsbc.fr › en-fr › a-vos-cotes › hsbc-france-...</t>
+  </si>
+  <si>
+    <t>https://www.privatebanking.hsbc.com › about-us › hsbc...</t>
+  </si>
+  <si>
+    <t>https://www.ing.com</t>
+  </si>
+  <si>
+    <t>http://www.intesasanpaolobankireland.ie</t>
+  </si>
+  <si>
+    <t>http://www.angloirishbank.com</t>
+  </si>
+  <si>
+    <t>https://www.jpmorgan.com › IE › about-us</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu › ... › Banks by Country › Ireland</t>
+  </si>
+  <si>
+    <t>https://www.jpmorgan.com › about-us</t>
+  </si>
+  <si>
+    <t>https://www.kbc.ie</t>
+  </si>
+  <si>
+    <t>https://www.lgt.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.macquarie.com › about › disclosures</t>
+  </si>
+  <si>
+    <t>https://bank.marksandspencer.com › legal-information</t>
+  </si>
+  <si>
+    <t>http://www.lu.tr.mufg.jp</t>
+  </si>
+  <si>
+    <t>https://www.nationwide.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.permanenttsb.ie</t>
+  </si>
+  <si>
+    <t>https://www.rcibs.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.scotiabank.com › global › country › ireland</t>
+  </si>
+  <si>
+    <t>https://www.smbcgroup.com › emea › group-companies</t>
+  </si>
+  <si>
+    <t>https://www.sparkasse-bank-malta.com</t>
+  </si>
+  <si>
+    <t>https://www.bankofireland.com</t>
+  </si>
+  <si>
+    <t>https://digital.ulsterbank.co.uk › globals › about-us</t>
+  </si>
+  <si>
+    <t>https://unicreditbank.ie</t>
+  </si>
+  <si>
+    <t>https://find-and-update.company-information.service.gov.uk › ...</t>
   </si>
 </sst>
 </file>
@@ -3502,7 +3652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0A628-0A6D-43FF-B4E0-5E18D0F86A8C}">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3511,7 +3661,7 @@
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3530,8 +3680,11 @@
       <c r="F1" t="s">
         <v>980</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>844</v>
       </c>
@@ -3550,8 +3703,11 @@
       <c r="F2" t="s">
         <v>981</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>847</v>
       </c>
@@ -3570,8 +3726,11 @@
       <c r="F3" t="s">
         <v>982</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>851</v>
       </c>
@@ -3590,8 +3749,11 @@
       <c r="F4" t="s">
         <v>983</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>855</v>
       </c>
@@ -3610,8 +3772,11 @@
       <c r="F5" t="s">
         <v>984</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>859</v>
       </c>
@@ -3630,8 +3795,11 @@
       <c r="F6" t="s">
         <v>985</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>861</v>
       </c>
@@ -3650,8 +3818,11 @@
       <c r="F7" t="s">
         <v>986</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>168</v>
       </c>
@@ -3670,8 +3841,11 @@
       <c r="F8" t="s">
         <v>987</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>865</v>
       </c>
@@ -3690,8 +3864,11 @@
       <c r="F9" t="s">
         <v>988</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>867</v>
       </c>
@@ -3710,8 +3887,11 @@
       <c r="F10" t="s">
         <v>989</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>869</v>
       </c>
@@ -3730,8 +3910,11 @@
       <c r="F11" t="s">
         <v>990</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>872</v>
       </c>
@@ -3750,8 +3933,11 @@
       <c r="F12" t="s">
         <v>991</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>874</v>
       </c>
@@ -3770,8 +3956,11 @@
       <c r="F13" t="s">
         <v>992</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -3790,8 +3979,11 @@
       <c r="F14" t="s">
         <v>993</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>879</v>
       </c>
@@ -3810,8 +4002,11 @@
       <c r="F15" t="s">
         <v>994</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>881</v>
       </c>
@@ -3830,8 +4025,11 @@
       <c r="F16" t="s">
         <v>995</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>883</v>
       </c>
@@ -3850,8 +4048,11 @@
       <c r="F17" t="s">
         <v>996</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>885</v>
       </c>
@@ -3870,8 +4071,11 @@
       <c r="F18" t="s">
         <v>997</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>888</v>
       </c>
@@ -3890,8 +4094,11 @@
       <c r="F19" t="s">
         <v>998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>891</v>
       </c>
@@ -3910,8 +4117,11 @@
       <c r="F20" t="s">
         <v>999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>894</v>
       </c>
@@ -3930,8 +4140,11 @@
       <c r="F21" t="s">
         <v>1000</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>293</v>
       </c>
@@ -3950,8 +4163,11 @@
       <c r="F22" t="s">
         <v>1001</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>897</v>
       </c>
@@ -3970,8 +4186,11 @@
       <c r="F23" t="s">
         <v>1002</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>900</v>
       </c>
@@ -3990,8 +4209,11 @@
       <c r="F24" t="s">
         <v>1003</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>306</v>
       </c>
@@ -4010,8 +4232,11 @@
       <c r="F25" t="s">
         <v>1004</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>907</v>
       </c>
@@ -4030,8 +4255,11 @@
       <c r="F26" t="s">
         <v>1005</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>910</v>
       </c>
@@ -4050,8 +4278,11 @@
       <c r="F27" t="s">
         <v>1006</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>913</v>
       </c>
@@ -4070,8 +4301,11 @@
       <c r="F28" t="s">
         <v>1007</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>915</v>
       </c>
@@ -4090,8 +4324,11 @@
       <c r="F29" t="s">
         <v>1008</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>917</v>
       </c>
@@ -4110,8 +4347,11 @@
       <c r="F30" t="s">
         <v>1009</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>920</v>
       </c>
@@ -4130,8 +4370,11 @@
       <c r="F31" t="s">
         <v>1010</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>391</v>
       </c>
@@ -4150,8 +4393,11 @@
       <c r="F32" t="s">
         <v>1011</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>418</v>
       </c>
@@ -4170,8 +4416,11 @@
       <c r="F33" t="s">
         <v>1012</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>926</v>
       </c>
@@ -4190,8 +4439,11 @@
       <c r="F34" t="s">
         <v>1013</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>928</v>
       </c>
@@ -4210,8 +4462,11 @@
       <c r="F35" t="s">
         <v>1014</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>931</v>
       </c>
@@ -4230,8 +4485,11 @@
       <c r="F36" t="s">
         <v>1015</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>933</v>
       </c>
@@ -4250,8 +4508,11 @@
       <c r="F37" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>935</v>
       </c>
@@ -4270,8 +4531,11 @@
       <c r="F38" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>937</v>
       </c>
@@ -4290,8 +4554,11 @@
       <c r="F39" t="s">
         <v>1018</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>940</v>
       </c>
@@ -4310,8 +4577,11 @@
       <c r="F40" t="s">
         <v>1019</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>943</v>
       </c>
@@ -4330,8 +4600,11 @@
       <c r="F41" t="s">
         <v>1020</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>945</v>
       </c>
@@ -4350,8 +4623,11 @@
       <c r="F42" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>947</v>
       </c>
@@ -4370,8 +4646,11 @@
       <c r="F43" t="s">
         <v>1022</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>949</v>
       </c>
@@ -4390,8 +4669,11 @@
       <c r="F44" t="s">
         <v>1023</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>951</v>
       </c>
@@ -4410,8 +4692,11 @@
       <c r="F45" t="s">
         <v>1024</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>954</v>
       </c>
@@ -4430,8 +4715,11 @@
       <c r="F46" t="s">
         <v>1025</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>957</v>
       </c>
@@ -4450,8 +4738,11 @@
       <c r="F47" t="s">
         <v>1026</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>960</v>
       </c>
@@ -4470,8 +4761,11 @@
       <c r="F48" t="s">
         <v>1027</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>963</v>
       </c>
@@ -4490,8 +4784,11 @@
       <c r="F49" t="s">
         <v>1028</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>965</v>
       </c>
@@ -4510,8 +4807,11 @@
       <c r="F50" t="s">
         <v>1029</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>968</v>
       </c>
@@ -4530,8 +4830,11 @@
       <c r="F51" t="s">
         <v>1030</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G51" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>972</v>
       </c>
@@ -4550,8 +4853,11 @@
       <c r="F52" t="s">
         <v>1031</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G52" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>976</v>
       </c>
@@ -4570,8 +4876,11 @@
       <c r="F53" t="s">
         <v>1032</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G53" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>978</v>
       </c>
@@ -4589,6 +4898,9 @@
       </c>
       <c r="F54" t="s">
         <v>1033</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1083</v>
       </c>
     </row>
   </sheetData>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{072838D9-3954-40EE-9951-E683DC682253}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4E6783-1AD8-42D2-8A36-53562B5FF3E1}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11775" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
     <sheet name="Ireland" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1776" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1320">
   <si>
     <t>Name</t>
   </si>
@@ -3298,6 +3298,714 @@
   </si>
   <si>
     <t>https://find-and-update.company-information.service.gov.uk › ...</t>
+  </si>
+  <si>
+    <t>https://www.bank-abc.com › europe › London › Pages</t>
+  </si>
+  <si>
+    <t>https://www.abnamro.com</t>
+  </si>
+  <si>
+    <t>http://www.uk.abchina.com</t>
+  </si>
+  <si>
+    <t>https://aibgb.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.alrayanbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.aldermore.co.uk</t>
+  </si>
+  <si>
+    <t>https://alphabanklondon.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bank-abc.com</t>
+  </si>
+  <si>
+    <t>http://www.anb.com.sa</t>
+  </si>
+  <si>
+    <t>https://www.arbuthnotlatham.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.lhv.ee › ...</t>
+  </si>
+  <si>
+    <t>https://www.atombank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.anz.com.au › about-us</t>
+  </si>
+  <si>
+    <t>https://www.axisbankuk.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bbva.com</t>
+  </si>
+  <si>
+    <t>https://www.bradescoeuropa.eu › Ab...</t>
+  </si>
+  <si>
+    <t>https://www.bancsabadell.com › SabAtl › Particulares</t>
+  </si>
+  <si>
+    <t>https://www.bb.com.br</t>
+  </si>
+  <si>
+    <t>https://www.santander.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.bangkokbank.com › ...</t>
+  </si>
+  <si>
+    <t>https://bankandclients.com</t>
+  </si>
+  <si>
+    <t>https://www.bankleumi.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.bkmandiri.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bofaml.com › dam › documents › articles</t>
+  </si>
+  <si>
+    <t>https://www.bankofamerica.com</t>
+  </si>
+  <si>
+    <t>https://www.bankofbaroda.in</t>
+  </si>
+  <si>
+    <t>https://www.bankofbarodauk.com</t>
+  </si>
+  <si>
+    <t>https://www.bankofbeirut.co.uk</t>
+  </si>
+  <si>
+    <t>https://bankofceylon.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bankofchina.com › uk</t>
+  </si>
+  <si>
+    <t>https://www.boc.cn › ...</t>
+  </si>
+  <si>
+    <t>https://www.hkbea.com</t>
+  </si>
+  <si>
+    <t>https://www.bankofindia.co.in</t>
+  </si>
+  <si>
+    <t>https://www.bankofirelanduk.com › about</t>
+  </si>
+  <si>
+    <t>https://www.blme.com</t>
+  </si>
+  <si>
+    <t>https://www.bmo.com › main › personal</t>
+  </si>
+  <si>
+    <t>https://www.bankofscotland.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bot.com.tw › english › pages</t>
+  </si>
+  <si>
+    <t>https://www.bpiexpressonline.com › about-bpi-europe</t>
+  </si>
+  <si>
+    <t>http://www.saderat-plc.com</t>
+  </si>
+  <si>
+    <t>http://www.banksepah.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bankingcircle.com</t>
+  </si>
+  <si>
+    <t>https://www.banquehavilland.com</t>
+  </si>
+  <si>
+    <t>https://www.banquetransatlantique.com › ...</t>
+  </si>
+  <si>
+    <t>http://bayernlb.com</t>
+  </si>
+  <si>
+    <t>https://www.bfcbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.blomfrance.com</t>
+  </si>
+  <si>
+    <t>https://www.bmce-intl.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bnf.bank</t>
+  </si>
+  <si>
+    <t>https://www.bacb.co.uk</t>
+  </si>
+  <si>
+    <t>https://brownshipley.com › en-gb</t>
+  </si>
+  <si>
+    <t>https://www.byblosbank.com › about › countries › belg...</t>
+  </si>
+  <si>
+    <t>https://www.hoaresbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://secure.cafbank.org</t>
+  </si>
+  <si>
+    <t>https://ccbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.cibc.com › personal-banking</t>
+  </si>
+  <si>
+    <t>https://www.canarabank.com</t>
+  </si>
+  <si>
+    <t>https://www.caterallen.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.dnb.com › ... › TAIWAN › TAIPEI CITY</t>
+  </si>
+  <si>
+    <t>https://chetwood.co</t>
+  </si>
+  <si>
+    <t>https://www.cncbinternational.com</t>
+  </si>
+  <si>
+    <t>http://www.uk.ccb.com</t>
+  </si>
+  <si>
+    <t>https://english.cmbchina.com</t>
+  </si>
+  <si>
+    <t>https://cibccm.com</t>
+  </si>
+  <si>
+    <t>https://www.cimb.com.my › personal</t>
+  </si>
+  <si>
+    <t>https://www.citigroup.com › citi › about › citibank_na_...</t>
+  </si>
+  <si>
+    <t>https://www.clear.bank</t>
+  </si>
+  <si>
+    <t>https://www.closebrothers.com</t>
+  </si>
+  <si>
+    <t>https://secure.cbonline.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.commerzbank.co.uk › firmenkunden › ver...</t>
+  </si>
+  <si>
+    <t>https://www.commbank.com.au</t>
+  </si>
+  <si>
+    <t>https://www.coutts.com</t>
+  </si>
+  <si>
+    <t>https://www.ca-cib.com</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org › wiki › Crédit_Industriel_et_C...</t>
+  </si>
+  <si>
+    <t>https://www.credit-suisse.com</t>
+  </si>
+  <si>
+    <t>https://www.crownagentsbank.com</t>
+  </si>
+  <si>
+    <t>https://www.cynergybank.co.uk</t>
+  </si>
+  <si>
+    <t>https://danskebank.com › about-us</t>
+  </si>
+  <si>
+    <t>https://www.dbs.com</t>
+  </si>
+  <si>
+    <t>https://www.dnb.no › ...</t>
+  </si>
+  <si>
+    <t>https://www.dzbank.com</t>
+  </si>
+  <si>
+    <t>https://www.efgl.com</t>
+  </si>
+  <si>
+    <t>https://www.emiratesnbd.com › company-details</t>
+  </si>
+  <si>
+    <t>https://www.erstegroup.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.eurobankpb.lu › Home › About us</t>
+  </si>
+  <si>
+    <t>https://www.eabplc.com</t>
+  </si>
+  <si>
+    <t>https://www.fbnbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.fcebank.com</t>
+  </si>
+  <si>
+    <t>https://www.fcmbuk.com</t>
+  </si>
+  <si>
+    <t>https://www.bankfab.com › en-ae › about-fab</t>
+  </si>
+  <si>
+    <t>https://www.1cb.com</t>
+  </si>
+  <si>
+    <t>https://www.firstrand.co.za</t>
+  </si>
+  <si>
+    <t>https://www.ghanabank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.goldmansachs.com › what-we-do › consu...</t>
+  </si>
+  <si>
+    <t>https://www.gtbankuk.com</t>
+  </si>
+  <si>
+    <t>https://www.habibbank.com</t>
+  </si>
+  <si>
+    <t>https://www.hbl.com</t>
+  </si>
+  <si>
+    <t>https://www.habibbank.com › home › ukHome</t>
+  </si>
+  <si>
+    <t>https://www.hampdenandco.com</t>
+  </si>
+  <si>
+    <t>https://www.htb.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.handelsbanken.co.uk › ...</t>
+  </si>
+  <si>
+    <t>https://www.hauck-aufhaeuser.com › ...</t>
+  </si>
+  <si>
+    <t>http://www.havanaintbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://hblbankuk.com</t>
+  </si>
+  <si>
+    <t>https://www.hsbc.co.uk</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu › ... › United Kingdom</t>
+  </si>
+  <si>
+    <t>https://www.icbclondon.com</t>
+  </si>
+  <si>
+    <t>https://www.icbcstandardbank.com</t>
+  </si>
+  <si>
+    <t>https://www.icicibank.co.uk</t>
+  </si>
+  <si>
+    <t>https://ikano.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.icbc-ltd.com › icbcltd</t>
+  </si>
+  <si>
+    <t>https://global.ibk.co.kr</t>
+  </si>
+  <si>
+    <t>http://intesasanpaolo.com</t>
+  </si>
+  <si>
+    <t>https://www.itau.com.br › itaubba-en › international</t>
+  </si>
+  <si>
+    <t>https://www.jordanbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.jpmorganchase.com</t>
+  </si>
+  <si>
+    <t>https://www.kbc.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.kebhana.com › easyone_index_en</t>
+  </si>
+  <si>
+    <t>https://www.kfw-ipex-bank.de › International-financing</t>
+  </si>
+  <si>
+    <t>https://www.kingdom.bank</t>
+  </si>
+  <si>
+    <t>https://www.kbfg.com › about › global › europe › list</t>
+  </si>
+  <si>
+    <t>https://www.lbbw.de › homepage</t>
+  </si>
+  <si>
+    <t>https://www.helaba.com</t>
+  </si>
+  <si>
+    <t>https://www.lloydsbank.com › important-information</t>
+  </si>
+  <si>
+    <t>https://www.lloydsbank.com</t>
+  </si>
+  <si>
+    <t>https://www.lombardodier.com › ... › luxembourg.</t>
+  </si>
+  <si>
+    <t>https://www.macquarie.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.maybank.com</t>
+  </si>
+  <si>
+    <t>https://bank.marksandspencer.com</t>
+  </si>
+  <si>
+    <t>https://mashreqbank.com</t>
+  </si>
+  <si>
+    <t>https://www.masthaven.co.uk › Home</t>
+  </si>
+  <si>
+    <t>https://www.megabank.com.tw › en-us › english</t>
+  </si>
+  <si>
+    <t>https://www.mellibank.com</t>
+  </si>
+  <si>
+    <t>https://www.mcafundingforchurches.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.metrobankonline.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.tr.mufg.jp › english</t>
+  </si>
+  <si>
+    <t>https://www.mizrahi-tefahot.co.il › ...</t>
+  </si>
+  <si>
+    <t>https://www.mizuhogroup.com › bank</t>
+  </si>
+  <si>
+    <t>https://www.mizuhogroup.com › emea</t>
+  </si>
+  <si>
+    <t>https://www.monument.co</t>
+  </si>
+  <si>
+    <t>https://monzo.com</t>
+  </si>
+  <si>
+    <t>https://www.morganstanley.com › global-offices › unite...</t>
+  </si>
+  <si>
+    <t>https://www.bk.mufg.jp › global</t>
+  </si>
+  <si>
+    <t>https://n26.com › en-gb</t>
+  </si>
+  <si>
+    <t>https://www.nab.com.au</t>
+  </si>
+  <si>
+    <t>https://www.nbeuk.com</t>
+  </si>
+  <si>
+    <t>https://www.nbg.gr › ...</t>
+  </si>
+  <si>
+    <t>https://www.nbk.com › london › About</t>
+  </si>
+  <si>
+    <t>https://personal.natwest.com › personal</t>
+  </si>
+  <si>
+    <t>https://www.natixis.com › natixis › home-j_6</t>
+  </si>
+  <si>
+    <t>https://www.nedbank.co.za › desktop › personal</t>
+  </si>
+  <si>
+    <t>https://nedbankprivatewealth.com</t>
+  </si>
+  <si>
+    <t>https://www.nomura.com</t>
+  </si>
+  <si>
+    <t>https://www.nordlb.de</t>
+  </si>
+  <si>
+    <t>https://www.nordea.com › debt-and-rating › Prospectuses</t>
+  </si>
+  <si>
+    <t>https://www.ocbc.com › group › gateway</t>
+  </si>
+  <si>
+    <t>https://www.paragonbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://pcf.bank</t>
+  </si>
+  <si>
+    <t>http://www.persiabank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.pnb.com.ph › europe</t>
+  </si>
+  <si>
+    <t>https://www.piraeusholdings.gr › ...</t>
+  </si>
+  <si>
+    <t>https://www.bni.co.id › id-id</t>
+  </si>
+  <si>
+    <t>https://www.pnbint.com</t>
+  </si>
+  <si>
+    <t>https://www.qnb.com</t>
+  </si>
+  <si>
+    <t>https://www.qib-uk.com</t>
+  </si>
+  <si>
+    <t>https://www.raphaelsbank.com</t>
+  </si>
+  <si>
+    <t>https://www.rbinternational.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.rcibank.co.uk</t>
+  </si>
+  <si>
+    <t>https://redwoodbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.reliancebankltd.com</t>
+  </si>
+  <si>
+    <t>https://www.riyadbank.com › personal-banking</t>
+  </si>
+  <si>
+    <t>http://www.rbcroyalbank.com</t>
+  </si>
+  <si>
+    <t>https://www.sainsburysbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.santander.co.uk › ... › Investor relations</t>
+  </si>
+  <si>
+    <t>https://www.santander.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.securetrustbank.com</t>
+  </si>
+  <si>
+    <t>https://www.kleinworthambros.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.shacombank.com.hk › eng › personal</t>
+  </si>
+  <si>
+    <t>https://www.sigchina.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.shawbrook.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.shinhan.com › ...</t>
+  </si>
+  <si>
+    <t>https://sebgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.societegenerale.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.sonali-bank.com</t>
+  </si>
+  <si>
+    <t>https://www.sc.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.starlingbank.com</t>
+  </si>
+  <si>
+    <t>https://www.statestreet.com › bank-and-trust-policies</t>
+  </si>
+  <si>
+    <t>https://www.statestreet.com › about › office-locations</t>
+  </si>
+  <si>
+    <t>https://www.stifel.com › stifel-europe › seba-disclosures</t>
+  </si>
+  <si>
+    <t>https://www.smbcgroup.com › emea</t>
+  </si>
+  <si>
+    <t>https://syndicatebank.in</t>
+  </si>
+  <si>
+    <t>https://www.ziraatbank.com.tr › ...</t>
+  </si>
+  <si>
+    <t>https://www.tandem.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.tescobank.com</t>
+  </si>
+  <si>
+    <t>https://www.theaccessbankukltd.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bnymellon.com</t>
+  </si>
+  <si>
+    <t>https://www.scotiabank.com › global › global-site</t>
+  </si>
+  <si>
+    <t>https://charitybank.org</t>
+  </si>
+  <si>
+    <t>https://www.chibabank.co.jp › english</t>
+  </si>
+  <si>
+    <t>https://www.co-operativebank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.bankofengland.co.uk › knowledgebank</t>
+  </si>
+  <si>
+    <t>https://www.bankofireland.com › press-releases › the-g...</t>
+  </si>
+  <si>
+    <t>https://www.hsbc.com.hk</t>
+  </si>
+  <si>
+    <t>https://www.kdb.co.kr › hmp › CHGMLO1300.html</t>
+  </si>
+  <si>
+    <t>https://www.nochubank.or.jp › ...</t>
+  </si>
+  <si>
+    <t>https://www.rbsinternational.com</t>
+  </si>
+  <si>
+    <t>https://personal.rbs.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.td.com › personal-banking</t>
+  </si>
+  <si>
+    <t>https://www.triodos.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.tsb.co.uk › personal</t>
+  </si>
+  <si>
+    <t>https://www.turkishbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.isbank.com.tr › ...</t>
+  </si>
+  <si>
+    <t>https://www.ubs.com › global</t>
+  </si>
+  <si>
+    <t>https://digital.ulsterbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.unicreditgroup.eu › ... › Europe › Germany</t>
+  </si>
+  <si>
+    <t>https://www.unicreditgroup.eu › ... › Europe › Italy</t>
+  </si>
+  <si>
+    <t>https://www.ubp.com › ...</t>
+  </si>
+  <si>
+    <t>https://www.unionbankofindiauk.co.uk</t>
+  </si>
+  <si>
+    <t>http://www.unionbankuk.com</t>
+  </si>
+  <si>
+    <t>https://www.ubauk.com</t>
+  </si>
+  <si>
+    <t>https://www.ubluk.com</t>
+  </si>
+  <si>
+    <t>https://www.uobgroup.com › uobgroup</t>
+  </si>
+  <si>
+    <t>https://www.utbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.unity.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.vanquis.co.uk</t>
+  </si>
+  <si>
+    <t>https://uk.virginmoney.com</t>
+  </si>
+  <si>
+    <t>https://www.vtbcapital.com</t>
+  </si>
+  <si>
+    <t>https://www.weatherbys.bank</t>
+  </si>
+  <si>
+    <t>https://www.wellsfargo.com</t>
+  </si>
+  <si>
+    <t>https://www.wesleyan.co.uk › wesleyan-bank</t>
+  </si>
+  <si>
+    <t>https://www.westernunion.com › western-union-bank</t>
+  </si>
+  <si>
+    <t>https://www.westpac.com.au</t>
+  </si>
+  <si>
+    <t>https://www.westpac.com.au › ... › Global locations</t>
+  </si>
+  <si>
+    <t>http://eng.wooribank.com</t>
+  </si>
+  <si>
+    <t>https://www.wyelandsbank.co.uk</t>
+  </si>
+  <si>
+    <t>https://www.zenith-bank.co.uk</t>
   </si>
 </sst>
 </file>
@@ -3658,7 +4366,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="58.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4910,7 +5624,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D35A5-D059-4ACF-842D-672F158C38D5}">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:H267"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
@@ -4921,9 +5635,10 @@
     <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="100.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="60.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4945,8 +5660,11 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4968,8 +5686,11 @@
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4988,8 +5709,11 @@
       <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5008,8 +5732,11 @@
       <c r="G4" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -5031,8 +5758,11 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H5" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -5054,8 +5784,11 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -5077,8 +5810,11 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -5100,8 +5836,11 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -5120,8 +5859,11 @@
       <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>40</v>
       </c>
@@ -5140,8 +5882,11 @@
       <c r="G10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -5163,8 +5908,11 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H11" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5183,8 +5931,11 @@
       <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -5206,8 +5957,11 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5226,8 +5980,11 @@
       <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -5249,8 +6006,11 @@
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>64</v>
       </c>
@@ -5269,8 +6029,11 @@
       <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -5289,8 +6052,11 @@
       <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>71</v>
       </c>
@@ -5309,8 +6075,11 @@
       <c r="G18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>74</v>
       </c>
@@ -5329,8 +6098,11 @@
       <c r="G19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>77</v>
       </c>
@@ -5349,8 +6121,11 @@
       <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -5369,8 +6144,11 @@
       <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>84</v>
       </c>
@@ -5392,8 +6170,11 @@
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -5415,8 +6196,11 @@
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H23" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>92</v>
       </c>
@@ -5438,8 +6222,11 @@
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -5458,8 +6245,11 @@
       <c r="G25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -5478,8 +6268,11 @@
       <c r="G26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>102</v>
       </c>
@@ -5495,8 +6288,11 @@
       <c r="G27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>104</v>
       </c>
@@ -5518,8 +6314,11 @@
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>107</v>
       </c>
@@ -5541,8 +6340,11 @@
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>111</v>
       </c>
@@ -5564,8 +6366,11 @@
       <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>114</v>
       </c>
@@ -5587,8 +6392,11 @@
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>117</v>
       </c>
@@ -5607,8 +6415,11 @@
       <c r="G32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>120</v>
       </c>
@@ -5627,8 +6438,11 @@
       <c r="G33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>123</v>
       </c>
@@ -5647,8 +6461,11 @@
       <c r="G34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -5667,8 +6484,11 @@
       <c r="G35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>129</v>
       </c>
@@ -5687,8 +6507,11 @@
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H36" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>131</v>
       </c>
@@ -5710,8 +6533,11 @@
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H37" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>135</v>
       </c>
@@ -5730,8 +6556,11 @@
       <c r="G38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H38" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>138</v>
       </c>
@@ -5753,8 +6582,11 @@
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H39" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>143</v>
       </c>
@@ -5773,8 +6605,11 @@
       <c r="G40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H40" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>147</v>
       </c>
@@ -5796,8 +6631,11 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -5819,8 +6657,11 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H42" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>153</v>
       </c>
@@ -5842,8 +6683,11 @@
       <c r="G43" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H43" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>156</v>
       </c>
@@ -5862,8 +6706,11 @@
       <c r="G44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H44" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>160</v>
       </c>
@@ -5882,8 +6729,11 @@
       <c r="G45" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H45" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>164</v>
       </c>
@@ -5902,8 +6752,11 @@
       <c r="G46" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H46" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>168</v>
       </c>
@@ -5925,8 +6778,11 @@
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H47" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>170</v>
       </c>
@@ -5948,8 +6804,11 @@
       <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H48" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>173</v>
       </c>
@@ -5968,8 +6827,11 @@
       <c r="G49" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H49" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>176</v>
       </c>
@@ -5991,8 +6853,11 @@
       <c r="G50" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H50" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -6011,8 +6876,11 @@
       <c r="G51" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H51" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>182</v>
       </c>
@@ -6034,8 +6902,11 @@
       <c r="G52" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H52" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>185</v>
       </c>
@@ -6054,8 +6925,11 @@
       <c r="G53" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H53" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>188</v>
       </c>
@@ -6074,8 +6948,11 @@
       <c r="G54" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H54" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>191</v>
       </c>
@@ -6097,8 +6974,11 @@
       <c r="G55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H55" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>194</v>
       </c>
@@ -6120,8 +7000,11 @@
       <c r="G56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>196</v>
       </c>
@@ -6140,8 +7023,11 @@
       <c r="G57" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H57" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -6163,8 +7049,11 @@
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H58" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>203</v>
       </c>
@@ -6186,8 +7075,11 @@
       <c r="G59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H59" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>207</v>
       </c>
@@ -6209,8 +7101,11 @@
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H60" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>209</v>
       </c>
@@ -6229,8 +7124,11 @@
       <c r="G61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H61" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>212</v>
       </c>
@@ -6249,8 +7147,11 @@
       <c r="G62" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H62" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -6272,8 +7173,11 @@
       <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H63" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>217</v>
       </c>
@@ -6292,8 +7196,11 @@
       <c r="G64" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H64" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>220</v>
       </c>
@@ -6315,8 +7222,11 @@
       <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H65" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>223</v>
       </c>
@@ -6335,8 +7245,11 @@
       <c r="G66" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H66" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>226</v>
       </c>
@@ -6358,8 +7271,11 @@
       <c r="G67" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H67" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>229</v>
       </c>
@@ -6378,8 +7294,11 @@
       <c r="G68" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H68" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>232</v>
       </c>
@@ -6398,8 +7317,11 @@
       <c r="G69" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H69" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>235</v>
       </c>
@@ -6421,8 +7343,11 @@
       <c r="G70" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H70" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>239</v>
       </c>
@@ -6441,8 +7366,11 @@
       <c r="G71" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H71" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>242</v>
       </c>
@@ -6461,8 +7389,11 @@
       <c r="G72" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H72" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>244</v>
       </c>
@@ -6481,8 +7412,11 @@
       <c r="G73" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H73" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>247</v>
       </c>
@@ -6501,8 +7435,11 @@
       <c r="G74" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H74" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>250</v>
       </c>
@@ -6524,8 +7461,11 @@
       <c r="G75" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H75" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>254</v>
       </c>
@@ -6547,8 +7487,11 @@
       <c r="G76" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H76" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>258</v>
       </c>
@@ -6567,8 +7510,11 @@
       <c r="G77" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H77" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>261</v>
       </c>
@@ -6587,8 +7533,11 @@
       <c r="G78" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H78" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>264</v>
       </c>
@@ -6607,8 +7556,11 @@
       <c r="G79" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H79" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>267</v>
       </c>
@@ -6630,8 +7582,11 @@
       <c r="G80" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>269</v>
       </c>
@@ -6650,8 +7605,11 @@
       <c r="G81" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H81" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>272</v>
       </c>
@@ -6670,8 +7628,11 @@
       <c r="G82" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H82" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>275</v>
       </c>
@@ -6690,8 +7651,11 @@
       <c r="G83" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H83" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>278</v>
       </c>
@@ -6713,8 +7677,11 @@
       <c r="G84" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H84" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>281</v>
       </c>
@@ -6736,8 +7703,11 @@
       <c r="G85" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H85" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>284</v>
       </c>
@@ -6759,8 +7729,11 @@
       <c r="G86" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H86" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>287</v>
       </c>
@@ -6779,8 +7752,11 @@
       <c r="G87" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H87" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>290</v>
       </c>
@@ -6799,8 +7775,11 @@
       <c r="G88" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H88" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>293</v>
       </c>
@@ -6819,8 +7798,11 @@
       <c r="G89" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H89" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>296</v>
       </c>
@@ -6839,8 +7821,11 @@
       <c r="G90" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H90" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>299</v>
       </c>
@@ -6859,8 +7844,11 @@
       <c r="G91" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H91" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>302</v>
       </c>
@@ -6882,8 +7870,11 @@
       <c r="G92" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H92" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>306</v>
       </c>
@@ -6902,8 +7893,11 @@
       <c r="G93" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H93" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>311</v>
       </c>
@@ -6922,8 +7916,11 @@
       <c r="G94" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H94" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>314</v>
       </c>
@@ -6942,8 +7939,11 @@
       <c r="G95" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H95" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>317</v>
       </c>
@@ -6962,8 +7962,11 @@
       <c r="G96" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H96" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>320</v>
       </c>
@@ -6985,8 +7988,11 @@
       <c r="G97" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H97" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>322</v>
       </c>
@@ -7008,8 +8014,11 @@
       <c r="G98" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H98" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>325</v>
       </c>
@@ -7031,8 +8040,11 @@
       <c r="G99" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H99" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>329</v>
       </c>
@@ -7054,8 +8066,11 @@
       <c r="G100" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H100" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>332</v>
       </c>
@@ -7077,8 +8092,11 @@
       <c r="G101" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H101" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>335</v>
       </c>
@@ -7097,8 +8115,11 @@
       <c r="G102" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H102" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>338</v>
       </c>
@@ -7117,8 +8138,11 @@
       <c r="G103" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H103" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>341</v>
       </c>
@@ -7137,8 +8161,11 @@
       <c r="G104" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H104" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>344</v>
       </c>
@@ -7157,8 +8184,11 @@
       <c r="G105" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H105" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>347</v>
       </c>
@@ -7180,8 +8210,11 @@
       <c r="G106" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>351</v>
       </c>
@@ -7200,8 +8233,11 @@
       <c r="G107" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H107" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>354</v>
       </c>
@@ -7223,8 +8259,11 @@
       <c r="G108" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H108" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>357</v>
       </c>
@@ -7246,8 +8285,11 @@
       <c r="G109" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H109" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>360</v>
       </c>
@@ -7266,8 +8308,11 @@
       <c r="G110" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H110" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>362</v>
       </c>
@@ -7286,8 +8331,11 @@
       <c r="G111" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H111" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>365</v>
       </c>
@@ -7309,8 +8357,11 @@
       <c r="G112" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H112" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>368</v>
       </c>
@@ -7332,8 +8383,11 @@
       <c r="G113" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H113" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>370</v>
       </c>
@@ -7355,8 +8409,11 @@
       <c r="G114" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H114" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>374</v>
       </c>
@@ -7378,8 +8435,11 @@
       <c r="G115" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H115" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>377</v>
       </c>
@@ -7398,8 +8458,11 @@
       <c r="G116" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H116" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>378</v>
       </c>
@@ -7421,8 +8484,11 @@
       <c r="G117" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>382</v>
       </c>
@@ -7444,8 +8510,11 @@
       <c r="G118" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H118" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>385</v>
       </c>
@@ -7467,8 +8536,11 @@
       <c r="G119" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H119" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>388</v>
       </c>
@@ -7487,8 +8559,11 @@
       <c r="G120" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H120" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>391</v>
       </c>
@@ -7510,8 +8585,11 @@
       <c r="G121" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>394</v>
       </c>
@@ -7533,8 +8611,11 @@
       <c r="G122" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H122" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>397</v>
       </c>
@@ -7553,8 +8634,11 @@
       <c r="G123" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H123" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>400</v>
       </c>
@@ -7576,8 +8660,11 @@
       <c r="G124" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H124" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>403</v>
       </c>
@@ -7599,8 +8686,11 @@
       <c r="G125" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H125" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>406</v>
       </c>
@@ -7622,8 +8712,11 @@
       <c r="G126" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H126" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>409</v>
       </c>
@@ -7642,8 +8735,11 @@
       <c r="G127" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H127" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>412</v>
       </c>
@@ -7662,8 +8758,11 @@
       <c r="G128" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H128" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>415</v>
       </c>
@@ -7682,8 +8781,11 @@
       <c r="G129" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H129" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>418</v>
       </c>
@@ -7702,8 +8804,11 @@
       <c r="G130" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H130" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>422</v>
       </c>
@@ -7722,8 +8827,11 @@
       <c r="G131" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H131" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>425</v>
       </c>
@@ -7745,8 +8853,11 @@
       <c r="G132" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H132" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>428</v>
       </c>
@@ -7765,8 +8876,11 @@
       <c r="G133" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H133" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>431</v>
       </c>
@@ -7788,8 +8902,11 @@
       <c r="G134" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H134" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -7811,8 +8928,11 @@
       <c r="G135" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H135" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>437</v>
       </c>
@@ -7831,8 +8951,11 @@
       <c r="G136" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H136" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>440</v>
       </c>
@@ -7851,8 +8974,11 @@
       <c r="G137" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H137" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>443</v>
       </c>
@@ -7871,8 +8997,11 @@
       <c r="G138" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H138" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>446</v>
       </c>
@@ -7894,8 +9023,11 @@
       <c r="G139" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H139" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>449</v>
       </c>
@@ -7914,8 +9046,11 @@
       <c r="G140" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H140" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>452</v>
       </c>
@@ -7937,8 +9072,11 @@
       <c r="G141" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H141" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>456</v>
       </c>
@@ -7957,8 +9095,11 @@
       <c r="G142" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H142" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>459</v>
       </c>
@@ -7977,8 +9118,11 @@
       <c r="G143" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H143" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>462</v>
       </c>
@@ -7997,8 +9141,11 @@
       <c r="G144" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H144" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>465</v>
       </c>
@@ -8020,8 +9167,11 @@
       <c r="G145" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H145" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>468</v>
       </c>
@@ -8043,8 +9193,11 @@
       <c r="G146" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H146" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>471</v>
       </c>
@@ -8063,8 +9216,11 @@
       <c r="G147" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H147" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>474</v>
       </c>
@@ -8086,8 +9242,11 @@
       <c r="G148" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H148" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>478</v>
       </c>
@@ -8106,8 +9265,11 @@
       <c r="G149" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H149" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>480</v>
       </c>
@@ -8129,8 +9291,11 @@
       <c r="G150" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H150" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>483</v>
       </c>
@@ -8149,8 +9314,11 @@
       <c r="G151" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H151" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>486</v>
       </c>
@@ -8172,8 +9340,11 @@
       <c r="G152" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H152" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>488</v>
       </c>
@@ -8192,8 +9363,11 @@
       <c r="G153" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H153" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>491</v>
       </c>
@@ -8215,8 +9389,11 @@
       <c r="G154" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H154" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>494</v>
       </c>
@@ -8235,8 +9412,11 @@
       <c r="G155" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H155" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>497</v>
       </c>
@@ -8258,8 +9438,11 @@
       <c r="G156" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H156" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>500</v>
       </c>
@@ -8281,8 +9464,11 @@
       <c r="G157" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H157" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>503</v>
       </c>
@@ -8304,8 +9490,11 @@
       <c r="G158" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H158" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>506</v>
       </c>
@@ -8324,8 +9513,11 @@
       <c r="G159" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H159" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>510</v>
       </c>
@@ -8344,8 +9536,11 @@
       <c r="G160" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="161" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H160" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>514</v>
       </c>
@@ -8364,8 +9559,11 @@
       <c r="G161" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H161" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>517</v>
       </c>
@@ -8387,8 +9585,11 @@
       <c r="G162" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H162" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>519</v>
       </c>
@@ -8407,8 +9608,11 @@
       <c r="G163" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H163" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>521</v>
       </c>
@@ -8430,8 +9634,11 @@
       <c r="G164" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H164" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>524</v>
       </c>
@@ -8453,8 +9660,11 @@
       <c r="G165" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H165" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>528</v>
       </c>
@@ -8473,8 +9683,11 @@
       <c r="G166" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H166" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>531</v>
       </c>
@@ -8493,8 +9706,11 @@
       <c r="G167" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H167" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>534</v>
       </c>
@@ -8513,8 +9729,11 @@
       <c r="G168" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H168" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>537</v>
       </c>
@@ -8536,8 +9755,11 @@
       <c r="G169" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H169" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>540</v>
       </c>
@@ -8556,8 +9778,11 @@
       <c r="G170" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H170" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>543</v>
       </c>
@@ -8579,8 +9804,11 @@
       <c r="G171" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H171" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>546</v>
       </c>
@@ -8602,8 +9830,11 @@
       <c r="G172" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H172" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>549</v>
       </c>
@@ -8622,8 +9853,11 @@
       <c r="G173" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H173" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>552</v>
       </c>
@@ -8642,8 +9876,11 @@
       <c r="G174" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H174" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>555</v>
       </c>
@@ -8662,8 +9899,11 @@
       <c r="G175" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H175" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>558</v>
       </c>
@@ -8685,8 +9925,11 @@
       <c r="G176" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H176" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>561</v>
       </c>
@@ -8705,8 +9948,11 @@
       <c r="G177" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H177" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>564</v>
       </c>
@@ -8725,8 +9971,11 @@
       <c r="G178" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H178" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>567</v>
       </c>
@@ -8748,8 +9997,11 @@
       <c r="G179" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H179" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>572</v>
       </c>
@@ -8768,8 +10020,11 @@
       <c r="G180" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H180" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>575</v>
       </c>
@@ -8791,8 +10046,11 @@
       <c r="G181" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H181" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>578</v>
       </c>
@@ -8814,8 +10072,11 @@
       <c r="G182" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H182" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>581</v>
       </c>
@@ -8837,8 +10098,11 @@
       <c r="G183" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H183" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>584</v>
       </c>
@@ -8860,8 +10124,11 @@
       <c r="G184" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H184" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>587</v>
       </c>
@@ -8880,8 +10147,11 @@
       <c r="G185" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H185" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>590</v>
       </c>
@@ -8900,8 +10170,11 @@
       <c r="G186" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H186" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>593</v>
       </c>
@@ -8923,8 +10196,11 @@
       <c r="G187" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H187" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>596</v>
       </c>
@@ -8943,8 +10219,11 @@
       <c r="G188" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H188" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>599</v>
       </c>
@@ -8966,8 +10245,11 @@
       <c r="G189" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H189" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>603</v>
       </c>
@@ -8989,8 +10271,11 @@
       <c r="G190" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H190" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>605</v>
       </c>
@@ -9009,8 +10294,11 @@
       <c r="G191" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H191" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>608</v>
       </c>
@@ -9032,8 +10320,11 @@
       <c r="G192" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H192" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>611</v>
       </c>
@@ -9052,8 +10343,11 @@
       <c r="G193" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H193" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>613</v>
       </c>
@@ -9075,8 +10369,11 @@
       <c r="G194" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H194" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>617</v>
       </c>
@@ -9098,8 +10395,11 @@
       <c r="G195" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H195" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>620</v>
       </c>
@@ -9118,8 +10418,11 @@
       <c r="G196" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H196" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>624</v>
       </c>
@@ -9138,8 +10441,11 @@
       <c r="G197" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H197" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>626</v>
       </c>
@@ -9161,8 +10467,11 @@
       <c r="G198" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H198" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>628</v>
       </c>
@@ -9184,8 +10493,11 @@
       <c r="G199" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H199" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>631</v>
       </c>
@@ -9207,8 +10519,11 @@
       <c r="G200" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H200" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>633</v>
       </c>
@@ -9230,8 +10545,11 @@
       <c r="G201" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H201" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>636</v>
       </c>
@@ -9253,8 +10571,11 @@
       <c r="G202" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H202" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>639</v>
       </c>
@@ -9276,8 +10597,11 @@
       <c r="G203" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H203" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>642</v>
       </c>
@@ -9296,8 +10620,11 @@
       <c r="G204" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H204" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>645</v>
       </c>
@@ -9316,8 +10643,11 @@
       <c r="G205" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H205" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>648</v>
       </c>
@@ -9339,8 +10669,11 @@
       <c r="G206" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H206" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>651</v>
       </c>
@@ -9359,8 +10692,11 @@
       <c r="G207" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H207" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>654</v>
       </c>
@@ -9379,8 +10715,11 @@
       <c r="G208" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H208" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>656</v>
       </c>
@@ -9399,8 +10738,11 @@
       <c r="G209" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H209" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>658</v>
       </c>
@@ -9419,8 +10761,11 @@
       <c r="G210" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H210" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>661</v>
       </c>
@@ -9442,8 +10787,11 @@
       <c r="G211" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H211" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>665</v>
       </c>
@@ -9465,8 +10813,11 @@
       <c r="G212" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H212" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>669</v>
       </c>
@@ -9488,8 +10839,11 @@
       <c r="G213" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H213" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>672</v>
       </c>
@@ -9508,8 +10862,11 @@
       <c r="G214" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H214" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>675</v>
       </c>
@@ -9528,8 +10885,11 @@
       <c r="G215" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H215" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>678</v>
       </c>
@@ -9548,8 +10908,11 @@
       <c r="G216" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H216" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>680</v>
       </c>
@@ -9568,8 +10931,11 @@
       <c r="G217" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H217" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>683</v>
       </c>
@@ -9588,8 +10954,11 @@
       <c r="G218" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>685</v>
       </c>
@@ -9608,8 +10977,11 @@
       <c r="G219" s="1" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H219" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>688</v>
       </c>
@@ -9628,8 +11000,11 @@
       <c r="G220" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H220" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>691</v>
       </c>
@@ -9651,8 +11026,11 @@
       <c r="G221" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H221" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>694</v>
       </c>
@@ -9674,8 +11052,11 @@
       <c r="G222" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H222" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>697</v>
       </c>
@@ -9697,8 +11078,11 @@
       <c r="G223" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H223" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>701</v>
       </c>
@@ -9720,8 +11104,11 @@
       <c r="G224" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H224" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>705</v>
       </c>
@@ -9740,8 +11127,11 @@
       <c r="G225" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H225" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>708</v>
       </c>
@@ -9763,8 +11153,11 @@
       <c r="G226" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H226" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>711</v>
       </c>
@@ -9783,8 +11176,11 @@
       <c r="G227" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H227" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>713</v>
       </c>
@@ -9803,8 +11199,11 @@
       <c r="G228" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H228" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>716</v>
       </c>
@@ -9826,8 +11225,11 @@
       <c r="G229" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H229" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>720</v>
       </c>
@@ -9846,8 +11248,11 @@
       <c r="G230" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H230" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>723</v>
       </c>
@@ -9869,8 +11274,11 @@
       <c r="G231" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H231" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>725</v>
       </c>
@@ -9886,8 +11294,11 @@
       <c r="F232" t="s">
         <v>728</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H232" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>729</v>
       </c>
@@ -9906,8 +11317,11 @@
       <c r="G233" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H233" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>731</v>
       </c>
@@ -9926,8 +11340,11 @@
       <c r="G234" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H234" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>734</v>
       </c>
@@ -9946,8 +11363,11 @@
       <c r="G235" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H235" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>737</v>
       </c>
@@ -9966,8 +11386,11 @@
       <c r="G236" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H236" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>741</v>
       </c>
@@ -9986,8 +11409,11 @@
       <c r="G237" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H237" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>745</v>
       </c>
@@ -10009,8 +11435,11 @@
       <c r="G238" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H238" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>749</v>
       </c>
@@ -10029,8 +11458,11 @@
       <c r="G239" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H239" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>752</v>
       </c>
@@ -10052,8 +11484,11 @@
       <c r="G240" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H240" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>756</v>
       </c>
@@ -10075,8 +11510,11 @@
       <c r="G241" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H241" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>760</v>
       </c>
@@ -10098,8 +11536,11 @@
       <c r="G242" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H242" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>763</v>
       </c>
@@ -10118,8 +11559,11 @@
       <c r="G243" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H243" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>766</v>
       </c>
@@ -10138,8 +11582,11 @@
       <c r="G244" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H244" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>769</v>
       </c>
@@ -10161,8 +11608,11 @@
       <c r="G245" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H245" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>772</v>
       </c>
@@ -10181,8 +11631,11 @@
       <c r="G246" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="247" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H246" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>775</v>
       </c>
@@ -10201,8 +11654,11 @@
       <c r="G247" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="248" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H247" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>778</v>
       </c>
@@ -10221,8 +11677,11 @@
       <c r="G248" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="249" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H248" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>782</v>
       </c>
@@ -10244,8 +11703,11 @@
       <c r="G249" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="250" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H249" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>785</v>
       </c>
@@ -10267,8 +11729,11 @@
       <c r="G250" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="251" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H250" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>789</v>
       </c>
@@ -10290,8 +11755,11 @@
       <c r="G251" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="252" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H251" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>791</v>
       </c>
@@ -10313,8 +11781,11 @@
       <c r="G252" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="253" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H252" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>794</v>
       </c>
@@ -10333,8 +11804,11 @@
       <c r="G253" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="254" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H253" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>797</v>
       </c>
@@ -10356,8 +11830,11 @@
       <c r="G254" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="255" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H254" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>800</v>
       </c>
@@ -10379,8 +11856,11 @@
       <c r="G255" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="256" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H255" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>803</v>
       </c>
@@ -10402,8 +11882,11 @@
       <c r="G256" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="257" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H256" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>807</v>
       </c>
@@ -10425,8 +11908,11 @@
       <c r="G257" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="258" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H257" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>810</v>
       </c>
@@ -10448,8 +11934,11 @@
       <c r="G258" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H258" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>813</v>
       </c>
@@ -10471,8 +11960,11 @@
       <c r="G259" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H259" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>816</v>
       </c>
@@ -10491,8 +11983,11 @@
       <c r="G260" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="261" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H260" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>819</v>
       </c>
@@ -10514,8 +12009,11 @@
       <c r="G261" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="262" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H261" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>822</v>
       </c>
@@ -10534,8 +12032,11 @@
       <c r="G262" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="263" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H262" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>826</v>
       </c>
@@ -10554,8 +12055,11 @@
       <c r="G263" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H263" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>829</v>
       </c>
@@ -10577,8 +12081,11 @@
       <c r="G264" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="265" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H264" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>832</v>
       </c>
@@ -10597,8 +12104,11 @@
       <c r="G265" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="266" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H265" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>835</v>
       </c>
@@ -10620,8 +12130,11 @@
       <c r="G266" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="267" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="H266" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>838</v>
       </c>
@@ -10642,6 +12155,9 @@
       </c>
       <c r="G267" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="H267" t="s">
+        <v>1319</v>
       </c>
     </row>
   </sheetData>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0A4E6783-1AD8-42D2-8A36-53562B5FF3E1}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB1C1926-2069-431A-9F5A-8DC0D6559A00}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Ireland" sheetId="2" r:id="rId1"/>
-    <sheet name="United Kingdom" sheetId="1" r:id="rId2"/>
+    <sheet name="Cayman" sheetId="3" r:id="rId1"/>
+    <sheet name="Ireland" sheetId="2" r:id="rId2"/>
+    <sheet name="United Kingdom" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'United Kingdom'!$A$1:$G$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'United Kingdom'!$A$1:$G$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1618">
   <si>
     <t>Name</t>
   </si>
@@ -4006,6 +4007,900 @@
   </si>
   <si>
     <t>https://www.zenith-bank.co.uk</t>
+  </si>
+  <si>
+    <t>Alexandria Bancorp Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18104</t>
+  </si>
+  <si>
+    <t>banking and trustee services</t>
+  </si>
+  <si>
+    <t>international only</t>
+  </si>
+  <si>
+    <t>https://www.alexandriabancorp.com</t>
+  </si>
+  <si>
+    <t>Alhambra Bank &amp; Trust Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18589</t>
+  </si>
+  <si>
+    <t>http://alhambrabank.ky</t>
+  </si>
+  <si>
+    <t>Altajir Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18106</t>
+  </si>
+  <si>
+    <t>http://www.altajirbank.com</t>
+  </si>
+  <si>
+    <t>American Express National Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18108</t>
+  </si>
+  <si>
+    <t>banking services</t>
+  </si>
+  <si>
+    <t>https://www.americanexpress.com › en-us › banking</t>
+  </si>
+  <si>
+    <t>Atlantic Security Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18110</t>
+  </si>
+  <si>
+    <t>https://www.asbnet.com</t>
+  </si>
+  <si>
+    <t>Australia and New Zealand Banking Group Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18111</t>
+  </si>
+  <si>
+    <t>BAC International Bank (Grand Cayman)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18112</t>
+  </si>
+  <si>
+    <t>https://cayman.directory › bac-international-bank-grand...</t>
+  </si>
+  <si>
+    <t>Banco ABC Brasil S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18113</t>
+  </si>
+  <si>
+    <t>https://www.abcbrasil.com.br › who-we-are</t>
+  </si>
+  <si>
+    <t>Banco Bradesco S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18117</t>
+  </si>
+  <si>
+    <t>https://banco.bradesco</t>
+  </si>
+  <si>
+    <t>Banco BS2 S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19173</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com › company › BONS3:BZ</t>
+  </si>
+  <si>
+    <t>Banco BTG Pactual S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18118</t>
+  </si>
+  <si>
+    <t>https://www.btgpactual.com</t>
+  </si>
+  <si>
+    <t>Banco C6 S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19174</t>
+  </si>
+  <si>
+    <t>https://www.c6bank.com.br</t>
+  </si>
+  <si>
+    <t>BANCO DAYCOVAL S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18120</t>
+  </si>
+  <si>
+    <t>https://www.daycoval.com.br › ...</t>
+  </si>
+  <si>
+    <t>Banco do Brasil S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18123</t>
+  </si>
+  <si>
+    <t>Banco do Estado do Rio Grande do Sul S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18124</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com › profile</t>
+  </si>
+  <si>
+    <t>Banco Fibra S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18126</t>
+  </si>
+  <si>
+    <t>https://www.bancofibra.com.br</t>
+  </si>
+  <si>
+    <t>Banco General (Overseas), Inc.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18128</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu › ... › Cayman Islands</t>
+  </si>
+  <si>
+    <t>Banco Indusval S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18131</t>
+  </si>
+  <si>
+    <t>https://www.bloomberg.com › company › IDVL4:BZ</t>
+  </si>
+  <si>
+    <t>Banco Mercantil del Norte, S.A., Institucion de Banca Multiple, Grupo Financiero Banorte</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18132</t>
+  </si>
+  <si>
+    <t>https://www.unepfi.org › member › banco-mercantil-de...</t>
+  </si>
+  <si>
+    <t>Banco Morgan Stanley S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18135</t>
+  </si>
+  <si>
+    <t>Banco Nacional de Comercio Exterior, SNC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18136</t>
+  </si>
+  <si>
+    <t>Banco Original S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18674</t>
+  </si>
+  <si>
+    <t>https://www.original.com.br</t>
+  </si>
+  <si>
+    <t>Banco Pine S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18137</t>
+  </si>
+  <si>
+    <t>https://www.pine.com</t>
+  </si>
+  <si>
+    <t>Banco Safra (Cayman Islands) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18139</t>
+  </si>
+  <si>
+    <t>Banco Safra S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18140</t>
+  </si>
+  <si>
+    <t>https://www.safra.com.br</t>
+  </si>
+  <si>
+    <t>Banco Santander (Brasil) S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18141</t>
+  </si>
+  <si>
+    <t>https://www.santander.com.br › santander-brasil-en</t>
+  </si>
+  <si>
+    <t>Banco Sofisa S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18142</t>
+  </si>
+  <si>
+    <t>https://www.sofisa.com.br</t>
+  </si>
+  <si>
+    <t>Banco Sumitomo Mitsui Brasileiro S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18143</t>
+  </si>
+  <si>
+    <t>https://www.smbcgroup.com.br</t>
+  </si>
+  <si>
+    <t>Bancolombia Cayman</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18144</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18152</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18153</t>
+  </si>
+  <si>
+    <t>Barclays Bank PLC</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18157</t>
+  </si>
+  <si>
+    <t>BCP Finance Bank, Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18159</t>
+  </si>
+  <si>
+    <t>Bessemer Trust Company (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18161</t>
+  </si>
+  <si>
+    <t>https://www.bessemertrust.com › offices › grand-cayman-...</t>
+  </si>
+  <si>
+    <t>BMG Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18163</t>
+  </si>
+  <si>
+    <t>BNP Paribas Bank &amp; Trust Cayman Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18165</t>
+  </si>
+  <si>
+    <t>Brown Brothers Harriman &amp; Co.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18170</t>
+  </si>
+  <si>
+    <t>https://www.bbh.com</t>
+  </si>
+  <si>
+    <t>Butterfield Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18300</t>
+  </si>
+  <si>
+    <t>domestic and international</t>
+  </si>
+  <si>
+    <t>https://www.butterfieldgroup.com › en-ky</t>
+  </si>
+  <si>
+    <t>Cainvest Bank and Trust Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18308</t>
+  </si>
+  <si>
+    <t>https://cainvest.com</t>
+  </si>
+  <si>
+    <t>Cayman National Bank Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18302</t>
+  </si>
+  <si>
+    <t>https://www.caymannational.com</t>
+  </si>
+  <si>
+    <t>China Construction Bank (Brasil) Banco Multiplo S/A</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18130</t>
+  </si>
+  <si>
+    <t>http://www.br.ccb.com › ...</t>
+  </si>
+  <si>
+    <t>CIBC Cayman Bank Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18677</t>
+  </si>
+  <si>
+    <t>https://www.cibcfcib.com › locations › cayman-islands</t>
+  </si>
+  <si>
+    <t>CITCO Bank and Trust Company Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18177</t>
+  </si>
+  <si>
+    <t>Citizens Bank, National Association</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18250</t>
+  </si>
+  <si>
+    <t>https://www.citizensbank.com</t>
+  </si>
+  <si>
+    <t>Comerica Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18182</t>
+  </si>
+  <si>
+    <t>https://www.comerica.com</t>
+  </si>
+  <si>
+    <t>COMMERZBANK AKTIENGESELLSCHAFT</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18183</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18188</t>
+  </si>
+  <si>
+    <t>Delta Bank and Trust Company, Grand Cayman</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18189</t>
+  </si>
+  <si>
+    <t>https://cayman.directory › delta-bank-trust-grand-caym...</t>
+  </si>
+  <si>
+    <t>Deutsche Bank Aktiengesellschaft</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18190</t>
+  </si>
+  <si>
+    <t>DMS Bank &amp; Trust Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18191</t>
+  </si>
+  <si>
+    <t>https://dmsbank.com</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18192</t>
+  </si>
+  <si>
+    <t>EFG Bank AG</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18194</t>
+  </si>
+  <si>
+    <t>https://www.efgbank.com</t>
+  </si>
+  <si>
+    <t>Elant Bank &amp; Trust Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18225</t>
+  </si>
+  <si>
+    <t>Fidelity Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18305</t>
+  </si>
+  <si>
+    <t>https://www.fidelitygroup.com › caymanislands</t>
+  </si>
+  <si>
+    <t>Fifth Third Bank, National Association</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18196</t>
+  </si>
+  <si>
+    <t>https://www.53.com › fifth-third › personal-banking</t>
+  </si>
+  <si>
+    <t>FirstCaribbean International Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18306</t>
+  </si>
+  <si>
+    <t> (2.4)</t>
+  </si>
+  <si>
+    <t>FirstCaribbean International Bank and Trust Company (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18303</t>
+  </si>
+  <si>
+    <t>https://www.cibcfcib.com › private-wealth-management</t>
+  </si>
+  <si>
+    <t>Givens Hall Bank &amp; Trust Ltd</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18199</t>
+  </si>
+  <si>
+    <t>Global Fidelity Bank, Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18593</t>
+  </si>
+  <si>
+    <t>GNB Sudameris Bank Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18200</t>
+  </si>
+  <si>
+    <t>Haitong Banco de Investimento do Brasil S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18160</t>
+  </si>
+  <si>
+    <t>https://www.haitongib.com › where-we-are › sao-paulo</t>
+  </si>
+  <si>
+    <t>Heritage Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18678</t>
+  </si>
+  <si>
+    <t>https://www.heritage.com.au</t>
+  </si>
+  <si>
+    <t>Industrial and Commercial Bank of China (Asia) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18207</t>
+  </si>
+  <si>
+    <t>https://www.icbcasia.com › ICBC › 海外分行 › 工银亚洲</t>
+  </si>
+  <si>
+    <t>International Bank for Commerce</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18208</t>
+  </si>
+  <si>
+    <t>https://www.ibc.com</t>
+  </si>
+  <si>
+    <t>Itau Bank &amp; Trust Cayman Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18212</t>
+  </si>
+  <si>
+    <t>https://web.caymanchamber.ky › Banks › Itau-Bank-Tr...</t>
+  </si>
+  <si>
+    <t>Itau Bank, Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18213</t>
+  </si>
+  <si>
+    <t>https://www.itau.com</t>
+  </si>
+  <si>
+    <t>Itau Unibanco Holding S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18214</t>
+  </si>
+  <si>
+    <t>https://www.itau.com.br › relacoes-com-investidores</t>
+  </si>
+  <si>
+    <t>ITAU UNIBANCO S.A.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18215</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org › wiki › Itaú_Unibanco</t>
+  </si>
+  <si>
+    <t>Kasikornbank Public Company Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18217</t>
+  </si>
+  <si>
+    <t>https://kasikornbank.com › about › Information</t>
+  </si>
+  <si>
+    <t>Krung Thai Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18220</t>
+  </si>
+  <si>
+    <t>https://krungthai.com › personal</t>
+  </si>
+  <si>
+    <t>LGT Bank (Cayman) Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18223</t>
+  </si>
+  <si>
+    <t>Manufacturers and Traders Trust Company</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18224</t>
+  </si>
+  <si>
+    <t>Merrill Lynch Bank and Trust Company (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18309</t>
+  </si>
+  <si>
+    <t>https://web.caymanchamber.ky › Trust-Companies › M...</t>
+  </si>
+  <si>
+    <t>Millennium bcp Bank &amp; Trust</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18226</t>
+  </si>
+  <si>
+    <t>https://web.caymanchamber.ky › Banks › Millennium-...</t>
+  </si>
+  <si>
+    <t>Mizuho Bank, Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18229</t>
+  </si>
+  <si>
+    <t>Morval Bank &amp; Trust Cayman Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18310</t>
+  </si>
+  <si>
+    <t>MUFG Alternative Fund Services (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18314</t>
+  </si>
+  <si>
+    <t>https://www.mufg-investorservices.com › about-us › gl...</t>
+  </si>
+  <si>
+    <t>Nacional Financiera S.N.C.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18233</t>
+  </si>
+  <si>
+    <t>https://www.nafin.com › content › h...</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18234</t>
+  </si>
+  <si>
+    <t>National Bank of Kuwait, Societe Anonyme Kuwaitienne Publique</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18236</t>
+  </si>
+  <si>
+    <t>NCB (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18238</t>
+  </si>
+  <si>
+    <t>https://ncbcaymanlimited.com</t>
+  </si>
+  <si>
+    <t>Northern Trust Company (The)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18241</t>
+  </si>
+  <si>
+    <t>https://www.northerntrust.com › united-states</t>
+  </si>
+  <si>
+    <t>Popular Bank Llc, Cayman</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18244</t>
+  </si>
+  <si>
+    <t>PT Bank Rakyat Indonesia (Persero) TBK</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18246</t>
+  </si>
+  <si>
+    <t>https://www.ir-bri.com</t>
+  </si>
+  <si>
+    <t>PT. BANK MANDIRI (PERSERO) Tbk</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18247</t>
+  </si>
+  <si>
+    <t>https://bankmandiri.co.id</t>
+  </si>
+  <si>
+    <t>Queensgate Bank and Trust Company Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18248</t>
+  </si>
+  <si>
+    <t>https://www.queensgate.com.ky › about-us</t>
+  </si>
+  <si>
+    <t>RBC Royal Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18311</t>
+  </si>
+  <si>
+    <t> (1.7)</t>
+  </si>
+  <si>
+    <t>http://www.rbcroyalbank.com › caribbean › cayman</t>
+  </si>
+  <si>
+    <t>Regions Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18251</t>
+  </si>
+  <si>
+    <t>https://www.regions.com › personal-banking</t>
+  </si>
+  <si>
+    <t>Republic Bank (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18252</t>
+  </si>
+  <si>
+    <t>https://www.republictt.com › about › republic-bank-cay...</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18253</t>
+  </si>
+  <si>
+    <t>Scotiabank &amp; Trust (Cayman) Ltd</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18313</t>
+  </si>
+  <si>
+    <t> (2.8)</t>
+  </si>
+  <si>
+    <t>https://ky.scotiabank.com › about-scotiabank › scotiaba...</t>
+  </si>
+  <si>
+    <t>Silicon Valley Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18261</t>
+  </si>
+  <si>
+    <t>https://www.svb.com › ...</t>
+  </si>
+  <si>
+    <t>Societe Generale</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18263</t>
+  </si>
+  <si>
+    <t>St. Georges Bank &amp; Trust Company (Cayman) Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18264</t>
+  </si>
+  <si>
+    <t>https://www.stgeorgesbankcayman.com</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Banking Corporation</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18266</t>
+  </si>
+  <si>
+    <t>https://www.smbcgroup.com</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18274</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18275</t>
+  </si>
+  <si>
+    <t>The Siam Commercial Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18280</t>
+  </si>
+  <si>
+    <t>https://www.scb.co.th › about-us</t>
+  </si>
+  <si>
+    <t>TMB Bank Public Company Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18281</t>
+  </si>
+  <si>
+    <t>https://www.tmbbank.com › ...</t>
+  </si>
+  <si>
+    <t>Toronto - Dominion Bank (The)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18282</t>
+  </si>
+  <si>
+    <t>Towerbank, Ltd</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18283</t>
+  </si>
+  <si>
+    <t>Trade and Commerce Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18284</t>
+  </si>
+  <si>
+    <t>http://tcbliquidation.ky</t>
+  </si>
+  <si>
+    <t>Trident Trust Company (Cayman) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18285</t>
+  </si>
+  <si>
+    <t>https://tridenttrust.com › americas-and-caribbean › cay...</t>
+  </si>
+  <si>
+    <t>Truist Bank</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18168</t>
+  </si>
+  <si>
+    <t>https://www.truist.com</t>
+  </si>
+  <si>
+    <t>U.S. Bank National Association</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18286</t>
+  </si>
+  <si>
+    <t>https://www.usbank.com</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18287</t>
+  </si>
+  <si>
+    <t>United Bank for Africa Plc</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18290</t>
+  </si>
+  <si>
+    <t>https://www.ubagroup.com</t>
+  </si>
+  <si>
+    <t>VBT Bank &amp; Trust, Ltd.</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18291</t>
+  </si>
+  <si>
+    <t>https://www.vbtbank.com</t>
+  </si>
+  <si>
+    <t>Venezolano De Credito, S.A., Banco Universal</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18292</t>
+  </si>
+  <si>
+    <t>http://www.venezolano.com</t>
+  </si>
+  <si>
+    <t>Webster Bank, National Association</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18293</t>
+  </si>
+  <si>
+    <t>https://public.websteronline.com › personal</t>
+  </si>
+  <si>
+    <t>Wells Fargo Bank, National Association</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18294</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18295</t>
+  </si>
+  <si>
+    <t>URL (theBanks)</t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t>Clients</t>
   </si>
 </sst>
 </file>
@@ -4359,10 +5254,2292 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5D2D6-A0BC-408B-9DE6-2FB98676CE28}">
+  <dimension ref="A1:F113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E1" t="s">
+        <v>843</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E4" t="s">
+        <v>854</v>
+      </c>
+      <c r="F4" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1378</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1380</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1382</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1390</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1396</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F33" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+      <c r="F34" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E39" t="s">
+        <v>925</v>
+      </c>
+      <c r="F39" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F40" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E41" t="s">
+        <v>906</v>
+      </c>
+      <c r="F41" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="F44" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>275</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="F48" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+      <c r="F49" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F50" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+      <c r="F51" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>296</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+      <c r="F55" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D56" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+      <c r="F56" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E57" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F57" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+      <c r="F59" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+      <c r="F60" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+      <c r="F61" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+      <c r="F62" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D63" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+      <c r="F64" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D65" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+      <c r="F65" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+      <c r="F66" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D67" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+      <c r="F67" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D68" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+      <c r="F68" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D69" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+      <c r="F71" t="s">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+      <c r="F72" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+      <c r="F73" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D74" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+      <c r="F74" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D76" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+      <c r="F76" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+      <c r="F77" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D78" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+      <c r="F78" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+      <c r="F79" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>534</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+      <c r="F80" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+      <c r="F81" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E82" t="s">
+        <v>854</v>
+      </c>
+      <c r="F82" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+      <c r="F83" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+      <c r="F84" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+      <c r="F85" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E87" t="s">
+        <v>854</v>
+      </c>
+      <c r="F87" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E88" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F88" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+      <c r="F89" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F90" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>624</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D91" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E91" t="s">
+        <v>1551</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D92" t="s">
+        <v>1422</v>
+      </c>
+      <c r="E92" t="s">
+        <v>1562</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1574</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>705</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>713</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1581</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1582</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B105" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B106" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E106" t="s">
+        <v>49</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>766</v>
+      </c>
+      <c r="B107" t="s">
+        <v>1599</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B108" t="s">
+        <v>1601</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B109" t="s">
+        <v>1604</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1322</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B110" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B111" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B112" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D112" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>826</v>
+      </c>
+      <c r="B113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D113" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0A628-0A6D-43FF-B4E0-5E18D0F86A8C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5622,7 +8799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D35A5-D059-4ACF-842D-672F158C38D5}">
   <dimension ref="A1:H267"/>
   <sheetViews>

--- a/United_Kingdom_Banks.xlsx
+++ b/United_Kingdom_Banks.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tasika-my.sharepoint.com/personal/ben_couser_tasika_co_uk/Documents/Documents/UiPath/theBanks_scrapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB1C1926-2069-431A-9F5A-8DC0D6559A00}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{386B602E-BA6B-4855-97BA-AB1E3162534A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60F8292A-2EDB-4C5D-A78C-36C7422DF976}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
+    <workbookView xWindow="-27000" yWindow="1485" windowWidth="27000" windowHeight="14715" xr2:uid="{33A50FC2-D249-45B2-B879-4AF1EAAC94EF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cayman" sheetId="3" r:id="rId1"/>
-    <sheet name="Ireland" sheetId="2" r:id="rId2"/>
-    <sheet name="United Kingdom" sheetId="1" r:id="rId3"/>
+    <sheet name="Guernsey" sheetId="4" r:id="rId1"/>
+    <sheet name="Cayman" sheetId="3" r:id="rId2"/>
+    <sheet name="Ireland" sheetId="2" r:id="rId3"/>
+    <sheet name="United Kingdom" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'United Kingdom'!$A$1:$G$267</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'United Kingdom'!$A$1:$G$267</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2721" uniqueCount="1618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2826" uniqueCount="1694">
   <si>
     <t>Name</t>
   </si>
@@ -4901,6 +4902,234 @@
   </si>
   <si>
     <t>Clients</t>
+  </si>
+  <si>
+    <t>Bank J. Safra Sarasin Limited, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18005</t>
+  </si>
+  <si>
+    <t>Investment management</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> n/a</t>
+  </si>
+  <si>
+    <t>Bank Julius Baer &amp; Co. Ltd, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18006</t>
+  </si>
+  <si>
+    <t>Private banking, wealth management</t>
+  </si>
+  <si>
+    <t>Banque Cantonale Vaudoise Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18008</t>
+  </si>
+  <si>
+    <t>Fiduciary services</t>
+  </si>
+  <si>
+    <t>Barclays Bank PLC, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18009</t>
+  </si>
+  <si>
+    <t>Universal banking</t>
+  </si>
+  <si>
+    <t>BNP Paribas (Suisse) SA, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18011</t>
+  </si>
+  <si>
+    <t>Wealth management</t>
+  </si>
+  <si>
+    <t>BNP Paribas Securities Services S.C.A. Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18012</t>
+  </si>
+  <si>
+    <t>Securities services</t>
+  </si>
+  <si>
+    <t>Butterfield Bank (Guernsey) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18013</t>
+  </si>
+  <si>
+    <t>International wealth management</t>
+  </si>
+  <si>
+    <t>Credit Suisse AG, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18017</t>
+  </si>
+  <si>
+    <t>Private banking, investment banking</t>
+  </si>
+  <si>
+    <t>EFG Private Bank (Channel Islands) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18019</t>
+  </si>
+  <si>
+    <t>Private banking, asset management</t>
+  </si>
+  <si>
+    <t>FirstRand Bank Limited, Guernsey Branch (new)</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18588</t>
+  </si>
+  <si>
+    <t>Offshore banking</t>
+  </si>
+  <si>
+    <t>HSBC Bank plc, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18020</t>
+  </si>
+  <si>
+    <t>Investec Bank (Channel Islands) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18023</t>
+  </si>
+  <si>
+    <t>Total Assets (2017): 2,316.78 mln   (+20.21%)</t>
+  </si>
+  <si>
+    <t>Lloyds Bank Corporate Markets plc, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/19156</t>
+  </si>
+  <si>
+    <t>Corporate and investment banking</t>
+  </si>
+  <si>
+    <t>Northern Trust (Guernsey) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18026</t>
+  </si>
+  <si>
+    <t>Wealth management, fund administration</t>
+  </si>
+  <si>
+    <t>Rothschild &amp; Co Bank International Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18028</t>
+  </si>
+  <si>
+    <t>Private wealth management</t>
+  </si>
+  <si>
+    <t>Royal Bank of Canada (Channel Islands) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18029</t>
+  </si>
+  <si>
+    <t>Royal Bank of Scotland International Limited - Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18030</t>
+  </si>
+  <si>
+    <t>Schroders (C.I.) Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18031</t>
+  </si>
+  <si>
+    <t>SG Kleinwort Hambros Bank (CI) Limited, Guernsey Branch</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18024</t>
+  </si>
+  <si>
+    <t>Skipton International Limited</t>
+  </si>
+  <si>
+    <t>https://thebanks.eu/banks/18033</t>
+  </si>
+  <si>
+    <t>Offshore savings and expat mortgages</t>
+  </si>
+  <si>
+    <t>https://www.jsafrasarasin.com › internet › com › com_c...</t>
+  </si>
+  <si>
+    <t>https://www.juliusbaer.com › About us › Our locations</t>
+  </si>
+  <si>
+    <t>https://www.weareguernsey.com › business-directory</t>
+  </si>
+  <si>
+    <t>https://ciiom.barclays.com › our-locations › guernsey</t>
+  </si>
+  <si>
+    <t>https://www.gfsc.gg › commission › regulated-entities</t>
+  </si>
+  <si>
+    <t>https://www.gfsc.gg › commission › registered-entities</t>
+  </si>
+  <si>
+    <t>http://www.gg.butterfieldgroup.com</t>
+  </si>
+  <si>
+    <t>https://www.credit-suisse.com › meet-with-us</t>
+  </si>
+  <si>
+    <t>https://www.efginternational.com › Our-locations › Gue...</t>
+  </si>
+  <si>
+    <t>https://www.fnbci.co.uk › about-fnb</t>
+  </si>
+  <si>
+    <t>https://www.investec.com › en_int › legal › chis</t>
+  </si>
+  <si>
+    <t>https://www.lloydsbank.com › ... › Business types</t>
+  </si>
+  <si>
+    <t>https://locations.northerntrust.com › ... › St. Peter Port</t>
+  </si>
+  <si>
+    <t>https://www.rothschildandco.com › what-we-do › offices</t>
+  </si>
+  <si>
+    <t>https://www.rbcwealthmanagement.com › legal</t>
+  </si>
+  <si>
+    <t>https://www.schroders.com › contact-us › guernsey</t>
+  </si>
+  <si>
+    <t>https://www.kleinworthambros.com › ... › Locations</t>
+  </si>
+  <si>
+    <t>https://www.skiptoninternational.com</t>
+  </si>
+  <si>
+    <t>URL(theBanks)</t>
+  </si>
+  <si>
+    <t>Website</t>
   </si>
 </sst>
 </file>
@@ -5254,10 +5483,380 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F147961-C949-4055-8B5C-FE560A9BC7A4}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1632</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1637</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1638</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1652</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1658</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1664</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1666</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1668</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1690</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1672</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1673</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5F5D2D6-A0BC-408B-9DE6-2FB98676CE28}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7535,7 +8134,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3C0A628-0A6D-43FF-B4E0-5E18D0F86A8C}">
   <dimension ref="A1:G54"/>
   <sheetViews>
@@ -8799,7 +9398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E3D35A5-D059-4ACF-842D-672F158C38D5}">
   <dimension ref="A1:H267"/>
   <sheetViews>
